--- a/Business/Finance/Budgets, Packets and Templates/Budgets/2019-2020/Budgets 2019-2020.xlsx
+++ b/Business/Finance/Budgets, Packets and Templates/Budgets/2019-2020/Budgets 2019-2020.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>Total Membership Expenses</t>
   </si>
@@ -164,6 +164,36 @@
   </si>
   <si>
     <t>Rocket Consumables</t>
+  </si>
+  <si>
+    <t>UNH Hybrid Rocket</t>
+  </si>
+  <si>
+    <t>Thrust Vectoring</t>
+  </si>
+  <si>
+    <t>Hot-Fire Safety Structures</t>
+  </si>
+  <si>
+    <t>Trailer Frame</t>
+  </si>
+  <si>
+    <t>Structure Material</t>
+  </si>
+  <si>
+    <t>Supporting Equipment (Media/Control)</t>
+  </si>
+  <si>
+    <t>Suporting Quadcopter Equipment</t>
+  </si>
+  <si>
+    <t>Test Rocket Materials</t>
+  </si>
+  <si>
+    <t>Consumable Engines</t>
+  </si>
+  <si>
+    <t>TVC Electronics and Hardware</t>
   </si>
 </sst>
 </file>
@@ -428,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -469,12 +499,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -547,7 +571,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -598,6 +621,35 @@
     <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -971,62 +1023,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W123"/>
+  <dimension ref="A1:W120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="33"/>
-    <col min="5" max="23" width="43.7109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="73" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="74" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="71"/>
+    <col min="5" max="5" width="178.85546875" style="29" customWidth="1"/>
+    <col min="6" max="23" width="43.7109375" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="35"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="36" t="s">
         <v>9</v>
       </c>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="17"/>
-      <c r="C4" s="39"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="31"/>
     </row>
     <row r="5" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="39"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.2">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="51" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="40"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -1036,7 +1094,8 @@
         <f>397.82*20</f>
         <v>7956.4</v>
       </c>
-      <c r="C7" s="60"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -1046,7 +1105,8 @@
         <f>107*5*3</f>
         <v>1605</v>
       </c>
-      <c r="C8" s="64"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="31"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -1056,46 +1116,56 @@
         <f>77*20</f>
         <v>1540</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="59">
+      <c r="B10" s="55"/>
+      <c r="C10" s="56">
         <f>SUM(B7:B9)</f>
         <v>11101.4</v>
       </c>
+      <c r="D10" s="31"/>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="47">
+      <c r="B11" s="34"/>
+      <c r="C11" s="44">
         <f>C10/20</f>
         <v>555.06999999999994</v>
       </c>
+      <c r="D11" s="31"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C12" s="41"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="30"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C14" s="41"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.2">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="51" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="43"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="31"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
@@ -1104,7 +1174,8 @@
       <c r="B16" s="16">
         <v>200</v>
       </c>
-      <c r="C16" s="60"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
@@ -1114,7 +1185,8 @@
         <f>200*6</f>
         <v>1200</v>
       </c>
-      <c r="C17" s="60"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
@@ -1124,50 +1196,56 @@
         <f>150*5</f>
         <v>750</v>
       </c>
-      <c r="C18" s="60"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="31"/>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59">
+      <c r="B19" s="55"/>
+      <c r="C19" s="56">
         <f>SUM(B16:B18)</f>
         <v>2150</v>
       </c>
+      <c r="D19" s="31"/>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="47">
+      <c r="B20" s="34"/>
+      <c r="C20" s="44">
         <f>C19/5</f>
         <v>430</v>
       </c>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="44"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="31"/>
     </row>
     <row r="22" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="30"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="45"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="31"/>
     </row>
     <row r="24" spans="1:4" ht="39.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="51" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="43"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="31"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
@@ -1177,7 +1255,8 @@
         <f>365.54*12</f>
         <v>4386.4800000000005</v>
       </c>
-      <c r="C25" s="60"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="31"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
@@ -1187,7 +1266,8 @@
         <f>186.4*3*4</f>
         <v>2236.8000000000002</v>
       </c>
-      <c r="C26" s="60"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="31"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
@@ -1197,564 +1277,660 @@
         <f>50*12</f>
         <v>600</v>
       </c>
-      <c r="C27" s="60"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="31"/>
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="59">
+      <c r="B28" s="55"/>
+      <c r="C28" s="56">
         <f>SUM(B25:B27)</f>
         <v>7223.2800000000007</v>
       </c>
+      <c r="D28" s="31"/>
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="47">
+      <c r="B29" s="34"/>
+      <c r="C29" s="44">
         <f>C28/12</f>
         <v>601.94000000000005</v>
       </c>
+      <c r="D29" s="31"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="23"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="10"/>
-      <c r="C30" s="43"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="31"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="48"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="51"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="48"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="23"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="10"/>
-      <c r="C32" s="43"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="31"/>
     </row>
     <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="49" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="43"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="31"/>
     </row>
     <row r="34" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="52"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="43"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="31"/>
     </row>
     <row r="35" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="43"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="31"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="20">
         <f>15*4*8</f>
         <v>480</v>
       </c>
-      <c r="C36" s="60"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="31"/>
     </row>
     <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="59">
+      <c r="B37" s="55"/>
+      <c r="C37" s="56">
         <f>SUM(B36:B37)</f>
         <v>480</v>
       </c>
+      <c r="D37" s="31"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C38" s="41"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="31"/>
     </row>
     <row r="39" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="30"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="28"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C40" s="41"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="31"/>
     </row>
     <row r="41" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="60"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="31"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="24">
+      <c r="B42" s="22">
         <v>67.95</v>
       </c>
-      <c r="C42" s="60"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="31"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="22">
         <v>95</v>
       </c>
-      <c r="C43" s="60"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="31"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="24">
+      <c r="B44" s="22">
         <f>15*16.5</f>
         <v>247.5</v>
       </c>
-      <c r="C44" s="60"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="31"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="24">
+      <c r="B45" s="22">
         <f>10*31.76</f>
         <v>317.60000000000002</v>
       </c>
-      <c r="C45" s="60"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="31"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="55">
+      <c r="B46" s="52">
         <f>24.99*13</f>
         <v>324.87</v>
       </c>
-      <c r="C46" s="61"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="31"/>
     </row>
     <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="57" t="s">
+      <c r="A47" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="58"/>
-      <c r="C47" s="59">
+      <c r="B47" s="55"/>
+      <c r="C47" s="56">
         <f>SUM(B42:B46)</f>
         <v>1052.92</v>
       </c>
+      <c r="D47" s="31"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="23"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="10"/>
-      <c r="C48" s="43"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="31"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="48"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="51"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="48"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="23"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="10"/>
-      <c r="C50" s="43"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="31"/>
     </row>
     <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="49" t="s">
         <v>11</v>
       </c>
       <c r="B51" s="10"/>
-      <c r="C51" s="43"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="31"/>
     </row>
     <row r="52" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="52"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="10"/>
-      <c r="C52" s="43"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="31"/>
     </row>
     <row r="53" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="53" t="s">
+      <c r="A53" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="60"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="31"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B54" s="22">
+      <c r="B54" s="20">
         <v>273.39999999999998</v>
       </c>
-      <c r="C54" s="62"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="31"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B55" s="22">
+      <c r="B55" s="20">
         <v>177</v>
       </c>
-      <c r="C55" s="62"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="31"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="22">
+      <c r="B56" s="20">
         <v>347</v>
       </c>
-      <c r="C56" s="62"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="31"/>
     </row>
     <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="57" t="s">
+      <c r="A57" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="58"/>
-      <c r="C57" s="59">
+      <c r="B57" s="55"/>
+      <c r="C57" s="56">
         <f>SUM(B53:B57)</f>
         <v>797.4</v>
       </c>
+      <c r="D57" s="31"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="23"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="10"/>
-      <c r="C58" s="43"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="31"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="48"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="51"/>
+      <c r="A59" s="45"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="48"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="23"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="10"/>
-      <c r="C60" s="43"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="31"/>
     </row>
     <row r="61" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="52" t="s">
+      <c r="A61" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B61"/>
       <c r="C61"/>
+      <c r="D61" s="31"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
+      <c r="D62" s="31"/>
+    </row>
+    <row r="63" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" s="22"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="31"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
-    </row>
-    <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
-    </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78"/>
-      <c r="B78"/>
-      <c r="C78"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80"/>
-      <c r="B80"/>
-      <c r="C80"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81"/>
-      <c r="B81"/>
-      <c r="C81"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82"/>
-      <c r="B82"/>
-      <c r="C82"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83"/>
-      <c r="B83"/>
-      <c r="C83"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84"/>
-      <c r="B84"/>
-      <c r="C84"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85"/>
-      <c r="B85"/>
-      <c r="C85"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86"/>
-      <c r="B86"/>
-      <c r="C86"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87"/>
-      <c r="B87"/>
-      <c r="C87"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88"/>
-      <c r="B88"/>
-      <c r="C88"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89"/>
-      <c r="B89"/>
-      <c r="C89"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90"/>
-      <c r="B90"/>
-      <c r="C90"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91"/>
-      <c r="B91"/>
-      <c r="C91"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92"/>
-      <c r="B92"/>
-      <c r="C92"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93"/>
-      <c r="B93"/>
-      <c r="C93"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94"/>
-      <c r="B94"/>
-      <c r="C94"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95"/>
-      <c r="B95"/>
-      <c r="C95"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96"/>
-      <c r="B96"/>
-      <c r="C96"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="31"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="6"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="31"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="6"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="31"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="6"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="31"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="6"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="31"/>
+    </row>
+    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A69" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" s="55"/>
+      <c r="C69" s="56">
+        <f>SUM(B64:B68)</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="31"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="31"/>
+    </row>
+    <row r="71" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="27"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="28"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="3"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="31"/>
+    </row>
+    <row r="73" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" s="22"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="31"/>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" s="22">
+        <v>350</v>
+      </c>
+      <c r="C74" s="57"/>
+      <c r="D74" s="31"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75" s="22">
+        <v>250</v>
+      </c>
+      <c r="C75" s="57"/>
+      <c r="D75" s="31"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" s="22">
+        <v>200</v>
+      </c>
+      <c r="C76" s="57"/>
+      <c r="D76" s="31"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" s="22">
+        <v>550</v>
+      </c>
+      <c r="C77" s="57"/>
+      <c r="D77" s="31"/>
+    </row>
+    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" s="55"/>
+      <c r="C78" s="56">
+        <f>SUM(B74:B77)</f>
+        <v>1350</v>
+      </c>
+      <c r="D78" s="31"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="3"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="31"/>
+    </row>
+    <row r="80" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="27"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="28"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="3"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="31"/>
+    </row>
+    <row r="82" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A82" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82" s="22"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="31"/>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" s="22">
+        <v>544.99</v>
+      </c>
+      <c r="C83" s="57"/>
+      <c r="D83" s="31"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="22">
+        <v>1100</v>
+      </c>
+      <c r="C84" s="57"/>
+      <c r="D84" s="31"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85" s="22">
+        <v>800</v>
+      </c>
+      <c r="C85" s="57"/>
+      <c r="D85" s="31"/>
+    </row>
+    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A86" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" s="55"/>
+      <c r="C86" s="56">
+        <f>SUM(B83:B85)</f>
+        <v>2444.9899999999998</v>
+      </c>
+      <c r="D86" s="31"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="21"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="31"/>
+    </row>
+    <row r="88" spans="1:4" ht="339.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="64"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="67"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="68"/>
+      <c r="B89" s="69"/>
+      <c r="C89" s="70"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="29"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="29"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="29"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="29"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="29"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="29"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="29"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97"/>
-      <c r="B97"/>
-      <c r="C97"/>
+      <c r="A97" s="29"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98"/>
-      <c r="B98"/>
-      <c r="C98"/>
+      <c r="A98" s="29"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99"/>
-      <c r="B99"/>
-      <c r="C99"/>
+      <c r="A99" s="29"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100"/>
-      <c r="B100"/>
-      <c r="C100"/>
+      <c r="A100" s="29"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101"/>
-      <c r="B101"/>
-      <c r="C101"/>
+      <c r="A101" s="29"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102"/>
-      <c r="B102"/>
-      <c r="C102"/>
+      <c r="A102" s="29"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103"/>
-      <c r="B103"/>
-      <c r="C103"/>
+      <c r="A103" s="29"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104"/>
-      <c r="B104"/>
-      <c r="C104"/>
+      <c r="A104" s="29"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105"/>
-      <c r="B105"/>
-      <c r="C105"/>
+      <c r="A105" s="29"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106"/>
-      <c r="B106"/>
-      <c r="C106"/>
+      <c r="A106" s="29"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107"/>
-      <c r="B107"/>
-      <c r="C107"/>
+      <c r="A107" s="29"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108"/>
-      <c r="B108"/>
-      <c r="C108"/>
+      <c r="A108" s="29"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109"/>
-      <c r="B109"/>
-      <c r="C109"/>
+      <c r="A109" s="29"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110"/>
-      <c r="B110"/>
-      <c r="C110"/>
+      <c r="A110" s="29"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111"/>
-      <c r="B111"/>
-      <c r="C111"/>
+      <c r="A111" s="29"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="29"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112"/>
-      <c r="B112"/>
-      <c r="C112"/>
+      <c r="A112" s="29"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113"/>
-      <c r="B113"/>
-      <c r="C113"/>
+      <c r="A113" s="29"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="29"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114"/>
-      <c r="B114"/>
-      <c r="C114"/>
+      <c r="A114" s="29"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="29"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115"/>
-      <c r="B115"/>
-      <c r="C115"/>
+      <c r="A115" s="29"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="29"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116"/>
-      <c r="B116"/>
-      <c r="C116"/>
+      <c r="A116" s="29"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117"/>
-      <c r="B117"/>
-      <c r="C117"/>
+      <c r="A117" s="29"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="29"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118"/>
-      <c r="B118"/>
-      <c r="C118"/>
+      <c r="A118" s="29"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="29"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119"/>
-      <c r="B119"/>
-      <c r="C119"/>
+      <c r="A119" s="29"/>
+      <c r="B119" s="29"/>
+      <c r="C119" s="29"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120"/>
-      <c r="B120"/>
-      <c r="C120"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121"/>
-      <c r="B121"/>
-      <c r="C121"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122"/>
-      <c r="B122"/>
-      <c r="C122"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123"/>
-      <c r="B123"/>
-      <c r="C123"/>
+      <c r="A120" s="29"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1774,7 +1950,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1786,11 +1962,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -1814,11 +1990,11 @@
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1966,7 +2142,7 @@
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="11">
         <f>SUM(B4:B6)</f>
         <v>11101.4</v>
@@ -1997,7 +2173,7 @@
       <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="14">
         <f>C7/20</f>
         <v>555.06999999999994</v>

--- a/Business/Finance/Budgets, Packets and Templates/Budgets/2019-2020/Budgets 2019-2020.xlsx
+++ b/Business/Finance/Budgets, Packets and Templates/Budgets/2019-2020/Budgets 2019-2020.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>Total Membership Expenses</t>
   </si>
@@ -194,6 +194,39 @@
   </si>
   <si>
     <t>TVC Electronics and Hardware</t>
+  </si>
+  <si>
+    <t>Electronic Navigation Components</t>
+  </si>
+  <si>
+    <t>Parachutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frame Support Material </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frame Body Shell </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow Regulator </t>
+  </si>
+  <si>
+    <t>Nitrous Oxide Refills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTPB Rubber Fuel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stainless Steel Nozzle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inconel Nozzle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combustion Chamber </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocket Hardware </t>
   </si>
 </sst>
 </file>
@@ -621,12 +654,6 @@
     <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -650,6 +677,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1023,29 +1056,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W120"/>
+  <dimension ref="A1:W126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.140625" style="72" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="73" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="71"/>
+    <col min="1" max="1" width="45.140625" style="70" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="71" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="72" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="69"/>
     <col min="5" max="5" width="178.85546875" style="29" customWidth="1"/>
     <col min="6" max="23" width="43.7109375" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
       <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1576,236 +1609,297 @@
       <c r="D63" s="31"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="6"/>
-      <c r="B64" s="22"/>
+      <c r="A64" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" s="22">
+        <f>500</f>
+        <v>500</v>
+      </c>
       <c r="C64" s="57"/>
       <c r="D64" s="31"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="6"/>
-      <c r="B65" s="22"/>
+      <c r="A65" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" s="22">
+        <f>625</f>
+        <v>625</v>
+      </c>
       <c r="C65" s="57"/>
       <c r="D65" s="31"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="6"/>
-      <c r="B66" s="22"/>
+      <c r="A66" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" s="22">
+        <f>150</f>
+        <v>150</v>
+      </c>
       <c r="C66" s="57"/>
       <c r="D66" s="31"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
-      <c r="B67" s="22"/>
+      <c r="A67" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" s="22">
+        <f>500</f>
+        <v>500</v>
+      </c>
       <c r="C67" s="57"/>
       <c r="D67" s="31"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="6"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="58"/>
+      <c r="A68" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" s="22">
+        <f>375</f>
+        <v>375</v>
+      </c>
+      <c r="C68" s="57"/>
       <c r="D68" s="31"/>
     </row>
-    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="B69" s="55"/>
-      <c r="C69" s="56">
-        <f>SUM(B64:B68)</f>
-        <v>0</v>
-      </c>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69" s="22">
+        <f>450</f>
+        <v>450</v>
+      </c>
+      <c r="C69" s="57"/>
       <c r="D69" s="31"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="39"/>
+      <c r="A70" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" s="22">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="C70" s="57"/>
       <c r="D70" s="31"/>
     </row>
-    <row r="71" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="27"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="28"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" s="22">
+        <f>500</f>
+        <v>500</v>
+      </c>
+      <c r="C71" s="57"/>
+      <c r="D71" s="31"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="39"/>
+      <c r="A72" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" s="22">
+        <f>750</f>
+        <v>750</v>
+      </c>
+      <c r="C72" s="57"/>
       <c r="D72" s="31"/>
     </row>
-    <row r="73" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A73" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="B73" s="22"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" s="22">
+        <f>500</f>
+        <v>500</v>
+      </c>
       <c r="C73" s="57"/>
       <c r="D73" s="31"/>
     </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" s="52">
+        <f>750</f>
+        <v>750</v>
+      </c>
+      <c r="C74" s="58"/>
+      <c r="D74" s="31"/>
+    </row>
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="55"/>
+      <c r="C75" s="56">
+        <f>SUM(B64:B74)</f>
+        <v>5200</v>
+      </c>
+      <c r="D75" s="31"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="3"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="31"/>
+    </row>
+    <row r="77" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="27"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="28"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="3"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="31"/>
+    </row>
+    <row r="79" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A79" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" s="22"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="31"/>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B74" s="22">
+      <c r="B80" s="22">
         <v>350</v>
       </c>
-      <c r="C74" s="57"/>
-      <c r="D74" s="31"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="s">
+      <c r="C80" s="57"/>
+      <c r="D80" s="31"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B75" s="22">
+      <c r="B81" s="22">
         <v>250</v>
       </c>
-      <c r="C75" s="57"/>
-      <c r="D75" s="31"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
+      <c r="C81" s="57"/>
+      <c r="D81" s="31"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="22">
+      <c r="B82" s="22">
         <v>200</v>
       </c>
-      <c r="C76" s="57"/>
-      <c r="D76" s="31"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B77" s="22">
-        <v>550</v>
-      </c>
-      <c r="C77" s="57"/>
-      <c r="D77" s="31"/>
-    </row>
-    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="B78" s="55"/>
-      <c r="C78" s="56">
-        <f>SUM(B74:B77)</f>
-        <v>1350</v>
-      </c>
-      <c r="D78" s="31"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="3"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="31"/>
-    </row>
-    <row r="80" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="27"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="28"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="3"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="31"/>
-    </row>
-    <row r="82" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B82" s="22"/>
       <c r="C82" s="57"/>
       <c r="D82" s="31"/>
     </row>
-    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B83" s="22">
-        <v>544.99</v>
+        <v>550</v>
       </c>
       <c r="C83" s="57"/>
       <c r="D83" s="31"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="s">
+    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84" s="55"/>
+      <c r="C84" s="56">
+        <f>SUM(B80:B83)</f>
+        <v>1350</v>
+      </c>
+      <c r="D84" s="31"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="3"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="31"/>
+    </row>
+    <row r="86" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="27"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="28"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="3"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="31"/>
+    </row>
+    <row r="88" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A88" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" s="22"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="31"/>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" s="22">
+        <v>544.99</v>
+      </c>
+      <c r="C89" s="57"/>
+      <c r="D89" s="31"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B84" s="22">
+      <c r="B90" s="22">
         <v>1100</v>
       </c>
-      <c r="C84" s="57"/>
-      <c r="D84" s="31"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="6" t="s">
+      <c r="C90" s="57"/>
+      <c r="D90" s="31"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B85" s="22">
+      <c r="B91" s="22">
         <v>800</v>
       </c>
-      <c r="C85" s="57"/>
-      <c r="D85" s="31"/>
-    </row>
-    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="54" t="s">
+      <c r="C91" s="57"/>
+      <c r="D91" s="31"/>
+    </row>
+    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B86" s="55"/>
-      <c r="C86" s="56">
-        <f>SUM(B83:B85)</f>
+      <c r="B92" s="55"/>
+      <c r="C92" s="56">
+        <f>SUM(B89:B91)</f>
         <v>2444.9899999999998</v>
       </c>
-      <c r="D86" s="31"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="21"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="31"/>
-    </row>
-    <row r="88" spans="1:4" ht="339.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="64"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="66"/>
-      <c r="D88" s="67"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="68"/>
-      <c r="B89" s="69"/>
-      <c r="C89" s="70"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="29"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="29"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="29"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
+      <c r="D92" s="31"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="29"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="29"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
+      <c r="A93" s="21"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="31"/>
+    </row>
+    <row r="94" spans="1:4" ht="339.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="62"/>
+      <c r="B94" s="63"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="65"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="29"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
+      <c r="A95" s="66"/>
+      <c r="B95" s="67"/>
+      <c r="C95" s="68"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="29"/>
@@ -1931,6 +2025,36 @@
       <c r="A120" s="29"/>
       <c r="B120" s="29"/>
       <c r="C120" s="29"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="29"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="29"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="29"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="29"/>
+      <c r="B123" s="29"/>
+      <c r="C123" s="29"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="29"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="29"/>
+      <c r="B125" s="29"/>
+      <c r="C125" s="29"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="29"/>
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1962,11 +2086,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -1990,11 +2114,11 @@
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>

--- a/Business/Finance/Budgets, Packets and Templates/Budgets/2019-2020/Budgets 2019-2020.xlsx
+++ b/Business/Finance/Budgets, Packets and Templates/Budgets/2019-2020/Budgets 2019-2020.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>Total Membership Expenses</t>
   </si>
@@ -223,10 +223,16 @@
     <t xml:space="preserve">Inconel Nozzle </t>
   </si>
   <si>
-    <t xml:space="preserve">Combustion Chamber </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rocket Hardware </t>
+    <t>Combustion Chamber and Injector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misc. Rocket Hardware </t>
+  </si>
+  <si>
+    <t>UNH SEDS Total Budget</t>
+  </si>
+  <si>
+    <t>Budget Totals</t>
   </si>
 </sst>
 </file>
@@ -238,7 +244,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -352,6 +358,33 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF00B050"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF00B050"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -491,7 +524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -652,25 +685,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -682,6 +696,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1056,29 +1088,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W126"/>
+  <dimension ref="A1:W129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.140625" style="70" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="71" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="69"/>
+    <col min="1" max="1" width="45.140625" style="63" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="62" customWidth="1"/>
     <col min="5" max="5" width="178.85546875" style="29" customWidth="1"/>
     <col min="6" max="23" width="43.7109375" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
       <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1701,8 +1733,7 @@
         <v>54</v>
       </c>
       <c r="B72" s="22">
-        <f>750</f>
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="C72" s="57"/>
       <c r="D72" s="31"/>
@@ -1712,8 +1743,7 @@
         <v>55</v>
       </c>
       <c r="B73" s="22">
-        <f>500</f>
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="C73" s="57"/>
       <c r="D73" s="31"/>
@@ -1736,7 +1766,7 @@
       <c r="B75" s="55"/>
       <c r="C75" s="56">
         <f>SUM(B64:B74)</f>
-        <v>5200</v>
+        <v>5600</v>
       </c>
       <c r="D75" s="31"/>
     </row>
@@ -1890,98 +1920,138 @@
       <c r="C93" s="41"/>
       <c r="D93" s="31"/>
     </row>
-    <row r="94" spans="1:4" ht="339.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="62"/>
-      <c r="B94" s="63"/>
-      <c r="C94" s="64"/>
-      <c r="D94" s="65"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="66"/>
-      <c r="B95" s="67"/>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="45"/>
+      <c r="B94" s="46"/>
+      <c r="C94" s="47"/>
+      <c r="D94" s="48"/>
+    </row>
+    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A95" s="21"/>
+      <c r="B95" s="10"/>
       <c r="C95" s="68"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="29"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="29"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="29"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="29"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="29"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="29"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="29"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="29"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="29"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="29"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="29"/>
-      <c r="B104" s="29"/>
-      <c r="C104" s="29"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="29"/>
-      <c r="B105" s="29"/>
-      <c r="C105" s="29"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="29"/>
-      <c r="B106" s="29"/>
-      <c r="C106" s="29"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="29"/>
-      <c r="B107" s="29"/>
-      <c r="C107" s="29"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95" s="31"/>
+    </row>
+    <row r="96" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A96" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B96" s="10"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="31"/>
+    </row>
+    <row r="97" spans="1:4" s="29" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="63"/>
+      <c r="B97" s="64"/>
+      <c r="C97" s="70"/>
+      <c r="D97" s="64"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="21"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="31"/>
+    </row>
+    <row r="99" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A99" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" s="10"/>
+      <c r="C99" s="68">
+        <f>C10+C19+C28</f>
+        <v>20474.68</v>
+      </c>
+      <c r="D99" s="31"/>
+    </row>
+    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A100" s="21"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="68"/>
+      <c r="D100" s="31"/>
+    </row>
+    <row r="101" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A101" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101" s="10"/>
+      <c r="C101" s="68">
+        <f>C37+C47</f>
+        <v>1532.92</v>
+      </c>
+      <c r="D101" s="31"/>
+    </row>
+    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A102" s="21"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="68"/>
+      <c r="D102" s="31"/>
+    </row>
+    <row r="103" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A103" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="10"/>
+      <c r="C103" s="68">
+        <f>C57</f>
+        <v>797.4</v>
+      </c>
+      <c r="D103" s="31"/>
+    </row>
+    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A104" s="21"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="68"/>
+      <c r="D104" s="31"/>
+    </row>
+    <row r="105" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A105" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="10"/>
+      <c r="C105" s="68">
+        <f>C75+C84+C92</f>
+        <v>9394.99</v>
+      </c>
+      <c r="D105" s="31"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="21"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="31"/>
+    </row>
+    <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B107" s="72"/>
+      <c r="C107" s="73">
+        <f>C99+C101+C103+C105</f>
+        <v>32199.989999999998</v>
+      </c>
+      <c r="D107" s="31"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="29"/>
       <c r="B108" s="29"/>
       <c r="C108" s="29"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="29"/>
       <c r="B109" s="29"/>
       <c r="C109" s="29"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="29"/>
       <c r="B110" s="29"/>
       <c r="C110" s="29"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="29"/>
       <c r="B111" s="29"/>
       <c r="C111" s="29"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="29"/>
       <c r="B112" s="29"/>
       <c r="C112" s="29"/>
@@ -2055,6 +2125,21 @@
       <c r="A126" s="29"/>
       <c r="B126" s="29"/>
       <c r="C126" s="29"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="29"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="29"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="29"/>
+      <c r="B129" s="29"/>
+      <c r="C129" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2086,11 +2171,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2114,11 +2199,11 @@
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>

--- a/Business/Finance/Budgets, Packets and Templates/Budgets/2019-2020/Budgets 2019-2020.xlsx
+++ b/Business/Finance/Budgets, Packets and Templates/Budgets/2019-2020/Budgets 2019-2020.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>Total Membership Expenses</t>
   </si>
@@ -233,6 +233,12 @@
   </si>
   <si>
     <t>Budget Totals</t>
+  </si>
+  <si>
+    <t>The 2019 SpaceVision conference is hosted by the SEDS-ASU chapter. This conference brings together all of the nationwide SEDS chapters and all people who have a shared passion for space. In 2018, 16 of UNH SEDS's members travelled to San Deigo out of their own pocket to experience this amazing conference.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Inernation Astronautical Congress (IAC) is </t>
   </si>
 </sst>
 </file>
@@ -433,7 +439,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -495,10 +501,10 @@
       <left style="thin">
         <color indexed="21"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="21"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="thin">
         <color indexed="21"/>
       </bottom>
@@ -508,15 +514,85 @@
       <left style="thin">
         <color indexed="21"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="21"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
         <color indexed="21"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
       </right>
       <top style="thin">
         <color indexed="21"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="4" tint="0.79998168889431442"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="21"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color indexed="21"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -524,7 +600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -613,15 +689,9 @@
     <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -632,12 +702,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -668,52 +732,83 @@
     </xf>
     <xf numFmtId="44" fontId="19" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1091,26 +1186,26 @@
   <dimension ref="A1:W129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.140625" style="63" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="65" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" style="62" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" style="53" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="54" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="52" customWidth="1"/>
     <col min="5" max="5" width="178.85546875" style="29" customWidth="1"/>
     <col min="6" max="23" width="43.7109375" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1124,43 +1219,45 @@
       <c r="B3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="31"/>
+      <c r="D3" s="80" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="45" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="17"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="31"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="80"/>
     </row>
     <row r="5" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="31"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="80"/>
     </row>
     <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.2">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="47" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="31"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="80"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="64">
         <f>397.82*20</f>
         <v>7956.4</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="31"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="80"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -1170,8 +1267,8 @@
         <f>107*5*3</f>
         <v>1605</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="31"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="80"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -1181,56 +1278,58 @@
         <f>77*20</f>
         <v>1540</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="80"/>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="56">
+      <c r="B10" s="51"/>
+      <c r="C10" s="67">
         <f>SUM(B7:B9)</f>
         <v>11101.4</v>
       </c>
-      <c r="D10" s="31"/>
+      <c r="D10" s="80"/>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="49" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="34"/>
-      <c r="C11" s="44">
+      <c r="C11" s="68">
         <f>C10/20</f>
         <v>555.06999999999994</v>
       </c>
-      <c r="D11" s="31"/>
+      <c r="D11" s="80"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="31"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80"/>
     </row>
     <row r="13" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="28"/>
-      <c r="C13" s="40"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="31"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="72" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="47" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="72"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
@@ -1239,8 +1338,8 @@
       <c r="B16" s="16">
         <v>200</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="31"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="72"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
@@ -1250,8 +1349,8 @@
         <f>200*6</f>
         <v>1200</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="31"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="72"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
@@ -1261,56 +1360,56 @@
         <f>150*5</f>
         <v>750</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="31"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="72"/>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="56">
+      <c r="B19" s="51"/>
+      <c r="C19" s="67">
         <f>SUM(B16:B18)</f>
         <v>2150</v>
       </c>
-      <c r="D19" s="31"/>
+      <c r="D19" s="72"/>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="49" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="34"/>
-      <c r="C20" s="44">
+      <c r="C20" s="68">
         <f>C19/5</f>
         <v>430</v>
       </c>
-      <c r="D20" s="31"/>
+      <c r="D20" s="72"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="31"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="72"/>
     </row>
     <row r="22" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="28"/>
-      <c r="C22" s="40"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="31"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="72"/>
     </row>
     <row r="24" spans="1:4" ht="39.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="47" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="31"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="72"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
@@ -1320,8 +1419,8 @@
         <f>365.54*12</f>
         <v>4386.4800000000005</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="31"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="72"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
@@ -1331,8 +1430,8 @@
         <f>186.4*3*4</f>
         <v>2236.8000000000002</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="31"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="72"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
@@ -1342,70 +1441,70 @@
         <f>50*12</f>
         <v>600</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="31"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="72"/>
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56">
+      <c r="B28" s="51"/>
+      <c r="C28" s="67">
         <f>SUM(B25:B27)</f>
         <v>7223.2800000000007</v>
       </c>
-      <c r="D28" s="31"/>
+      <c r="D28" s="72"/>
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="49" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="34"/>
-      <c r="C29" s="44">
+      <c r="C29" s="68">
         <f>C28/12</f>
         <v>601.94000000000005</v>
       </c>
-      <c r="D29" s="31"/>
+      <c r="D29" s="72"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
       <c r="B30" s="10"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="31"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="72"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="48"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
       <c r="B32" s="10"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="31"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="72"/>
     </row>
     <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="45" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="31"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="72"/>
     </row>
     <row r="34" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="49"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="31"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="72"/>
     </row>
     <row r="35" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="46" t="s">
         <v>20</v>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="31"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="72"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
@@ -1415,45 +1514,45 @@
         <f>15*4*8</f>
         <v>480</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="31"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="72"/>
     </row>
     <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="56">
+      <c r="B37" s="51"/>
+      <c r="C37" s="67">
         <f>SUM(B36:B37)</f>
         <v>480</v>
       </c>
-      <c r="D37" s="31"/>
+      <c r="D37" s="72"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="31"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="72"/>
     </row>
     <row r="39" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="28"/>
-      <c r="C39" s="40"/>
+      <c r="C39" s="38"/>
       <c r="D39" s="28"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="31"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="72"/>
     </row>
     <row r="41" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B41" s="22"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="31"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="72"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
@@ -1462,8 +1561,8 @@
       <c r="B42" s="22">
         <v>67.95</v>
       </c>
-      <c r="C42" s="57"/>
-      <c r="D42" s="31"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="72"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
@@ -1472,8 +1571,8 @@
       <c r="B43" s="22">
         <v>95</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="31"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="72"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
@@ -1483,8 +1582,8 @@
         <f>15*16.5</f>
         <v>247.5</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="31"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="72"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
@@ -1494,70 +1593,70 @@
         <f>10*31.76</f>
         <v>317.60000000000002</v>
       </c>
-      <c r="C45" s="57"/>
-      <c r="D45" s="31"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="72"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="52">
+      <c r="B46" s="48">
         <f>24.99*13</f>
         <v>324.87</v>
       </c>
-      <c r="C46" s="58"/>
-      <c r="D46" s="31"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="72"/>
     </row>
     <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="55"/>
-      <c r="C47" s="56">
+      <c r="B47" s="51"/>
+      <c r="C47" s="67">
         <f>SUM(B42:B46)</f>
         <v>1052.92</v>
       </c>
-      <c r="D47" s="31"/>
+      <c r="D47" s="72"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
       <c r="B48" s="10"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="31"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="72"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="45"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="48"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="44"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
       <c r="B50" s="10"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="31"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="72"/>
     </row>
     <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="49" t="s">
+      <c r="A51" s="45" t="s">
         <v>11</v>
       </c>
       <c r="B51" s="10"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="31"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="72"/>
     </row>
     <row r="52" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="49"/>
+      <c r="A52" s="45"/>
       <c r="B52" s="10"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="31"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="72"/>
     </row>
     <row r="53" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="50" t="s">
+      <c r="A53" s="46" t="s">
         <v>32</v>
       </c>
       <c r="B53" s="20"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="31"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="72"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
@@ -1566,8 +1665,8 @@
       <c r="B54" s="20">
         <v>273.39999999999998</v>
       </c>
-      <c r="C54" s="59"/>
-      <c r="D54" s="31"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="72"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
@@ -1576,8 +1675,8 @@
       <c r="B55" s="20">
         <v>177</v>
       </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="31"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="72"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
@@ -1586,59 +1685,59 @@
       <c r="B56" s="20">
         <v>347</v>
       </c>
-      <c r="C56" s="59"/>
-      <c r="D56" s="31"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="72"/>
     </row>
     <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="55"/>
-      <c r="C57" s="56">
+      <c r="B57" s="51"/>
+      <c r="C57" s="67">
         <f>SUM(B53:B57)</f>
         <v>797.4</v>
       </c>
-      <c r="D57" s="31"/>
+      <c r="D57" s="72"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
       <c r="B58" s="10"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="31"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="72"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="45"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="48"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="44"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
       <c r="B60" s="10"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="31"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="72"/>
     </row>
     <row r="61" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="49" t="s">
+      <c r="A61" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B61"/>
       <c r="C61"/>
-      <c r="D61" s="31"/>
+      <c r="D61" s="72"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
-      <c r="D62" s="31"/>
+      <c r="D62" s="72"/>
     </row>
     <row r="63" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="50" t="s">
+      <c r="A63" s="46" t="s">
         <v>36</v>
       </c>
       <c r="B63" s="22"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="31"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="72"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
@@ -1648,8 +1747,8 @@
         <f>500</f>
         <v>500</v>
       </c>
-      <c r="C64" s="57"/>
-      <c r="D64" s="31"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="72"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
@@ -1659,8 +1758,8 @@
         <f>625</f>
         <v>625</v>
       </c>
-      <c r="C65" s="57"/>
-      <c r="D65" s="31"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="72"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
@@ -1670,8 +1769,8 @@
         <f>150</f>
         <v>150</v>
       </c>
-      <c r="C66" s="57"/>
-      <c r="D66" s="31"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="72"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -1681,8 +1780,8 @@
         <f>500</f>
         <v>500</v>
       </c>
-      <c r="C67" s="57"/>
-      <c r="D67" s="31"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="72"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
@@ -1692,8 +1791,8 @@
         <f>375</f>
         <v>375</v>
       </c>
-      <c r="C68" s="57"/>
-      <c r="D68" s="31"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="72"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
@@ -1703,8 +1802,8 @@
         <f>450</f>
         <v>450</v>
       </c>
-      <c r="C69" s="57"/>
-      <c r="D69" s="31"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="72"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
@@ -1714,8 +1813,8 @@
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="C70" s="57"/>
-      <c r="D70" s="31"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="72"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
@@ -1725,8 +1824,8 @@
         <f>500</f>
         <v>500</v>
       </c>
-      <c r="C71" s="57"/>
-      <c r="D71" s="31"/>
+      <c r="C71" s="65"/>
+      <c r="D71" s="72"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
@@ -1735,8 +1834,8 @@
       <c r="B72" s="22">
         <v>1000</v>
       </c>
-      <c r="C72" s="57"/>
-      <c r="D72" s="31"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="72"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
@@ -1745,56 +1844,56 @@
       <c r="B73" s="22">
         <v>650</v>
       </c>
-      <c r="C73" s="57"/>
-      <c r="D73" s="31"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="72"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B74" s="52">
+      <c r="B74" s="48">
         <f>750</f>
         <v>750</v>
       </c>
-      <c r="C74" s="58"/>
-      <c r="D74" s="31"/>
+      <c r="C74" s="75"/>
+      <c r="D74" s="72"/>
     </row>
     <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="54" t="s">
+      <c r="A75" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="55"/>
-      <c r="C75" s="56">
+      <c r="B75" s="51"/>
+      <c r="C75" s="67">
         <f>SUM(B64:B74)</f>
         <v>5600</v>
       </c>
-      <c r="D75" s="31"/>
+      <c r="D75" s="72"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="31"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="72"/>
     </row>
     <row r="77" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="28"/>
-      <c r="C77" s="40"/>
+      <c r="C77" s="38"/>
       <c r="D77" s="28"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="31"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="72"/>
     </row>
     <row r="79" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="50" t="s">
+      <c r="A79" s="46" t="s">
         <v>37</v>
       </c>
       <c r="B79" s="22"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="31"/>
+      <c r="C79" s="65"/>
+      <c r="D79" s="72"/>
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
@@ -1803,8 +1902,8 @@
       <c r="B80" s="22">
         <v>350</v>
       </c>
-      <c r="C80" s="57"/>
-      <c r="D80" s="31"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="72"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
@@ -1813,8 +1912,8 @@
       <c r="B81" s="22">
         <v>250</v>
       </c>
-      <c r="C81" s="57"/>
-      <c r="D81" s="31"/>
+      <c r="C81" s="65"/>
+      <c r="D81" s="72"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
@@ -1823,8 +1922,8 @@
       <c r="B82" s="22">
         <v>200</v>
       </c>
-      <c r="C82" s="57"/>
-      <c r="D82" s="31"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="72"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
@@ -1833,45 +1932,45 @@
       <c r="B83" s="22">
         <v>550</v>
       </c>
-      <c r="C83" s="57"/>
-      <c r="D83" s="31"/>
+      <c r="C83" s="65"/>
+      <c r="D83" s="72"/>
     </row>
     <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="54" t="s">
+      <c r="A84" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B84" s="55"/>
-      <c r="C84" s="56">
+      <c r="B84" s="51"/>
+      <c r="C84" s="67">
         <f>SUM(B80:B83)</f>
         <v>1350</v>
       </c>
-      <c r="D84" s="31"/>
+      <c r="D84" s="72"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="31"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="72"/>
     </row>
     <row r="86" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="28"/>
-      <c r="C86" s="40"/>
+      <c r="C86" s="38"/>
       <c r="D86" s="28"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="31"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="72"/>
     </row>
     <row r="88" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="50" t="s">
+      <c r="A88" s="46" t="s">
         <v>38</v>
       </c>
       <c r="B88" s="22"/>
-      <c r="C88" s="57"/>
-      <c r="D88" s="31"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="72"/>
     </row>
     <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
@@ -1880,8 +1979,8 @@
       <c r="B89" s="22">
         <v>544.99</v>
       </c>
-      <c r="C89" s="57"/>
-      <c r="D89" s="31"/>
+      <c r="C89" s="65"/>
+      <c r="D89" s="72"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
@@ -1890,8 +1989,8 @@
       <c r="B90" s="22">
         <v>1100</v>
       </c>
-      <c r="C90" s="57"/>
-      <c r="D90" s="31"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="72"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
@@ -1900,136 +1999,136 @@
       <c r="B91" s="22">
         <v>800</v>
       </c>
-      <c r="C91" s="57"/>
-      <c r="D91" s="31"/>
+      <c r="C91" s="65"/>
+      <c r="D91" s="72"/>
     </row>
     <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="54" t="s">
+      <c r="A92" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="55"/>
-      <c r="C92" s="56">
+      <c r="B92" s="51"/>
+      <c r="C92" s="67">
         <f>SUM(B89:B91)</f>
         <v>2444.9899999999998</v>
       </c>
-      <c r="D92" s="31"/>
+      <c r="D92" s="72"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="21"/>
       <c r="B93" s="10"/>
-      <c r="C93" s="41"/>
-      <c r="D93" s="31"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="72"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="45"/>
-      <c r="B94" s="46"/>
-      <c r="C94" s="47"/>
-      <c r="D94" s="48"/>
+      <c r="A94" s="41"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="44"/>
     </row>
     <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="21"/>
       <c r="B95" s="10"/>
-      <c r="C95" s="68"/>
-      <c r="D95" s="31"/>
+      <c r="C95" s="56"/>
+      <c r="D95" s="72"/>
     </row>
     <row r="96" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A96" s="69" t="s">
+      <c r="A96" s="57" t="s">
         <v>58</v>
       </c>
       <c r="B96" s="10"/>
-      <c r="C96" s="41"/>
-      <c r="D96" s="31"/>
-    </row>
-    <row r="97" spans="1:4" s="29" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="63"/>
-      <c r="B97" s="64"/>
-      <c r="C97" s="70"/>
-      <c r="D97" s="64"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="72"/>
+    </row>
+    <row r="97" spans="1:4" s="29" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="53"/>
+      <c r="B97" s="54"/>
+      <c r="C97" s="58"/>
+      <c r="D97" s="54"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="21"/>
       <c r="B98" s="10"/>
-      <c r="C98" s="41"/>
-      <c r="D98" s="31"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="72"/>
     </row>
     <row r="99" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A99" s="49" t="s">
+      <c r="A99" s="45" t="s">
         <v>13</v>
       </c>
       <c r="B99" s="10"/>
-      <c r="C99" s="68">
+      <c r="C99" s="56">
         <f>C10+C19+C28</f>
         <v>20474.68</v>
       </c>
-      <c r="D99" s="31"/>
+      <c r="D99" s="72"/>
     </row>
     <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="21"/>
       <c r="B100" s="10"/>
-      <c r="C100" s="68"/>
-      <c r="D100" s="31"/>
+      <c r="C100" s="56"/>
+      <c r="D100" s="72"/>
     </row>
     <row r="101" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A101" s="49" t="s">
+      <c r="A101" s="45" t="s">
         <v>19</v>
       </c>
       <c r="B101" s="10"/>
-      <c r="C101" s="68">
+      <c r="C101" s="56">
         <f>C37+C47</f>
         <v>1532.92</v>
       </c>
-      <c r="D101" s="31"/>
+      <c r="D101" s="72"/>
     </row>
     <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="21"/>
       <c r="B102" s="10"/>
-      <c r="C102" s="68"/>
-      <c r="D102" s="31"/>
+      <c r="C102" s="56"/>
+      <c r="D102" s="72"/>
     </row>
     <row r="103" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A103" s="49" t="s">
+      <c r="A103" s="45" t="s">
         <v>11</v>
       </c>
       <c r="B103" s="10"/>
-      <c r="C103" s="68">
+      <c r="C103" s="56">
         <f>C57</f>
         <v>797.4</v>
       </c>
-      <c r="D103" s="31"/>
+      <c r="D103" s="72"/>
     </row>
     <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="21"/>
       <c r="B104" s="10"/>
-      <c r="C104" s="68"/>
-      <c r="D104" s="31"/>
+      <c r="C104" s="56"/>
+      <c r="D104" s="72"/>
     </row>
     <row r="105" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A105" s="49" t="s">
+      <c r="A105" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B105" s="10"/>
-      <c r="C105" s="68">
+      <c r="C105" s="56">
         <f>C75+C84+C92</f>
         <v>9394.99</v>
       </c>
-      <c r="D105" s="31"/>
+      <c r="D105" s="72"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="21"/>
       <c r="B106" s="10"/>
-      <c r="C106" s="41"/>
-      <c r="D106" s="31"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="72"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="71" t="s">
+      <c r="A107" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="B107" s="72"/>
-      <c r="C107" s="73">
+      <c r="B107" s="60"/>
+      <c r="C107" s="61">
         <f>C99+C101+C103+C105</f>
         <v>32199.989999999998</v>
       </c>
-      <c r="D107" s="31"/>
+      <c r="D107" s="72"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="29"/>
@@ -2142,8 +2241,19 @@
       <c r="C129" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="12">
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="D98:D107"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="D40:D48"/>
+    <mergeCell ref="D50:D58"/>
+    <mergeCell ref="D60:D76"/>
+    <mergeCell ref="D78:D85"/>
+    <mergeCell ref="D87:D93"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D14:D21"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="D32:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2171,11 +2281,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2199,11 +2309,11 @@
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>

--- a/Business/Finance/Budgets, Packets and Templates/Budgets/2019-2020/Budgets 2019-2020.xlsx
+++ b/Business/Finance/Budgets, Packets and Templates/Budgets/2019-2020/Budgets 2019-2020.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
   <si>
     <t>Total Membership Expenses</t>
   </si>
@@ -88,48 +88,6 @@
     <t>Consumables</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Spaceport America Cup Competition                 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Washington,DC) (12 Members in Attendence)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">IAC Networking Event                 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Washington,DC) (5 Members in Attendence)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SpaceVision Networking Event                 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Tempe, AZ) (20 Members in Attendence)</t>
-    </r>
-  </si>
-  <si>
     <t>Food and Drink (Introductory Meetings and Events)</t>
   </si>
   <si>
@@ -238,7 +196,37 @@
     <t>The 2019 SpaceVision conference is hosted by the SEDS-ASU chapter. This conference brings together all of the nationwide SEDS chapters and all people who have a shared passion for space. In 2018, 16 of UNH SEDS's members travelled to San Deigo out of their own pocket to experience this amazing conference.</t>
   </si>
   <si>
-    <t xml:space="preserve">The Inernation Astronautical Congress (IAC) is </t>
+    <t>Spaceport America Cup Competition                 (Washington,DC) (12 Members)</t>
+  </si>
+  <si>
+    <t>IAC Networking Event                 (Washington,DC) (5 Members)</t>
+  </si>
+  <si>
+    <t>SpaceVision Networking Event                 (Tempe, AZ) (20 Members)</t>
+  </si>
+  <si>
+    <t>The Inernational Astronautical Congress (IAC) is the biggest space conference in the world, this year hosted in Washington, DC. Students who go can not speak more highly of it as the connections they make are very career-changing.</t>
+  </si>
+  <si>
+    <t>This is the competition that we will be participating in this year within the hybrid engine category. The possiblity of winning will lead to huge publicity onto UNH and the accelerating rocket team that is growing here.</t>
+  </si>
+  <si>
+    <t>It is important to entice new students to come to introductory meetings, and pizza helps a lot! We have been paying out of pocket for 2 years as we usually couldn't spare the funds coming fron our engineering goals</t>
+  </si>
+  <si>
+    <t>Team swag is important, and helps a great deal to unify the team, and provide a lasting affect on our graduates. Pens and stickers help a great deal to get our club heard and seen throughout the college and university.</t>
+  </si>
+  <si>
+    <t>We have been in contact with 3 schools thus far to teach students the fundamentals of model rocketry, and the growing space industry they can join later in their studies. These funds will enable us to prepare an activity to affect our community in exploring paths that might be their passion.</t>
+  </si>
+  <si>
+    <t>This is our primary engineering goal which will incoroporate every member of the organization. Most of our funds are for raw material, as we have many connections within industry (close and far away!) that want to support us with machining time that we simply don't have access to within the school.</t>
+  </si>
+  <si>
+    <t>This is a side-project that will have the participation by several seniors in ME, EE and CS that will allow us to narrow in on a thrust vectoring system to one day integrate into our hybrid engine rocket.</t>
+  </si>
+  <si>
+    <t>Safety comes first, and we are in need of a professional, presentable and secure location to control and maintain our hot-fire tests. This will have the pure dedication of 2 civil engineers with the support of the team</t>
   </si>
 </sst>
 </file>
@@ -250,7 +238,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -348,12 +336,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -392,6 +374,17 @@
       <sz val="18"/>
       <color rgb="FF00B050"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -600,7 +593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -642,173 +635,209 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1186,77 +1215,78 @@
   <dimension ref="A1:W129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E99" sqref="E99"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.140625" style="53" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="54" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" style="52" customWidth="1"/>
-    <col min="5" max="5" width="178.85546875" style="29" customWidth="1"/>
-    <col min="6" max="23" width="43.7109375" style="29" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" style="73" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="74" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="77" customWidth="1"/>
+    <col min="4" max="4" width="26" style="48" customWidth="1"/>
+    <col min="5" max="5" width="178.85546875" style="48" customWidth="1"/>
+    <col min="6" max="23" width="43.7109375" style="48" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="55" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="80" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.2">
+      <c r="A4" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="80"/>
+    </row>
+    <row r="5" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="59"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="80"/>
+    </row>
+    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="80"/>
-    </row>
-    <row r="5" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="80"/>
-    </row>
-    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
-        <v>23</v>
-      </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="70"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="80"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="34">
         <f>397.82*20</f>
         <v>7956.4</v>
       </c>
-      <c r="C7" s="71"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="80"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1267,7 +1297,7 @@
         <f>107*5*3</f>
         <v>1605</v>
       </c>
-      <c r="C8" s="78"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="80"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1278,58 +1308,58 @@
         <f>77*20</f>
         <v>1540</v>
       </c>
-      <c r="C9" s="66"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="80"/>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="67">
+      <c r="B10" s="31"/>
+      <c r="C10" s="37">
         <f>SUM(B7:B9)</f>
         <v>11101.4</v>
       </c>
       <c r="D10" s="80"/>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="68">
+      <c r="B11" s="24"/>
+      <c r="C11" s="38">
         <f>C10/20</f>
         <v>555.06999999999994</v>
       </c>
       <c r="D11" s="80"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="79"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="80"/>
     </row>
     <row r="13" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="28"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="81"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="72" t="s">
+      <c r="A14" s="64"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="82" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
-        <v>22</v>
+    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="72"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="82"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
@@ -1338,8 +1368,8 @@
       <c r="B16" s="16">
         <v>200</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="72"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="82"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
@@ -1349,8 +1379,8 @@
         <f>200*6</f>
         <v>1200</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="72"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="82"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
@@ -1360,56 +1390,58 @@
         <f>150*5</f>
         <v>750</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="72"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="82"/>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="67">
+      <c r="B19" s="31"/>
+      <c r="C19" s="37">
         <f>SUM(B16:B18)</f>
         <v>2150</v>
       </c>
-      <c r="D19" s="72"/>
+      <c r="D19" s="82"/>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="68">
+      <c r="B20" s="24"/>
+      <c r="C20" s="38">
         <f>C19/5</f>
         <v>430</v>
       </c>
-      <c r="D20" s="72"/>
+      <c r="D20" s="82"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="72"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="82"/>
     </row>
     <row r="22" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="28"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="81"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="72"/>
-    </row>
-    <row r="24" spans="1:4" ht="39.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
-        <v>21</v>
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="82" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="72"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="82"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
@@ -1419,8 +1451,8 @@
         <f>365.54*12</f>
         <v>4386.4800000000005</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="72"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="82"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
@@ -1430,8 +1462,8 @@
         <f>186.4*3*4</f>
         <v>2236.8000000000002</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="72"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="82"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
@@ -1441,807 +1473,823 @@
         <f>50*12</f>
         <v>600</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="72"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="82"/>
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="67">
+      <c r="B28" s="31"/>
+      <c r="C28" s="37">
         <f>SUM(B25:B27)</f>
         <v>7223.2800000000007</v>
       </c>
-      <c r="D28" s="72"/>
+      <c r="D28" s="82"/>
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="68">
+      <c r="B29" s="24"/>
+      <c r="C29" s="38">
         <f>C28/12</f>
         <v>601.94000000000005</v>
       </c>
-      <c r="D29" s="72"/>
+      <c r="D29" s="82"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="10"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="72"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="82"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="44"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="83"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="10"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="72"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="82" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="56" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="72"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="82"/>
     </row>
     <row r="34" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="72"/>
-    </row>
-    <row r="35" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="46" t="s">
+      <c r="C34" s="25"/>
+      <c r="D34" s="82"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="79" t="s">
         <v>20</v>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="72"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="25"/>
+      <c r="D35" s="82"/>
+    </row>
+    <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="20">
+        <v>21</v>
+      </c>
+      <c r="B36" s="19">
         <f>15*4*8</f>
         <v>480</v>
       </c>
-      <c r="C36" s="65"/>
-      <c r="D36" s="72"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="82"/>
     </row>
     <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="67">
+      <c r="A37" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="37">
         <f>SUM(B36:B37)</f>
         <v>480</v>
       </c>
-      <c r="D37" s="72"/>
+      <c r="D37" s="82"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="72"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="82"/>
     </row>
     <row r="39" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="27"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="28"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="81"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="72"/>
-    </row>
-    <row r="41" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="72"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="82" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="82"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="22">
+        <v>23</v>
+      </c>
+      <c r="B42" s="21">
         <v>67.95</v>
       </c>
-      <c r="C42" s="65"/>
-      <c r="D42" s="72"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="82"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="22">
+        <v>24</v>
+      </c>
+      <c r="B43" s="21">
         <v>95</v>
       </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="72"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="82"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="22">
+        <v>25</v>
+      </c>
+      <c r="B44" s="21">
         <f>15*16.5</f>
         <v>247.5</v>
       </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="72"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="82"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="22">
+        <v>26</v>
+      </c>
+      <c r="B45" s="21">
         <f>10*31.76</f>
         <v>317.60000000000002</v>
       </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="72"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="82"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="48">
+        <v>27</v>
+      </c>
+      <c r="B46" s="30">
         <f>24.99*13</f>
         <v>324.87</v>
       </c>
-      <c r="C46" s="75"/>
-      <c r="D46" s="72"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="82"/>
     </row>
     <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="51"/>
-      <c r="C47" s="67">
+      <c r="A47" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="31"/>
+      <c r="C47" s="37">
         <f>SUM(B42:B46)</f>
         <v>1052.92</v>
       </c>
-      <c r="D47" s="72"/>
+      <c r="D47" s="82"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="10"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="72"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="82"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="41"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="44"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="83"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="10"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="72"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="82" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="45" t="s">
+      <c r="A51" s="56" t="s">
         <v>11</v>
       </c>
       <c r="B51" s="10"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="72"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="82"/>
     </row>
     <row r="52" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="45"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="10"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="72"/>
-    </row>
-    <row r="53" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="72"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="82"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="19"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="82"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B54" s="20">
+        <v>30</v>
+      </c>
+      <c r="B54" s="19">
         <v>273.39999999999998</v>
       </c>
-      <c r="C54" s="74"/>
-      <c r="D54" s="72"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="82"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" s="20">
+        <v>31</v>
+      </c>
+      <c r="B55" s="19">
         <v>177</v>
       </c>
-      <c r="C55" s="74"/>
-      <c r="D55" s="72"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="82"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B56" s="20">
+        <v>32</v>
+      </c>
+      <c r="B56" s="19">
         <v>347</v>
       </c>
-      <c r="C56" s="74"/>
-      <c r="D56" s="72"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="82"/>
     </row>
     <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="67">
+      <c r="A57" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="31"/>
+      <c r="C57" s="37">
         <f>SUM(B53:B57)</f>
         <v>797.4</v>
       </c>
-      <c r="D57" s="72"/>
+      <c r="D57" s="82"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="10"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="72"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="82"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="41"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="44"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="83"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="10"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="72"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="82" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="61" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="45" t="s">
+      <c r="A61" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61" s="72"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="82"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62" s="72"/>
-    </row>
-    <row r="63" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="72"/>
+      <c r="A62" s="49"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="82"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="21"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="82"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B64" s="22">
+        <v>43</v>
+      </c>
+      <c r="B64" s="21">
         <f>500</f>
         <v>500</v>
       </c>
-      <c r="C64" s="65"/>
-      <c r="D64" s="72"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="82"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B65" s="22">
+        <v>44</v>
+      </c>
+      <c r="B65" s="21">
         <f>625</f>
         <v>625</v>
       </c>
-      <c r="C65" s="65"/>
-      <c r="D65" s="72"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="82"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B66" s="22">
+        <v>45</v>
+      </c>
+      <c r="B66" s="21">
         <f>150</f>
         <v>150</v>
       </c>
-      <c r="C66" s="65"/>
-      <c r="D66" s="72"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="82"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B67" s="22">
+        <v>46</v>
+      </c>
+      <c r="B67" s="21">
         <f>500</f>
         <v>500</v>
       </c>
-      <c r="C67" s="65"/>
-      <c r="D67" s="72"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="82"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B68" s="22">
+        <v>47</v>
+      </c>
+      <c r="B68" s="21">
         <f>375</f>
         <v>375</v>
       </c>
-      <c r="C68" s="65"/>
-      <c r="D68" s="72"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="82"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B69" s="22">
+        <v>48</v>
+      </c>
+      <c r="B69" s="21">
         <f>450</f>
         <v>450</v>
       </c>
-      <c r="C69" s="65"/>
-      <c r="D69" s="72"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="82"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B70" s="22">
+        <v>49</v>
+      </c>
+      <c r="B70" s="21">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="C70" s="65"/>
-      <c r="D70" s="72"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="82"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B71" s="22">
+        <v>50</v>
+      </c>
+      <c r="B71" s="21">
         <f>500</f>
         <v>500</v>
       </c>
-      <c r="C71" s="65"/>
-      <c r="D71" s="72"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="82"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B72" s="22">
+        <v>51</v>
+      </c>
+      <c r="B72" s="21">
         <v>1000</v>
       </c>
-      <c r="C72" s="65"/>
-      <c r="D72" s="72"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="82"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B73" s="22">
+        <v>52</v>
+      </c>
+      <c r="B73" s="21">
         <v>650</v>
       </c>
-      <c r="C73" s="65"/>
-      <c r="D73" s="72"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="82"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B74" s="48">
+        <v>53</v>
+      </c>
+      <c r="B74" s="30">
         <f>750</f>
         <v>750</v>
       </c>
-      <c r="C74" s="75"/>
-      <c r="D74" s="72"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="82"/>
     </row>
     <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B75" s="51"/>
-      <c r="C75" s="67">
+      <c r="A75" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" s="31"/>
+      <c r="C75" s="37">
         <f>SUM(B64:B74)</f>
         <v>5600</v>
       </c>
-      <c r="D75" s="72"/>
+      <c r="D75" s="82"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="72"/>
+      <c r="A76" s="64"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="82"/>
     </row>
     <row r="77" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="27"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="28"/>
+      <c r="A77" s="67"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="81"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="72"/>
-    </row>
-    <row r="79" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="72"/>
+      <c r="A78" s="64"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="82" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" s="21"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="82"/>
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B80" s="22">
+        <v>39</v>
+      </c>
+      <c r="B80" s="21">
         <v>350</v>
       </c>
-      <c r="C80" s="65"/>
-      <c r="D80" s="72"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="82"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B81" s="22">
+        <v>40</v>
+      </c>
+      <c r="B81" s="21">
         <v>250</v>
       </c>
-      <c r="C81" s="65"/>
-      <c r="D81" s="72"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="82"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B82" s="22">
+        <v>41</v>
+      </c>
+      <c r="B82" s="21">
         <v>200</v>
       </c>
-      <c r="C82" s="65"/>
-      <c r="D82" s="72"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="82"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B83" s="22">
+        <v>42</v>
+      </c>
+      <c r="B83" s="21">
         <v>550</v>
       </c>
-      <c r="C83" s="65"/>
-      <c r="D83" s="72"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="82"/>
     </row>
     <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B84" s="51"/>
-      <c r="C84" s="67">
+      <c r="A84" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="31"/>
+      <c r="C84" s="37">
         <f>SUM(B80:B83)</f>
         <v>1350</v>
       </c>
-      <c r="D84" s="72"/>
+      <c r="D84" s="82"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="3"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="72"/>
+      <c r="A85" s="64"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="82"/>
     </row>
     <row r="86" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="27"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="28"/>
+      <c r="A86" s="67"/>
+      <c r="B86" s="68"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="81"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="3"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="72"/>
-    </row>
-    <row r="88" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B88" s="22"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="72"/>
+      <c r="A87" s="64"/>
+      <c r="B87" s="65"/>
+      <c r="C87" s="70"/>
+      <c r="D87" s="82" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" s="21"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="82"/>
     </row>
     <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B89" s="22">
+        <v>36</v>
+      </c>
+      <c r="B89" s="21">
         <v>544.99</v>
       </c>
-      <c r="C89" s="65"/>
-      <c r="D89" s="72"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="82"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B90" s="22">
+        <v>37</v>
+      </c>
+      <c r="B90" s="21">
         <v>1100</v>
       </c>
-      <c r="C90" s="65"/>
-      <c r="D90" s="72"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="82"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B91" s="22">
+        <v>38</v>
+      </c>
+      <c r="B91" s="21">
         <v>800</v>
       </c>
-      <c r="C91" s="65"/>
-      <c r="D91" s="72"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="82"/>
     </row>
     <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B92" s="51"/>
-      <c r="C92" s="67">
+      <c r="A92" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" s="31"/>
+      <c r="C92" s="37">
         <f>SUM(B89:B91)</f>
         <v>2444.9899999999998</v>
       </c>
-      <c r="D92" s="72"/>
+      <c r="D92" s="82"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="21"/>
+      <c r="A93" s="20"/>
       <c r="B93" s="10"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="72"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="82"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="41"/>
-      <c r="B94" s="42"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="44"/>
+      <c r="A94" s="27"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="83"/>
     </row>
     <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A95" s="21"/>
+      <c r="A95" s="20"/>
       <c r="B95" s="10"/>
-      <c r="C95" s="56"/>
-      <c r="D95" s="72"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="82"/>
     </row>
     <row r="96" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A96" s="57" t="s">
-        <v>58</v>
+      <c r="A96" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="B96" s="10"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="72"/>
-    </row>
-    <row r="97" spans="1:4" s="29" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="53"/>
-      <c r="B97" s="54"/>
-      <c r="C97" s="58"/>
-      <c r="D97" s="54"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="82"/>
+    </row>
+    <row r="97" spans="1:4" s="48" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="73"/>
+      <c r="B97" s="74"/>
+      <c r="C97" s="75"/>
+      <c r="D97" s="84"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="21"/>
+      <c r="A98" s="20"/>
       <c r="B98" s="10"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="72"/>
-    </row>
-    <row r="99" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A99" s="45" t="s">
+      <c r="C98" s="25"/>
+      <c r="D98" s="82"/>
+    </row>
+    <row r="99" spans="1:4" ht="36" x14ac:dyDescent="0.2">
+      <c r="A99" s="56" t="s">
         <v>13</v>
       </c>
       <c r="B99" s="10"/>
-      <c r="C99" s="56">
+      <c r="C99" s="32">
         <f>C10+C19+C28</f>
         <v>20474.68</v>
       </c>
-      <c r="D99" s="72"/>
+      <c r="D99" s="82"/>
     </row>
     <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A100" s="21"/>
+      <c r="A100" s="20"/>
       <c r="B100" s="10"/>
-      <c r="C100" s="56"/>
-      <c r="D100" s="72"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="82"/>
     </row>
     <row r="101" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A101" s="45" t="s">
+      <c r="A101" s="56" t="s">
         <v>19</v>
       </c>
       <c r="B101" s="10"/>
-      <c r="C101" s="56">
+      <c r="C101" s="32">
         <f>C37+C47</f>
         <v>1532.92</v>
       </c>
-      <c r="D101" s="72"/>
+      <c r="D101" s="82"/>
     </row>
     <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A102" s="21"/>
+      <c r="A102" s="20"/>
       <c r="B102" s="10"/>
-      <c r="C102" s="56"/>
-      <c r="D102" s="72"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="82"/>
     </row>
     <row r="103" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A103" s="45" t="s">
+      <c r="A103" s="56" t="s">
         <v>11</v>
       </c>
       <c r="B103" s="10"/>
-      <c r="C103" s="56">
+      <c r="C103" s="32">
         <f>C57</f>
         <v>797.4</v>
       </c>
-      <c r="D103" s="72"/>
+      <c r="D103" s="82"/>
     </row>
     <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A104" s="21"/>
+      <c r="A104" s="20"/>
       <c r="B104" s="10"/>
-      <c r="C104" s="56"/>
-      <c r="D104" s="72"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="82"/>
     </row>
     <row r="105" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A105" s="45" t="s">
+      <c r="A105" s="56" t="s">
         <v>10</v>
       </c>
       <c r="B105" s="10"/>
-      <c r="C105" s="56">
+      <c r="C105" s="32">
         <f>C75+C84+C92</f>
         <v>9394.99</v>
       </c>
-      <c r="D105" s="72"/>
+      <c r="D105" s="82"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="21"/>
+      <c r="A106" s="20"/>
       <c r="B106" s="10"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="72"/>
-    </row>
-    <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B107" s="60"/>
-      <c r="C107" s="61">
+      <c r="C106" s="25"/>
+      <c r="D106" s="82"/>
+    </row>
+    <row r="107" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A107" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="B107" s="33"/>
+      <c r="C107" s="78">
         <f>C99+C101+C103+C105</f>
         <v>32199.989999999998</v>
       </c>
-      <c r="D107" s="72"/>
+      <c r="D107" s="82"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="29"/>
-      <c r="B108" s="29"/>
-      <c r="C108" s="29"/>
+      <c r="A108" s="48"/>
+      <c r="B108" s="48"/>
+      <c r="C108" s="48"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="29"/>
-      <c r="B109" s="29"/>
-      <c r="C109" s="29"/>
+      <c r="A109" s="48"/>
+      <c r="B109" s="48"/>
+      <c r="C109" s="48"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="29"/>
-      <c r="B110" s="29"/>
-      <c r="C110" s="29"/>
+      <c r="A110" s="48"/>
+      <c r="B110" s="48"/>
+      <c r="C110" s="48"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="29"/>
-      <c r="B111" s="29"/>
-      <c r="C111" s="29"/>
+      <c r="A111" s="48"/>
+      <c r="B111" s="48"/>
+      <c r="C111" s="48"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="29"/>
-      <c r="B112" s="29"/>
-      <c r="C112" s="29"/>
+      <c r="A112" s="48"/>
+      <c r="B112" s="48"/>
+      <c r="C112" s="48"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="29"/>
-      <c r="B113" s="29"/>
-      <c r="C113" s="29"/>
+      <c r="A113" s="48"/>
+      <c r="B113" s="48"/>
+      <c r="C113" s="48"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="29"/>
-      <c r="B114" s="29"/>
-      <c r="C114" s="29"/>
+      <c r="A114" s="48"/>
+      <c r="B114" s="48"/>
+      <c r="C114" s="48"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="29"/>
-      <c r="B115" s="29"/>
-      <c r="C115" s="29"/>
+      <c r="A115" s="48"/>
+      <c r="B115" s="48"/>
+      <c r="C115" s="48"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="29"/>
-      <c r="B116" s="29"/>
-      <c r="C116" s="29"/>
+      <c r="A116" s="48"/>
+      <c r="B116" s="48"/>
+      <c r="C116" s="48"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="29"/>
-      <c r="B117" s="29"/>
-      <c r="C117" s="29"/>
+      <c r="A117" s="48"/>
+      <c r="B117" s="48"/>
+      <c r="C117" s="48"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="29"/>
-      <c r="B118" s="29"/>
-      <c r="C118" s="29"/>
+      <c r="A118" s="48"/>
+      <c r="B118" s="48"/>
+      <c r="C118" s="48"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="29"/>
-      <c r="B119" s="29"/>
-      <c r="C119" s="29"/>
+      <c r="A119" s="48"/>
+      <c r="B119" s="48"/>
+      <c r="C119" s="48"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="29"/>
-      <c r="B120" s="29"/>
-      <c r="C120" s="29"/>
+      <c r="A120" s="48"/>
+      <c r="B120" s="48"/>
+      <c r="C120" s="48"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="29"/>
-      <c r="B121" s="29"/>
-      <c r="C121" s="29"/>
+      <c r="A121" s="48"/>
+      <c r="B121" s="48"/>
+      <c r="C121" s="48"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="29"/>
-      <c r="B122" s="29"/>
-      <c r="C122" s="29"/>
+      <c r="A122" s="48"/>
+      <c r="B122" s="48"/>
+      <c r="C122" s="48"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="29"/>
-      <c r="B123" s="29"/>
-      <c r="C123" s="29"/>
+      <c r="A123" s="48"/>
+      <c r="B123" s="48"/>
+      <c r="C123" s="48"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="29"/>
-      <c r="B124" s="29"/>
-      <c r="C124" s="29"/>
+      <c r="A124" s="48"/>
+      <c r="B124" s="48"/>
+      <c r="C124" s="48"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="29"/>
-      <c r="B125" s="29"/>
-      <c r="C125" s="29"/>
+      <c r="A125" s="48"/>
+      <c r="B125" s="48"/>
+      <c r="C125" s="48"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="29"/>
-      <c r="B126" s="29"/>
-      <c r="C126" s="29"/>
+      <c r="A126" s="48"/>
+      <c r="B126" s="48"/>
+      <c r="C126" s="48"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="29"/>
-      <c r="B127" s="29"/>
-      <c r="C127" s="29"/>
+      <c r="A127" s="48"/>
+      <c r="B127" s="48"/>
+      <c r="C127" s="48"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="29"/>
-      <c r="B128" s="29"/>
-      <c r="C128" s="29"/>
+      <c r="A128" s="48"/>
+      <c r="B128" s="48"/>
+      <c r="C128" s="48"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="29"/>
-      <c r="B129" s="29"/>
-      <c r="C129" s="29"/>
+      <c r="A129" s="48"/>
+      <c r="B129" s="48"/>
+      <c r="C129" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D14:D21"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="D32:D38"/>
     <mergeCell ref="D95:D96"/>
     <mergeCell ref="D98:D107"/>
     <mergeCell ref="D3:D12"/>
@@ -2250,10 +2298,6 @@
     <mergeCell ref="D60:D76"/>
     <mergeCell ref="D78:D85"/>
     <mergeCell ref="D87:D93"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D14:D21"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="D32:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2281,11 +2325,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2309,11 +2353,11 @@
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -2461,7 +2505,7 @@
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="11">
         <f>SUM(B4:B6)</f>
         <v>11101.4</v>
@@ -2492,7 +2536,7 @@
       <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="14">
         <f>C7/20</f>
         <v>555.06999999999994</v>

--- a/Business/Finance/Budgets, Packets and Templates/Budgets/2019-2020/Budgets 2019-2020.xlsx
+++ b/Business/Finance/Budgets, Packets and Templates/Budgets/2019-2020/Budgets 2019-2020.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\UNHSEDS\Business\Finance\Budgets, Packets and Templates\Budgets\2019-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B0ACF5-2DD5-4F6F-AD03-C5DEB121EDF2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-2020" sheetId="2" r:id="rId1"/>
@@ -18,7 +19,15 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'CEPS Grant Request'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -232,7 +241,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -716,128 +725,128 @@
     <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1001,6 +1010,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1036,6 +1062,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1211,72 +1254,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E98" sqref="E98"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="73" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="74" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="77" customWidth="1"/>
-    <col min="4" max="4" width="26" style="48" customWidth="1"/>
-    <col min="5" max="5" width="178.85546875" style="48" customWidth="1"/>
-    <col min="6" max="23" width="43.7109375" style="48" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="49"/>
+    <col min="1" max="1" width="36.85546875" style="70" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="71" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="74" customWidth="1"/>
+    <col min="4" max="4" width="26" style="45" customWidth="1"/>
+    <col min="5" max="5" width="178.85546875" style="45" customWidth="1"/>
+    <col min="6" max="23" width="43.7109375" style="45" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="82" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="80"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="82"/>
     </row>
     <row r="5" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="80"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="82"/>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="80"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="82"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -1287,7 +1330,7 @@
         <v>7956.4</v>
       </c>
       <c r="C7" s="39"/>
-      <c r="D7" s="80"/>
+      <c r="D7" s="82"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -1298,7 +1341,7 @@
         <v>1605</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="80"/>
+      <c r="D8" s="82"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -1309,10 +1352,10 @@
         <v>1540</v>
       </c>
       <c r="C9" s="36"/>
-      <c r="D9" s="80"/>
+      <c r="D9" s="82"/>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="31"/>
@@ -1320,10 +1363,10 @@
         <f>SUM(B7:B9)</f>
         <v>11101.4</v>
       </c>
-      <c r="D10" s="80"/>
+      <c r="D10" s="82"/>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="24"/>
@@ -1331,25 +1374,25 @@
         <f>C10/20</f>
         <v>555.06999999999994</v>
       </c>
-      <c r="D11" s="80"/>
+      <c r="D11" s="82"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="64"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="80"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="82"/>
     </row>
     <row r="13" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="67"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="81"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="77"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="64"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="82" t="s">
+      <c r="A14" s="61"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="81" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1359,7 +1402,7 @@
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="82"/>
+      <c r="D15" s="81"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
@@ -1369,7 +1412,7 @@
         <v>200</v>
       </c>
       <c r="C16" s="35"/>
-      <c r="D16" s="82"/>
+      <c r="D16" s="81"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
@@ -1380,7 +1423,7 @@
         <v>1200</v>
       </c>
       <c r="C17" s="35"/>
-      <c r="D17" s="82"/>
+      <c r="D17" s="81"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
@@ -1391,10 +1434,10 @@
         <v>750</v>
       </c>
       <c r="C18" s="35"/>
-      <c r="D18" s="82"/>
+      <c r="D18" s="81"/>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="31"/>
@@ -1402,10 +1445,10 @@
         <f>SUM(B16:B18)</f>
         <v>2150</v>
       </c>
-      <c r="D19" s="82"/>
+      <c r="D19" s="81"/>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="24"/>
@@ -1413,25 +1456,25 @@
         <f>C19/5</f>
         <v>430</v>
       </c>
-      <c r="D20" s="82"/>
+      <c r="D20" s="81"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="82"/>
+      <c r="D21" s="81"/>
     </row>
     <row r="22" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="67"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="81"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="77"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
       <c r="C23" s="40"/>
-      <c r="D23" s="82" t="s">
+      <c r="D23" s="81" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1441,7 +1484,7 @@
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="82"/>
+      <c r="D24" s="81"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
@@ -1452,7 +1495,7 @@
         <v>4386.4800000000005</v>
       </c>
       <c r="C25" s="35"/>
-      <c r="D25" s="82"/>
+      <c r="D25" s="81"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
@@ -1463,7 +1506,7 @@
         <v>2236.8000000000002</v>
       </c>
       <c r="C26" s="35"/>
-      <c r="D26" s="82"/>
+      <c r="D26" s="81"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
@@ -1474,10 +1517,10 @@
         <v>600</v>
       </c>
       <c r="C27" s="35"/>
-      <c r="D27" s="82"/>
+      <c r="D27" s="81"/>
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="31"/>
@@ -1485,10 +1528,10 @@
         <f>SUM(B25:B27)</f>
         <v>7223.2800000000007</v>
       </c>
-      <c r="D28" s="82"/>
+      <c r="D28" s="81"/>
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="24"/>
@@ -1496,49 +1539,49 @@
         <f>C28/12</f>
         <v>601.94000000000005</v>
       </c>
-      <c r="D29" s="82"/>
+      <c r="D29" s="81"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="10"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="82"/>
+      <c r="D30" s="81"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="28"/>
       <c r="C31" s="29"/>
-      <c r="D31" s="83"/>
+      <c r="D31" s="78"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="20"/>
       <c r="B32" s="10"/>
       <c r="C32" s="25"/>
-      <c r="D32" s="82" t="s">
+      <c r="D32" s="81" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="53" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="25"/>
-      <c r="D33" s="82"/>
+      <c r="D33" s="81"/>
     </row>
     <row r="34" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="56"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="10"/>
       <c r="C34" s="25"/>
-      <c r="D34" s="82"/>
+      <c r="D34" s="81"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="79" t="s">
+      <c r="A35" s="76" t="s">
         <v>20</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="25"/>
-      <c r="D35" s="82"/>
+      <c r="D35" s="81"/>
     </row>
     <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
@@ -1549,10 +1592,10 @@
         <v>480</v>
       </c>
       <c r="C36" s="35"/>
-      <c r="D36" s="82"/>
+      <c r="D36" s="81"/>
     </row>
     <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="59" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="31"/>
@@ -1560,35 +1603,35 @@
         <f>SUM(B36:B37)</f>
         <v>480</v>
       </c>
-      <c r="D37" s="82"/>
+      <c r="D37" s="81"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="64"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="82"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="81"/>
     </row>
     <row r="39" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="67"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="81"/>
+      <c r="A39" s="64"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="77"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="64"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="82" t="s">
+      <c r="A40" s="61"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="81" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="79" t="s">
+      <c r="A41" s="76" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="35"/>
-      <c r="D41" s="82"/>
+      <c r="D41" s="81"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
@@ -1598,7 +1641,7 @@
         <v>67.95</v>
       </c>
       <c r="C42" s="35"/>
-      <c r="D42" s="82"/>
+      <c r="D42" s="81"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
@@ -1608,7 +1651,7 @@
         <v>95</v>
       </c>
       <c r="C43" s="35"/>
-      <c r="D43" s="82"/>
+      <c r="D43" s="81"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
@@ -1619,7 +1662,7 @@
         <v>247.5</v>
       </c>
       <c r="C44" s="35"/>
-      <c r="D44" s="82"/>
+      <c r="D44" s="81"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
@@ -1630,7 +1673,7 @@
         <v>317.60000000000002</v>
       </c>
       <c r="C45" s="35"/>
-      <c r="D45" s="82"/>
+      <c r="D45" s="81"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
@@ -1641,10 +1684,10 @@
         <v>324.87</v>
       </c>
       <c r="C46" s="42"/>
-      <c r="D46" s="82"/>
+      <c r="D46" s="81"/>
     </row>
     <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="62" t="s">
+      <c r="A47" s="59" t="s">
         <v>28</v>
       </c>
       <c r="B47" s="31"/>
@@ -1652,49 +1695,49 @@
         <f>SUM(B42:B46)</f>
         <v>1052.92</v>
       </c>
-      <c r="D47" s="82"/>
+      <c r="D47" s="81"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="20"/>
       <c r="B48" s="10"/>
       <c r="C48" s="25"/>
-      <c r="D48" s="82"/>
+      <c r="D48" s="81"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="28"/>
       <c r="C49" s="29"/>
-      <c r="D49" s="83"/>
+      <c r="D49" s="78"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="20"/>
       <c r="B50" s="10"/>
       <c r="C50" s="25"/>
-      <c r="D50" s="82" t="s">
+      <c r="D50" s="81" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="56" t="s">
+      <c r="A51" s="53" t="s">
         <v>11</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="25"/>
-      <c r="D51" s="82"/>
+      <c r="D51" s="81"/>
     </row>
     <row r="52" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="56"/>
+      <c r="A52" s="53"/>
       <c r="B52" s="10"/>
       <c r="C52" s="25"/>
-      <c r="D52" s="82"/>
+      <c r="D52" s="81"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="79" t="s">
+      <c r="A53" s="76" t="s">
         <v>29</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="35"/>
-      <c r="D53" s="82"/>
+      <c r="D53" s="81"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
@@ -1704,7 +1747,7 @@
         <v>273.39999999999998</v>
       </c>
       <c r="C54" s="41"/>
-      <c r="D54" s="82"/>
+      <c r="D54" s="81"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
@@ -1714,7 +1757,7 @@
         <v>177</v>
       </c>
       <c r="C55" s="41"/>
-      <c r="D55" s="82"/>
+      <c r="D55" s="81"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
@@ -1724,10 +1767,10 @@
         <v>347</v>
       </c>
       <c r="C56" s="41"/>
-      <c r="D56" s="82"/>
+      <c r="D56" s="81"/>
     </row>
     <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="62" t="s">
+      <c r="A57" s="59" t="s">
         <v>28</v>
       </c>
       <c r="B57" s="31"/>
@@ -1735,49 +1778,49 @@
         <f>SUM(B53:B57)</f>
         <v>797.4</v>
       </c>
-      <c r="D57" s="82"/>
+      <c r="D57" s="81"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="20"/>
       <c r="B58" s="10"/>
       <c r="C58" s="25"/>
-      <c r="D58" s="82"/>
+      <c r="D58" s="81"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="28"/>
       <c r="C59" s="29"/>
-      <c r="D59" s="83"/>
+      <c r="D59" s="78"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="20"/>
       <c r="B60" s="10"/>
       <c r="C60" s="25"/>
-      <c r="D60" s="82" t="s">
+      <c r="D60" s="81" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="56" t="s">
+      <c r="A61" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="49"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="82"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="81"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="49"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="82"/>
+      <c r="A62" s="46"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="81"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="79" t="s">
+      <c r="A63" s="76" t="s">
         <v>33</v>
       </c>
       <c r="B63" s="21"/>
       <c r="C63" s="35"/>
-      <c r="D63" s="82"/>
+      <c r="D63" s="81"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
@@ -1788,7 +1831,7 @@
         <v>500</v>
       </c>
       <c r="C64" s="35"/>
-      <c r="D64" s="82"/>
+      <c r="D64" s="81"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
@@ -1799,29 +1842,27 @@
         <v>625</v>
       </c>
       <c r="C65" s="35"/>
-      <c r="D65" s="82"/>
+      <c r="D65" s="81"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B66" s="21">
-        <f>150</f>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C66" s="35"/>
-      <c r="D66" s="82"/>
+      <c r="D66" s="81"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B67" s="21">
-        <f>500</f>
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="C67" s="35"/>
-      <c r="D67" s="82"/>
+      <c r="D67" s="81"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
@@ -1832,50 +1873,47 @@
         <v>375</v>
       </c>
       <c r="C68" s="35"/>
-      <c r="D68" s="82"/>
+      <c r="D68" s="81"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B69" s="21">
-        <f>450</f>
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="C69" s="35"/>
-      <c r="D69" s="82"/>
+      <c r="D69" s="81"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B70" s="21">
-        <f>100</f>
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="C70" s="35"/>
-      <c r="D70" s="82"/>
+      <c r="D70" s="81"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B71" s="21">
-        <f>500</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="C71" s="35"/>
-      <c r="D71" s="82"/>
+      <c r="D71" s="81"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B72" s="21">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="C72" s="35"/>
-      <c r="D72" s="82"/>
+      <c r="D72" s="81"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
@@ -1885,57 +1923,56 @@
         <v>650</v>
       </c>
       <c r="C73" s="35"/>
-      <c r="D73" s="82"/>
+      <c r="D73" s="81"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B74" s="30">
-        <f>750</f>
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="C74" s="42"/>
-      <c r="D74" s="82"/>
+      <c r="D74" s="81"/>
     </row>
     <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="62" t="s">
+      <c r="A75" s="59" t="s">
         <v>28</v>
       </c>
       <c r="B75" s="31"/>
       <c r="C75" s="37">
         <f>SUM(B64:B74)</f>
-        <v>5600</v>
-      </c>
-      <c r="D75" s="82"/>
+        <v>7900</v>
+      </c>
+      <c r="D75" s="81"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="64"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="82"/>
+      <c r="A76" s="61"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="67"/>
+      <c r="D76" s="81"/>
     </row>
     <row r="77" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="67"/>
-      <c r="B77" s="68"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="81"/>
+      <c r="A77" s="64"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="77"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="64"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="70"/>
-      <c r="D78" s="82" t="s">
+      <c r="A78" s="61"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="81" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="79" t="s">
+      <c r="A79" s="76" t="s">
         <v>34</v>
       </c>
       <c r="B79" s="21"/>
       <c r="C79" s="35"/>
-      <c r="D79" s="82"/>
+      <c r="D79" s="81"/>
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
@@ -1945,7 +1982,7 @@
         <v>350</v>
       </c>
       <c r="C80" s="35"/>
-      <c r="D80" s="82"/>
+      <c r="D80" s="81"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
@@ -1955,7 +1992,7 @@
         <v>250</v>
       </c>
       <c r="C81" s="35"/>
-      <c r="D81" s="82"/>
+      <c r="D81" s="81"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
@@ -1965,7 +2002,7 @@
         <v>200</v>
       </c>
       <c r="C82" s="35"/>
-      <c r="D82" s="82"/>
+      <c r="D82" s="81"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
@@ -1975,10 +2012,10 @@
         <v>550</v>
       </c>
       <c r="C83" s="35"/>
-      <c r="D83" s="82"/>
+      <c r="D83" s="81"/>
     </row>
     <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="62" t="s">
+      <c r="A84" s="59" t="s">
         <v>28</v>
       </c>
       <c r="B84" s="31"/>
@@ -1986,35 +2023,35 @@
         <f>SUM(B80:B83)</f>
         <v>1350</v>
       </c>
-      <c r="D84" s="82"/>
+      <c r="D84" s="81"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="64"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="70"/>
-      <c r="D85" s="82"/>
+      <c r="A85" s="61"/>
+      <c r="B85" s="62"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="81"/>
     </row>
     <row r="86" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="67"/>
-      <c r="B86" s="68"/>
-      <c r="C86" s="69"/>
-      <c r="D86" s="81"/>
+      <c r="A86" s="64"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="66"/>
+      <c r="D86" s="77"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="64"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="70"/>
-      <c r="D87" s="82" t="s">
+      <c r="A87" s="61"/>
+      <c r="B87" s="62"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="81" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="79" t="s">
+      <c r="A88" s="76" t="s">
         <v>35</v>
       </c>
       <c r="B88" s="21"/>
       <c r="C88" s="35"/>
-      <c r="D88" s="82"/>
+      <c r="D88" s="81"/>
     </row>
     <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
@@ -2024,7 +2061,7 @@
         <v>544.99</v>
       </c>
       <c r="C89" s="35"/>
-      <c r="D89" s="82"/>
+      <c r="D89" s="81"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
@@ -2034,7 +2071,7 @@
         <v>1100</v>
       </c>
       <c r="C90" s="35"/>
-      <c r="D90" s="82"/>
+      <c r="D90" s="81"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
@@ -2044,10 +2081,10 @@
         <v>800</v>
       </c>
       <c r="C91" s="35"/>
-      <c r="D91" s="82"/>
+      <c r="D91" s="81"/>
     </row>
     <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="62" t="s">
+      <c r="A92" s="59" t="s">
         <v>28</v>
       </c>
       <c r="B92" s="31"/>
@@ -2055,48 +2092,48 @@
         <f>SUM(B89:B91)</f>
         <v>2444.9899999999998</v>
       </c>
-      <c r="D92" s="82"/>
+      <c r="D92" s="81"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="20"/>
       <c r="B93" s="10"/>
       <c r="C93" s="25"/>
-      <c r="D93" s="82"/>
+      <c r="D93" s="81"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="28"/>
       <c r="C94" s="29"/>
-      <c r="D94" s="83"/>
+      <c r="D94" s="78"/>
     </row>
     <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="20"/>
       <c r="B95" s="10"/>
       <c r="C95" s="32"/>
-      <c r="D95" s="82"/>
+      <c r="D95" s="81"/>
     </row>
     <row r="96" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A96" s="72" t="s">
+      <c r="A96" s="69" t="s">
         <v>55</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="25"/>
-      <c r="D96" s="82"/>
-    </row>
-    <row r="97" spans="1:4" s="48" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="73"/>
-      <c r="B97" s="74"/>
-      <c r="C97" s="75"/>
-      <c r="D97" s="84"/>
+      <c r="D96" s="81"/>
+    </row>
+    <row r="97" spans="1:4" s="45" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="70"/>
+      <c r="B97" s="71"/>
+      <c r="C97" s="72"/>
+      <c r="D97" s="79"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="20"/>
       <c r="B98" s="10"/>
       <c r="C98" s="25"/>
-      <c r="D98" s="82"/>
+      <c r="D98" s="81"/>
     </row>
     <row r="99" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A99" s="56" t="s">
+      <c r="A99" s="53" t="s">
         <v>13</v>
       </c>
       <c r="B99" s="10"/>
@@ -2104,16 +2141,16 @@
         <f>C10+C19+C28</f>
         <v>20474.68</v>
       </c>
-      <c r="D99" s="82"/>
+      <c r="D99" s="81"/>
     </row>
     <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="20"/>
       <c r="B100" s="10"/>
       <c r="C100" s="32"/>
-      <c r="D100" s="82"/>
+      <c r="D100" s="81"/>
     </row>
     <row r="101" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A101" s="56" t="s">
+      <c r="A101" s="53" t="s">
         <v>19</v>
       </c>
       <c r="B101" s="10"/>
@@ -2121,16 +2158,16 @@
         <f>C37+C47</f>
         <v>1532.92</v>
       </c>
-      <c r="D101" s="82"/>
+      <c r="D101" s="81"/>
     </row>
     <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="20"/>
       <c r="B102" s="10"/>
       <c r="C102" s="32"/>
-      <c r="D102" s="82"/>
+      <c r="D102" s="81"/>
     </row>
     <row r="103" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A103" s="56" t="s">
+      <c r="A103" s="53" t="s">
         <v>11</v>
       </c>
       <c r="B103" s="10"/>
@@ -2138,159 +2175,154 @@
         <f>C57</f>
         <v>797.4</v>
       </c>
-      <c r="D103" s="82"/>
+      <c r="D103" s="81"/>
     </row>
     <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="20"/>
       <c r="B104" s="10"/>
       <c r="C104" s="32"/>
-      <c r="D104" s="82"/>
+      <c r="D104" s="81"/>
     </row>
     <row r="105" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A105" s="56" t="s">
+      <c r="A105" s="53" t="s">
         <v>10</v>
       </c>
       <c r="B105" s="10"/>
       <c r="C105" s="32">
         <f>C75+C84+C92</f>
-        <v>9394.99</v>
-      </c>
-      <c r="D105" s="82"/>
+        <v>11694.99</v>
+      </c>
+      <c r="D105" s="81"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="20"/>
       <c r="B106" s="10"/>
       <c r="C106" s="25"/>
-      <c r="D106" s="82"/>
+      <c r="D106" s="81"/>
     </row>
     <row r="107" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A107" s="76" t="s">
+      <c r="A107" s="73" t="s">
         <v>54</v>
       </c>
       <c r="B107" s="33"/>
-      <c r="C107" s="78">
+      <c r="C107" s="75">
         <f>C99+C101+C103+C105</f>
-        <v>32199.989999999998</v>
-      </c>
-      <c r="D107" s="82"/>
+        <v>34499.99</v>
+      </c>
+      <c r="D107" s="81"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="48"/>
-      <c r="B108" s="48"/>
-      <c r="C108" s="48"/>
+      <c r="A108" s="45"/>
+      <c r="B108" s="45"/>
+      <c r="C108" s="45"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="48"/>
-      <c r="B109" s="48"/>
-      <c r="C109" s="48"/>
+      <c r="A109" s="45"/>
+      <c r="B109" s="45"/>
+      <c r="C109" s="45"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="48"/>
-      <c r="B110" s="48"/>
-      <c r="C110" s="48"/>
+      <c r="A110" s="45"/>
+      <c r="B110" s="45"/>
+      <c r="C110" s="45"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="48"/>
-      <c r="B111" s="48"/>
-      <c r="C111" s="48"/>
+      <c r="A111" s="45"/>
+      <c r="B111" s="45"/>
+      <c r="C111" s="45"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="48"/>
-      <c r="B112" s="48"/>
-      <c r="C112" s="48"/>
+      <c r="A112" s="45"/>
+      <c r="B112" s="45"/>
+      <c r="C112" s="45"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="48"/>
-      <c r="B113" s="48"/>
-      <c r="C113" s="48"/>
+      <c r="A113" s="45"/>
+      <c r="B113" s="45"/>
+      <c r="C113" s="45"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="48"/>
-      <c r="B114" s="48"/>
-      <c r="C114" s="48"/>
+      <c r="A114" s="45"/>
+      <c r="B114" s="45"/>
+      <c r="C114" s="45"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="48"/>
-      <c r="B115" s="48"/>
-      <c r="C115" s="48"/>
+      <c r="A115" s="45"/>
+      <c r="B115" s="45"/>
+      <c r="C115" s="45"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="48"/>
-      <c r="B116" s="48"/>
-      <c r="C116" s="48"/>
+      <c r="A116" s="45"/>
+      <c r="B116" s="45"/>
+      <c r="C116" s="45"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="48"/>
-      <c r="B117" s="48"/>
-      <c r="C117" s="48"/>
+      <c r="A117" s="45"/>
+      <c r="B117" s="45"/>
+      <c r="C117" s="45"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="48"/>
-      <c r="B118" s="48"/>
-      <c r="C118" s="48"/>
+      <c r="A118" s="45"/>
+      <c r="B118" s="45"/>
+      <c r="C118" s="45"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="48"/>
-      <c r="B119" s="48"/>
-      <c r="C119" s="48"/>
+      <c r="A119" s="45"/>
+      <c r="B119" s="45"/>
+      <c r="C119" s="45"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="48"/>
-      <c r="B120" s="48"/>
-      <c r="C120" s="48"/>
+      <c r="A120" s="45"/>
+      <c r="B120" s="45"/>
+      <c r="C120" s="45"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="48"/>
-      <c r="B121" s="48"/>
-      <c r="C121" s="48"/>
+      <c r="A121" s="45"/>
+      <c r="B121" s="45"/>
+      <c r="C121" s="45"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="48"/>
-      <c r="B122" s="48"/>
-      <c r="C122" s="48"/>
+      <c r="A122" s="45"/>
+      <c r="B122" s="45"/>
+      <c r="C122" s="45"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="48"/>
-      <c r="B123" s="48"/>
-      <c r="C123" s="48"/>
+      <c r="A123" s="45"/>
+      <c r="B123" s="45"/>
+      <c r="C123" s="45"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="48"/>
-      <c r="B124" s="48"/>
-      <c r="C124" s="48"/>
+      <c r="A124" s="45"/>
+      <c r="B124" s="45"/>
+      <c r="C124" s="45"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="48"/>
-      <c r="B125" s="48"/>
-      <c r="C125" s="48"/>
+      <c r="A125" s="45"/>
+      <c r="B125" s="45"/>
+      <c r="C125" s="45"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="48"/>
-      <c r="B126" s="48"/>
-      <c r="C126" s="48"/>
+      <c r="A126" s="45"/>
+      <c r="B126" s="45"/>
+      <c r="C126" s="45"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="48"/>
-      <c r="B127" s="48"/>
-      <c r="C127" s="48"/>
+      <c r="A127" s="45"/>
+      <c r="B127" s="45"/>
+      <c r="C127" s="45"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="48"/>
-      <c r="B128" s="48"/>
-      <c r="C128" s="48"/>
+      <c r="A128" s="45"/>
+      <c r="B128" s="45"/>
+      <c r="C128" s="45"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="48"/>
-      <c r="B129" s="48"/>
-      <c r="C129" s="48"/>
+      <c r="A129" s="45"/>
+      <c r="B129" s="45"/>
+      <c r="C129" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D14:D21"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="D32:D38"/>
-    <mergeCell ref="D95:D96"/>
     <mergeCell ref="D98:D107"/>
     <mergeCell ref="D3:D12"/>
     <mergeCell ref="D40:D48"/>
@@ -2298,6 +2330,11 @@
     <mergeCell ref="D60:D76"/>
     <mergeCell ref="D78:D85"/>
     <mergeCell ref="D87:D93"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D14:D21"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="D95:D96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2305,7 +2342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2325,11 +2362,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2353,11 +2390,11 @@
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>

--- a/Business/Finance/Budgets, Packets and Templates/Budgets/2019-2020/Budgets 2019-2020.xlsx
+++ b/Business/Finance/Budgets, Packets and Templates/Budgets/2019-2020/Budgets 2019-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\UNHSEDS\Business\Finance\Budgets, Packets and Templates\Budgets\2019-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{502B0BDE-5950-40C0-BFD8-A706B8E32857}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF00E6D2-2BBE-4652-AD07-B80C5926555C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-2020" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
   <si>
     <t>Total Membership Expenses</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>Total Collegiate Sponsorship</t>
+  </si>
+  <si>
+    <t>Food and General Travel</t>
+  </si>
+  <si>
+    <t>Airplane Ticket</t>
   </si>
 </sst>
 </file>
@@ -509,7 +515,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -665,12 +671,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="21"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -950,20 +965,23 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1372,11 +1390,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W132"/>
+  <dimension ref="A1:W133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E124" sqref="E124"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1391,11 +1409,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
       <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1412,7 +1430,7 @@
       <c r="C3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="98" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1422,13 +1440,13 @@
       </c>
       <c r="B4" s="54"/>
       <c r="C4" s="55"/>
-      <c r="D4" s="99"/>
+      <c r="D4" s="98"/>
     </row>
     <row r="5" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="56"/>
       <c r="B5" s="54"/>
       <c r="C5" s="57"/>
-      <c r="D5" s="99"/>
+      <c r="D5" s="98"/>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
@@ -1436,1120 +1454,1131 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="58"/>
-      <c r="D6" s="99"/>
+      <c r="D6" s="98"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="B7" s="34">
-        <f>397.82*20</f>
-        <v>7956.4</v>
+        <f>421.6*20</f>
+        <v>8432</v>
       </c>
       <c r="C7" s="39"/>
-      <c r="D7" s="99"/>
+      <c r="D7" s="98"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="16">
-        <f>107*5*3</f>
-        <v>1605</v>
+        <f>145*5*3</f>
+        <v>2175</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="99"/>
+      <c r="D8" s="98"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="16">
+        <f>(6*10*20)+(5*10*3)</f>
+        <v>1350</v>
+      </c>
+      <c r="C9" s="102"/>
+      <c r="D9" s="98"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="16">
-        <f>77*20</f>
-        <v>1540</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="99"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="B10" s="16">
+        <f>89.75*20</f>
+        <v>1795</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="98"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="37">
-        <f>SUM(B7:B9)</f>
-        <v>11101.4</v>
-      </c>
-      <c r="D10" s="99"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="37">
+        <f>SUM(B7:B10)</f>
+        <v>13752</v>
+      </c>
+      <c r="D11" s="98"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="38">
-        <f>C10/20</f>
-        <v>555.06999999999994</v>
-      </c>
-      <c r="D11" s="99"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="61"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="99"/>
-    </row>
-    <row r="13" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="64"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="77"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="98" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="38">
+        <f>C11/20</f>
+        <v>687.6</v>
+      </c>
+      <c r="D12" s="98"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="61"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="98"/>
+    </row>
+    <row r="14" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="64"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="77"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="61"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="97" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="98"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="16">
-        <v>200</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="98"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="97"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="16">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C17" s="35"/>
-      <c r="D17" s="98"/>
+      <c r="D17" s="97"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="16">
+        <v>300</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="97"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B19" s="16">
         <v>310</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="98"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="59" t="s">
+      <c r="C19" s="35"/>
+      <c r="D19" s="97"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="37">
-        <f>SUM(B16:B18)</f>
+      <c r="B20" s="31"/>
+      <c r="C20" s="37">
+        <f>SUM(B17:B19)</f>
         <v>810</v>
       </c>
-      <c r="D19" s="98"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
+      <c r="D20" s="97"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="38">
-        <f>C19/2</f>
+      <c r="B21" s="24"/>
+      <c r="C21" s="38">
+        <f>C20/2</f>
         <v>405</v>
       </c>
-      <c r="D20" s="98"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="98"/>
-    </row>
-    <row r="22" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="64"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="77"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="98" t="s">
+      <c r="D21" s="97"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="97"/>
+    </row>
+    <row r="23" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="64"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="77"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="97" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+    <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="98"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="97"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B26" s="16">
         <f>365.54*12</f>
         <v>4386.4800000000005</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="98"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="C26" s="35"/>
+      <c r="D26" s="97"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B27" s="16">
         <f>186.4*3*4</f>
         <v>2236.8000000000002</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="98"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="C27" s="35"/>
+      <c r="D27" s="97"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B28" s="16">
         <f>50*12</f>
         <v>600</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="98"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="59" t="s">
+      <c r="C28" s="35"/>
+      <c r="D28" s="97"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="37">
-        <f>SUM(B25:B27)</f>
+      <c r="B29" s="31"/>
+      <c r="C29" s="37">
+        <f>SUM(B26:B28)</f>
         <v>7223.2800000000007</v>
       </c>
-      <c r="D28" s="98"/>
-    </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="60" t="s">
+      <c r="D29" s="97"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="38">
-        <f>C28/12</f>
+      <c r="B30" s="24"/>
+      <c r="C30" s="38">
+        <f>C29/12</f>
         <v>601.94000000000005</v>
       </c>
-      <c r="D29" s="98"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="98"/>
+      <c r="D30" s="97"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="78"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="97"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="98" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="53" t="s">
-        <v>19</v>
-      </c>
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="78"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="20"/>
       <c r="B33" s="10"/>
       <c r="C33" s="25"/>
-      <c r="D33" s="98"/>
-    </row>
-    <row r="34" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="53"/>
+      <c r="D33" s="97" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="53" t="s">
+        <v>19</v>
+      </c>
       <c r="B34" s="10"/>
       <c r="C34" s="25"/>
-      <c r="D34" s="98"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="76" t="s">
-        <v>20</v>
-      </c>
+      <c r="D34" s="97"/>
+    </row>
+    <row r="35" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="53"/>
       <c r="B35" s="10"/>
       <c r="C35" s="25"/>
-      <c r="D35" s="98"/>
-    </row>
-    <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="D35" s="97"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="97"/>
+    </row>
+    <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B37" s="19">
         <f>15*4*8</f>
         <v>480</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="98"/>
-    </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="59" t="s">
+      <c r="C37" s="35"/>
+      <c r="D37" s="97"/>
+    </row>
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="37">
-        <f>SUM(B36:B37)</f>
+      <c r="B38" s="31"/>
+      <c r="C38" s="37">
+        <f>SUM(B37:B38)</f>
         <v>480</v>
       </c>
-      <c r="D37" s="98"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="61"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="98"/>
-    </row>
-    <row r="39" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="64"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="77"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="61"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="98" t="s">
+      <c r="D38" s="97"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="61"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="97"/>
+    </row>
+    <row r="40" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="64"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="77"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="61"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="97" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="76" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="98"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="21">
-        <v>67.95</v>
-      </c>
+      <c r="B42" s="21"/>
       <c r="C42" s="35"/>
-      <c r="D42" s="98"/>
+      <c r="D42" s="97"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B43" s="21">
-        <v>95</v>
+        <v>67.95</v>
       </c>
       <c r="C43" s="35"/>
-      <c r="D43" s="98"/>
+      <c r="D43" s="97"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="21">
+        <v>95</v>
+      </c>
+      <c r="C44" s="35"/>
+      <c r="D44" s="97"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="21">
+      <c r="B45" s="21">
         <f>15*16.5</f>
         <v>247.5</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="98"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
+      <c r="C45" s="35"/>
+      <c r="D45" s="97"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="21">
+      <c r="B46" s="21">
         <f>10*31.76</f>
         <v>317.60000000000002</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="98"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+      <c r="C46" s="35"/>
+      <c r="D46" s="97"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="30">
+      <c r="B47" s="30">
         <f>24.99*13</f>
         <v>324.87</v>
       </c>
-      <c r="C46" s="42"/>
-      <c r="D46" s="98"/>
-    </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="59" t="s">
+      <c r="C47" s="42"/>
+      <c r="D47" s="97"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="37">
-        <f>SUM(B42:B46)</f>
+      <c r="B48" s="31"/>
+      <c r="C48" s="37">
+        <f>SUM(B43:B47)</f>
         <v>1052.92</v>
       </c>
-      <c r="D47" s="98"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="20"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="98"/>
+      <c r="D48" s="97"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="27"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="78"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="97"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="20"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="98" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="53" t="s">
-        <v>11</v>
-      </c>
+      <c r="A50" s="27"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="78"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="20"/>
       <c r="B51" s="10"/>
       <c r="C51" s="25"/>
-      <c r="D51" s="98"/>
+      <c r="D51" s="97" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="53"/>
+      <c r="A52" s="53" t="s">
+        <v>11</v>
+      </c>
       <c r="B52" s="10"/>
       <c r="C52" s="25"/>
-      <c r="D52" s="98"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="76" t="s">
+      <c r="D52" s="97"/>
+    </row>
+    <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" s="53"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="97"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="98"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="19">
-        <v>273.39999999999998</v>
-      </c>
-      <c r="C54" s="41"/>
-      <c r="D54" s="98"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="97"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B55" s="19">
-        <v>177</v>
+        <v>273.39999999999998</v>
       </c>
       <c r="C55" s="41"/>
-      <c r="D55" s="98"/>
+      <c r="D55" s="97"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="19">
+        <v>177</v>
+      </c>
+      <c r="C56" s="41"/>
+      <c r="D56" s="97"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="19">
+      <c r="B57" s="19">
         <v>347</v>
       </c>
-      <c r="C56" s="41"/>
-      <c r="D56" s="98"/>
-    </row>
-    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="59" t="s">
+      <c r="C57" s="41"/>
+      <c r="D57" s="97"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B57" s="31"/>
-      <c r="C57" s="37">
-        <f>SUM(B53:B57)</f>
+      <c r="B58" s="31"/>
+      <c r="C58" s="37">
+        <f>SUM(B54:B58)</f>
         <v>797.4</v>
       </c>
-      <c r="D57" s="98"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="20"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="98"/>
+      <c r="D58" s="97"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="27"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="78"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="97"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="98" t="s">
+      <c r="A60" s="27"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="78"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="20"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="97" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="53" t="s">
+    <row r="62" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A62" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="46"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="98"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="46"/>
       <c r="B62" s="46"/>
       <c r="C62" s="46"/>
-      <c r="D62" s="98"/>
+      <c r="D62" s="97"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="76" t="s">
+      <c r="A63" s="46"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="97"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="98"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
+      <c r="B64" s="21"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="97"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="21">
+      <c r="B65" s="21">
         <f>500</f>
         <v>500</v>
       </c>
-      <c r="C64" s="35"/>
-      <c r="D64" s="98"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
+      <c r="C65" s="35"/>
+      <c r="D65" s="97"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="21">
+      <c r="B66" s="21">
         <f>625</f>
         <v>625</v>
       </c>
-      <c r="C65" s="35"/>
-      <c r="D65" s="98"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B66" s="21">
-        <v>300</v>
-      </c>
       <c r="C66" s="35"/>
-      <c r="D66" s="98"/>
+      <c r="D66" s="97"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B67" s="21">
-        <v>1250</v>
+        <v>300</v>
       </c>
       <c r="C67" s="35"/>
-      <c r="D67" s="98"/>
+      <c r="D67" s="97"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" s="21">
+        <v>1250</v>
+      </c>
+      <c r="C68" s="35"/>
+      <c r="D68" s="97"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="21">
+      <c r="B69" s="21">
         <f>375</f>
         <v>375</v>
       </c>
-      <c r="C68" s="35"/>
-      <c r="D68" s="98"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B69" s="21">
-        <v>650</v>
-      </c>
       <c r="C69" s="35"/>
-      <c r="D69" s="98"/>
+      <c r="D69" s="97"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B70" s="21">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="C70" s="35"/>
-      <c r="D70" s="98"/>
+      <c r="D70" s="97"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B71" s="21">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="C71" s="35"/>
-      <c r="D71" s="98"/>
+      <c r="D71" s="97"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B72" s="21">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="C72" s="35"/>
-      <c r="D72" s="98"/>
+      <c r="D72" s="97"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B73" s="21">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="C73" s="35"/>
-      <c r="D73" s="98"/>
+      <c r="D73" s="97"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B74" s="21">
+        <v>650</v>
+      </c>
+      <c r="C74" s="35"/>
+      <c r="D74" s="97"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B74" s="30">
+      <c r="B75" s="30">
         <v>1500</v>
       </c>
-      <c r="C74" s="42"/>
-      <c r="D74" s="98"/>
-    </row>
-    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="59" t="s">
+      <c r="C75" s="42"/>
+      <c r="D75" s="97"/>
+    </row>
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B75" s="31"/>
-      <c r="C75" s="37">
-        <f>SUM(B64:B74)</f>
+      <c r="B76" s="31"/>
+      <c r="C76" s="37">
+        <f>SUM(B65:B75)</f>
         <v>7900</v>
       </c>
-      <c r="D75" s="98"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="61"/>
-      <c r="B76" s="62"/>
-      <c r="C76" s="67"/>
-      <c r="D76" s="98"/>
-    </row>
-    <row r="77" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="64"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="66"/>
-      <c r="D77" s="77"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="61"/>
-      <c r="B78" s="62"/>
-      <c r="C78" s="67"/>
-      <c r="D78" s="98" t="s">
+      <c r="D76" s="97"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="61"/>
+      <c r="B77" s="62"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="97"/>
+    </row>
+    <row r="78" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="64"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="77"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="61"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="97" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="76" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="B79" s="21"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="98"/>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="6" t="s">
+      <c r="B80" s="21"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="97"/>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B80" s="21">
+      <c r="B81" s="21">
         <v>350</v>
       </c>
-      <c r="C80" s="35"/>
-      <c r="D80" s="98"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B81" s="21">
-        <v>250</v>
-      </c>
       <c r="C81" s="35"/>
-      <c r="D81" s="98"/>
+      <c r="D81" s="97"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B82" s="21">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="C82" s="35"/>
-      <c r="D82" s="98"/>
+      <c r="D82" s="97"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" s="21">
+        <v>200</v>
+      </c>
+      <c r="C83" s="35"/>
+      <c r="D83" s="97"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B83" s="21">
+      <c r="B84" s="21">
         <v>550</v>
       </c>
-      <c r="C83" s="35"/>
-      <c r="D83" s="98"/>
-    </row>
-    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="59" t="s">
+      <c r="C84" s="35"/>
+      <c r="D84" s="97"/>
+    </row>
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B84" s="31"/>
-      <c r="C84" s="37">
-        <f>SUM(B80:B83)</f>
+      <c r="B85" s="31"/>
+      <c r="C85" s="37">
+        <f>SUM(B81:B84)</f>
         <v>1350</v>
       </c>
-      <c r="D84" s="98"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="61"/>
-      <c r="B85" s="62"/>
-      <c r="C85" s="67"/>
-      <c r="D85" s="98"/>
-    </row>
-    <row r="86" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="64"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="66"/>
-      <c r="D86" s="77"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="61"/>
-      <c r="B87" s="62"/>
-      <c r="C87" s="67"/>
-      <c r="D87" s="98" t="s">
+      <c r="D85" s="97"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="61"/>
+      <c r="B86" s="62"/>
+      <c r="C86" s="67"/>
+      <c r="D86" s="97"/>
+    </row>
+    <row r="87" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="64"/>
+      <c r="B87" s="65"/>
+      <c r="C87" s="66"/>
+      <c r="D87" s="77"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="61"/>
+      <c r="B88" s="62"/>
+      <c r="C88" s="67"/>
+      <c r="D88" s="97" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="76" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="21"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="98"/>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="s">
+      <c r="B89" s="21"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="97"/>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B89" s="21">
+      <c r="B90" s="21">
         <v>544.99</v>
       </c>
-      <c r="C89" s="35"/>
-      <c r="D89" s="98"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B90" s="21">
-        <v>1100</v>
-      </c>
       <c r="C90" s="35"/>
-      <c r="D90" s="98"/>
+      <c r="D90" s="97"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B91" s="21">
+        <v>1100</v>
+      </c>
+      <c r="C91" s="35"/>
+      <c r="D91" s="97"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B91" s="21">
+      <c r="B92" s="21">
         <v>800</v>
       </c>
-      <c r="C91" s="35"/>
-      <c r="D91" s="98"/>
-    </row>
-    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="59" t="s">
+      <c r="C92" s="35"/>
+      <c r="D92" s="97"/>
+    </row>
+    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A93" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B92" s="31"/>
-      <c r="C92" s="37">
-        <f>SUM(B89:B91)</f>
+      <c r="B93" s="31"/>
+      <c r="C93" s="37">
+        <f>SUM(B90:B92)</f>
         <v>2444.9899999999998</v>
       </c>
-      <c r="D92" s="98"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="20"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="98"/>
+      <c r="D93" s="97"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="27"/>
-      <c r="B94" s="28"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="78"/>
-    </row>
-    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A95" s="20"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="98"/>
-    </row>
-    <row r="96" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A96" s="69" t="s">
+      <c r="A94" s="20"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="97"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="27"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="78"/>
+    </row>
+    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A96" s="20"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="97"/>
+    </row>
+    <row r="97" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A97" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="98"/>
-    </row>
-    <row r="97" spans="1:4" s="45" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="70"/>
-      <c r="B97" s="71"/>
-      <c r="C97" s="72"/>
-      <c r="D97" s="79"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="20"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="98"/>
-    </row>
-    <row r="99" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A99" s="53" t="s">
+      <c r="B97" s="10"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="97"/>
+    </row>
+    <row r="98" spans="1:4" s="45" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="70"/>
+      <c r="B98" s="71"/>
+      <c r="C98" s="72"/>
+      <c r="D98" s="79"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="20"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="97"/>
+    </row>
+    <row r="100" spans="1:4" ht="36" x14ac:dyDescent="0.2">
+      <c r="A100" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B99" s="10"/>
-      <c r="C99" s="32">
-        <f>C10+C19+C28</f>
-        <v>19134.68</v>
-      </c>
-      <c r="D99" s="98"/>
-    </row>
-    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A100" s="20"/>
       <c r="B100" s="10"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="98"/>
-    </row>
-    <row r="101" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A101" s="53" t="s">
+      <c r="C100" s="32">
+        <f>C11+C20+C29</f>
+        <v>21785.279999999999</v>
+      </c>
+      <c r="D100" s="97"/>
+    </row>
+    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A101" s="20"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="97"/>
+    </row>
+    <row r="102" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A102" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B101" s="10"/>
-      <c r="C101" s="32">
-        <f>C37+C47</f>
+      <c r="B102" s="10"/>
+      <c r="C102" s="32">
+        <f>C38+C48</f>
         <v>1532.92</v>
       </c>
-      <c r="D101" s="98"/>
-    </row>
-    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A102" s="20"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="98"/>
-    </row>
-    <row r="103" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A103" s="53" t="s">
+      <c r="D102" s="97"/>
+    </row>
+    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A103" s="20"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="97"/>
+    </row>
+    <row r="104" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A104" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B103" s="10"/>
-      <c r="C103" s="32">
-        <f>C57</f>
+      <c r="B104" s="10"/>
+      <c r="C104" s="32">
+        <f>C58</f>
         <v>797.4</v>
       </c>
-      <c r="D103" s="98"/>
-    </row>
-    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A104" s="20"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="98"/>
-    </row>
-    <row r="105" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A105" s="53" t="s">
+      <c r="D104" s="97"/>
+    </row>
+    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A105" s="20"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="97"/>
+    </row>
+    <row r="106" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A106" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B105" s="10"/>
-      <c r="C105" s="32">
-        <f>C75+C84+C92</f>
+      <c r="B106" s="10"/>
+      <c r="C106" s="32">
+        <f>C76+C85+C93</f>
         <v>11694.99</v>
       </c>
-      <c r="D105" s="98"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="20"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="98"/>
-    </row>
-    <row r="107" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A107" s="73" t="s">
+      <c r="D106" s="97"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="20"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="97"/>
+    </row>
+    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A108" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B107" s="33"/>
-      <c r="C107" s="75">
-        <f>C99+C101+C103+C105</f>
-        <v>33159.99</v>
-      </c>
-      <c r="D107" s="98"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="45"/>
-      <c r="B108" s="45"/>
-      <c r="C108" s="45"/>
-    </row>
-    <row r="109" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="87" t="s">
+      <c r="B108" s="33"/>
+      <c r="C108" s="75">
+        <f>C100+C102+C104+C106</f>
+        <v>35810.589999999997</v>
+      </c>
+      <c r="D108" s="97"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="45"/>
+      <c r="B109" s="45"/>
+      <c r="C109" s="45"/>
+    </row>
+    <row r="110" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="B109" s="80"/>
-      <c r="C109" s="80"/>
-      <c r="D109" s="80"/>
-    </row>
-    <row r="110" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="64"/>
-      <c r="B110" s="65"/>
-      <c r="C110" s="84"/>
-      <c r="D110" s="85"/>
-    </row>
-    <row r="111" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A111" s="53" t="s">
+      <c r="B110" s="80"/>
+      <c r="C110" s="80"/>
+      <c r="D110" s="80"/>
+    </row>
+    <row r="111" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="64"/>
+      <c r="B111" s="65"/>
+      <c r="C111" s="84"/>
+      <c r="D111" s="85"/>
+    </row>
+    <row r="112" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A112" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="B111" s="86"/>
-      <c r="C111" s="80"/>
-      <c r="D111" s="80"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="B112" s="96">
-        <v>200</v>
-      </c>
+      <c r="B112" s="86"/>
       <c r="C112" s="80"/>
       <c r="D112" s="80"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="B113" s="86"/>
+      <c r="A113" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="B113" s="96">
+        <v>200</v>
+      </c>
       <c r="C113" s="80"/>
       <c r="D113" s="80"/>
     </row>
-    <row r="114" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="B114" s="91" t="s">
-        <v>78</v>
-      </c>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="B114" s="86"/>
       <c r="C114" s="80"/>
       <c r="D114" s="80"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="B115" s="86"/>
+    <row r="115" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="B115" s="91" t="s">
+        <v>78</v>
+      </c>
       <c r="C115" s="80"/>
       <c r="D115" s="80"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="B116" s="91" t="s">
-        <v>78</v>
-      </c>
+      <c r="A116" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="B116" s="86"/>
       <c r="C116" s="80"/>
       <c r="D116" s="80"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="B117" s="86"/>
+      <c r="A117" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="B117" s="91" t="s">
+        <v>78</v>
+      </c>
       <c r="C117" s="80"/>
       <c r="D117" s="80"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="B118" s="91" t="s">
-        <v>78</v>
-      </c>
+      <c r="A118" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="B118" s="86"/>
       <c r="C118" s="80"/>
       <c r="D118" s="80"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="B119" s="96">
-        <v>250</v>
+      <c r="A119" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="B119" s="91" t="s">
+        <v>78</v>
       </c>
       <c r="C119" s="80"/>
       <c r="D119" s="80"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="93" t="s">
-        <v>79</v>
-      </c>
-      <c r="B120" s="80"/>
+      <c r="A120" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="B120" s="96">
+        <v>250</v>
+      </c>
       <c r="C120" s="80"/>
       <c r="D120" s="80"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="80"/>
-      <c r="B121" s="92" t="s">
-        <v>78</v>
-      </c>
+      <c r="A121" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="B121" s="80"/>
       <c r="C121" s="80"/>
       <c r="D121" s="80"/>
     </row>
-    <row r="122" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="59" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="80"/>
+      <c r="B122" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="C122" s="80"/>
+      <c r="D122" s="80"/>
+    </row>
+    <row r="123" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="B122" s="92"/>
-      <c r="C122" s="59" t="s">
+      <c r="B123" s="92"/>
+      <c r="C123" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="D122" s="80"/>
-    </row>
-    <row r="123" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="80"/>
-      <c r="B123" s="92"/>
-      <c r="C123" s="80"/>
       <c r="D123" s="80"/>
     </row>
     <row r="124" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="85"/>
-      <c r="B124" s="85"/>
-      <c r="C124" s="85"/>
-      <c r="D124" s="85"/>
-    </row>
-    <row r="125" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="53" t="s">
+      <c r="A124" s="80"/>
+      <c r="B124" s="92"/>
+      <c r="C124" s="80"/>
+      <c r="D124" s="80"/>
+    </row>
+    <row r="125" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="85"/>
+      <c r="B125" s="85"/>
+      <c r="C125" s="85"/>
+      <c r="D125" s="85"/>
+    </row>
+    <row r="126" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B125" s="80"/>
-      <c r="C125" s="80"/>
-      <c r="D125" s="80"/>
-    </row>
-    <row r="126" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="B126" s="82">
-        <v>3500</v>
-      </c>
+      <c r="B126" s="80"/>
       <c r="C126" s="80"/>
       <c r="D126" s="80"/>
     </row>
     <row r="127" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A127" s="94" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B127" s="82">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="C127" s="80"/>
       <c r="D127" s="80"/>
     </row>
     <row r="128" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A128" s="94" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B128" s="82">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="C128" s="80"/>
       <c r="D128" s="80"/>
     </row>
     <row r="129" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A129" s="94" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B129" s="82">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="C129" s="80"/>
       <c r="D129" s="80"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="80"/>
-      <c r="B130" s="80"/>
+    <row r="130" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A130" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="B130" s="82">
+        <v>150</v>
+      </c>
       <c r="C130" s="80"/>
       <c r="D130" s="80"/>
     </row>
-    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A131" s="59" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="80"/>
+      <c r="B131" s="80"/>
+      <c r="C131" s="80"/>
+      <c r="D131" s="80"/>
+    </row>
+    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A132" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="B131" s="86"/>
-      <c r="C131" s="95">
-        <f>SUM(B126,B127,B128,B129)</f>
+      <c r="B132" s="86"/>
+      <c r="C132" s="95">
+        <f>SUM(B127,B128,B129,B130)</f>
         <v>6050</v>
       </c>
-      <c r="D131" s="80"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="81"/>
-      <c r="B132" s="86"/>
-      <c r="C132" s="83"/>
       <c r="D132" s="80"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="81"/>
+      <c r="B133" s="86"/>
+      <c r="C133" s="83"/>
+      <c r="D133" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D98:D107"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="D40:D48"/>
-    <mergeCell ref="D50:D58"/>
-    <mergeCell ref="D60:D76"/>
-    <mergeCell ref="D78:D85"/>
-    <mergeCell ref="D87:D93"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D14:D21"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="D32:D38"/>
-    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="D15:D22"/>
+    <mergeCell ref="D24:D31"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="D99:D108"/>
+    <mergeCell ref="D3:D13"/>
+    <mergeCell ref="D41:D49"/>
+    <mergeCell ref="D51:D59"/>
+    <mergeCell ref="D61:D77"/>
+    <mergeCell ref="D79:D86"/>
+    <mergeCell ref="D88:D94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Business/Finance/Budgets, Packets and Templates/Budgets/2019-2020/Budgets 2019-2020.xlsx
+++ b/Business/Finance/Budgets, Packets and Templates/Budgets/2019-2020/Budgets 2019-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\UNHSEDS\Business\Finance\Budgets, Packets and Templates\Budgets\2019-2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2023a\Desktop\UNHSEDS\Business\Finance\Budgets, Packets and Templates\Budgets\2019-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF00E6D2-2BBE-4652-AD07-B80C5926555C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3951FD-E51A-4D3A-BA1C-181D9661B39C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-2020" sheetId="2" r:id="rId1"/>
@@ -965,6 +965,12 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -972,16 +978,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1393,8 +1393,8 @@
   <dimension ref="A1:W133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D99" sqref="D99:D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1409,11 +1409,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
       <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
       <c r="C3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="98" t="s">
+      <c r="D3" s="100" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1440,13 +1440,13 @@
       </c>
       <c r="B4" s="54"/>
       <c r="C4" s="55"/>
-      <c r="D4" s="98"/>
+      <c r="D4" s="100"/>
     </row>
     <row r="5" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="56"/>
       <c r="B5" s="54"/>
       <c r="C5" s="57"/>
-      <c r="D5" s="98"/>
+      <c r="D5" s="100"/>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="58"/>
-      <c r="D6" s="98"/>
+      <c r="D6" s="100"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -1465,7 +1465,7 @@
         <v>8432</v>
       </c>
       <c r="C7" s="39"/>
-      <c r="D7" s="98"/>
+      <c r="D7" s="100"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -1476,7 +1476,7 @@
         <v>2175</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="98"/>
+      <c r="D8" s="100"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -1486,8 +1486,8 @@
         <f>(6*10*20)+(5*10*3)</f>
         <v>1350</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="98"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="100"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -1498,7 +1498,7 @@
         <v>1795</v>
       </c>
       <c r="C10" s="36"/>
-      <c r="D10" s="98"/>
+      <c r="D10" s="100"/>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
@@ -1509,7 +1509,7 @@
         <f>SUM(B7:B10)</f>
         <v>13752</v>
       </c>
-      <c r="D11" s="98"/>
+      <c r="D11" s="100"/>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="s">
@@ -1520,13 +1520,13 @@
         <f>C11/20</f>
         <v>687.6</v>
       </c>
-      <c r="D12" s="98"/>
+      <c r="D12" s="100"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="61"/>
       <c r="B13" s="62"/>
       <c r="C13" s="63"/>
-      <c r="D13" s="98"/>
+      <c r="D13" s="100"/>
     </row>
     <row r="14" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="64"/>
@@ -1538,7 +1538,7 @@
       <c r="A15" s="61"/>
       <c r="B15" s="62"/>
       <c r="C15" s="67"/>
-      <c r="D15" s="97" t="s">
+      <c r="D15" s="99" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="97"/>
+      <c r="D16" s="99"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
@@ -1558,7 +1558,7 @@
         <v>200</v>
       </c>
       <c r="C17" s="35"/>
-      <c r="D17" s="97"/>
+      <c r="D17" s="99"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
@@ -1568,7 +1568,7 @@
         <v>300</v>
       </c>
       <c r="C18" s="35"/>
-      <c r="D18" s="97"/>
+      <c r="D18" s="99"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
@@ -1578,7 +1578,7 @@
         <v>310</v>
       </c>
       <c r="C19" s="35"/>
-      <c r="D19" s="97"/>
+      <c r="D19" s="99"/>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="59" t="s">
@@ -1589,7 +1589,7 @@
         <f>SUM(B17:B19)</f>
         <v>810</v>
       </c>
-      <c r="D20" s="97"/>
+      <c r="D20" s="99"/>
     </row>
     <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="60" t="s">
@@ -1597,16 +1597,16 @@
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="38">
-        <f>C20/2</f>
-        <v>405</v>
-      </c>
-      <c r="D21" s="97"/>
+        <f>C20/3</f>
+        <v>270</v>
+      </c>
+      <c r="D21" s="99"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="26"/>
-      <c r="D22" s="97"/>
+      <c r="D22" s="99"/>
     </row>
     <row r="23" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="64"/>
@@ -1618,7 +1618,7 @@
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="40"/>
-      <c r="D24" s="97" t="s">
+      <c r="D24" s="99" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="25"/>
-      <c r="D25" s="97"/>
+      <c r="D25" s="99"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
@@ -1639,7 +1639,7 @@
         <v>4386.4800000000005</v>
       </c>
       <c r="C26" s="35"/>
-      <c r="D26" s="97"/>
+      <c r="D26" s="99"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
@@ -1650,7 +1650,7 @@
         <v>2236.8000000000002</v>
       </c>
       <c r="C27" s="35"/>
-      <c r="D27" s="97"/>
+      <c r="D27" s="99"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
@@ -1661,7 +1661,7 @@
         <v>600</v>
       </c>
       <c r="C28" s="35"/>
-      <c r="D28" s="97"/>
+      <c r="D28" s="99"/>
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="59" t="s">
@@ -1672,7 +1672,7 @@
         <f>SUM(B26:B28)</f>
         <v>7223.2800000000007</v>
       </c>
-      <c r="D29" s="97"/>
+      <c r="D29" s="99"/>
     </row>
     <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="60" t="s">
@@ -1683,13 +1683,13 @@
         <f>C29/12</f>
         <v>601.94000000000005</v>
       </c>
-      <c r="D30" s="97"/>
+      <c r="D30" s="99"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="20"/>
       <c r="B31" s="10"/>
       <c r="C31" s="25"/>
-      <c r="D31" s="97"/>
+      <c r="D31" s="99"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
@@ -1701,7 +1701,7 @@
       <c r="A33" s="20"/>
       <c r="B33" s="10"/>
       <c r="C33" s="25"/>
-      <c r="D33" s="97" t="s">
+      <c r="D33" s="99" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1711,13 +1711,13 @@
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="25"/>
-      <c r="D34" s="97"/>
+      <c r="D34" s="99"/>
     </row>
     <row r="35" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="53"/>
       <c r="B35" s="10"/>
       <c r="C35" s="25"/>
-      <c r="D35" s="97"/>
+      <c r="D35" s="99"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="76" t="s">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="25"/>
-      <c r="D36" s="97"/>
+      <c r="D36" s="99"/>
     </row>
     <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
@@ -1736,7 +1736,7 @@
         <v>480</v>
       </c>
       <c r="C37" s="35"/>
-      <c r="D37" s="97"/>
+      <c r="D37" s="99"/>
     </row>
     <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="59" t="s">
@@ -1747,13 +1747,13 @@
         <f>SUM(B37:B38)</f>
         <v>480</v>
       </c>
-      <c r="D38" s="97"/>
+      <c r="D38" s="99"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="61"/>
       <c r="B39" s="62"/>
       <c r="C39" s="67"/>
-      <c r="D39" s="97"/>
+      <c r="D39" s="99"/>
     </row>
     <row r="40" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="64"/>
@@ -1765,7 +1765,7 @@
       <c r="A41" s="61"/>
       <c r="B41" s="62"/>
       <c r="C41" s="68"/>
-      <c r="D41" s="97" t="s">
+      <c r="D41" s="99" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="35"/>
-      <c r="D42" s="97"/>
+      <c r="D42" s="99"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
@@ -1785,7 +1785,7 @@
         <v>67.95</v>
       </c>
       <c r="C43" s="35"/>
-      <c r="D43" s="97"/>
+      <c r="D43" s="99"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
@@ -1795,7 +1795,7 @@
         <v>95</v>
       </c>
       <c r="C44" s="35"/>
-      <c r="D44" s="97"/>
+      <c r="D44" s="99"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
@@ -1806,7 +1806,7 @@
         <v>247.5</v>
       </c>
       <c r="C45" s="35"/>
-      <c r="D45" s="97"/>
+      <c r="D45" s="99"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
@@ -1817,7 +1817,7 @@
         <v>317.60000000000002</v>
       </c>
       <c r="C46" s="35"/>
-      <c r="D46" s="97"/>
+      <c r="D46" s="99"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
@@ -1828,7 +1828,7 @@
         <v>324.87</v>
       </c>
       <c r="C47" s="42"/>
-      <c r="D47" s="97"/>
+      <c r="D47" s="99"/>
     </row>
     <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="59" t="s">
@@ -1839,13 +1839,13 @@
         <f>SUM(B43:B47)</f>
         <v>1052.92</v>
       </c>
-      <c r="D48" s="97"/>
+      <c r="D48" s="99"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="20"/>
       <c r="B49" s="10"/>
       <c r="C49" s="25"/>
-      <c r="D49" s="97"/>
+      <c r="D49" s="99"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
@@ -1857,7 +1857,7 @@
       <c r="A51" s="20"/>
       <c r="B51" s="10"/>
       <c r="C51" s="25"/>
-      <c r="D51" s="97" t="s">
+      <c r="D51" s="99" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1867,13 +1867,13 @@
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="25"/>
-      <c r="D52" s="97"/>
+      <c r="D52" s="99"/>
     </row>
     <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="53"/>
       <c r="B53" s="10"/>
       <c r="C53" s="25"/>
-      <c r="D53" s="97"/>
+      <c r="D53" s="99"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="76" t="s">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="35"/>
-      <c r="D54" s="97"/>
+      <c r="D54" s="99"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
@@ -1891,7 +1891,7 @@
         <v>273.39999999999998</v>
       </c>
       <c r="C55" s="41"/>
-      <c r="D55" s="97"/>
+      <c r="D55" s="99"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
@@ -1901,7 +1901,7 @@
         <v>177</v>
       </c>
       <c r="C56" s="41"/>
-      <c r="D56" s="97"/>
+      <c r="D56" s="99"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
@@ -1911,7 +1911,7 @@
         <v>347</v>
       </c>
       <c r="C57" s="41"/>
-      <c r="D57" s="97"/>
+      <c r="D57" s="99"/>
     </row>
     <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="59" t="s">
@@ -1922,13 +1922,13 @@
         <f>SUM(B54:B58)</f>
         <v>797.4</v>
       </c>
-      <c r="D58" s="97"/>
+      <c r="D58" s="99"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="20"/>
       <c r="B59" s="10"/>
       <c r="C59" s="25"/>
-      <c r="D59" s="97"/>
+      <c r="D59" s="99"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
@@ -1940,7 +1940,7 @@
       <c r="A61" s="20"/>
       <c r="B61" s="10"/>
       <c r="C61" s="25"/>
-      <c r="D61" s="97" t="s">
+      <c r="D61" s="99" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1950,13 +1950,13 @@
       </c>
       <c r="B62" s="46"/>
       <c r="C62" s="46"/>
-      <c r="D62" s="97"/>
+      <c r="D62" s="99"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="46"/>
       <c r="B63" s="46"/>
       <c r="C63" s="46"/>
-      <c r="D63" s="97"/>
+      <c r="D63" s="99"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="76" t="s">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="B64" s="21"/>
       <c r="C64" s="35"/>
-      <c r="D64" s="97"/>
+      <c r="D64" s="99"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
@@ -1975,7 +1975,7 @@
         <v>500</v>
       </c>
       <c r="C65" s="35"/>
-      <c r="D65" s="97"/>
+      <c r="D65" s="99"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
@@ -1986,7 +1986,7 @@
         <v>625</v>
       </c>
       <c r="C66" s="35"/>
-      <c r="D66" s="97"/>
+      <c r="D66" s="99"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -1996,7 +1996,7 @@
         <v>300</v>
       </c>
       <c r="C67" s="35"/>
-      <c r="D67" s="97"/>
+      <c r="D67" s="99"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
@@ -2006,18 +2006,17 @@
         <v>1250</v>
       </c>
       <c r="C68" s="35"/>
-      <c r="D68" s="97"/>
+      <c r="D68" s="99"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B69" s="21">
-        <f>375</f>
-        <v>375</v>
+        <v>1200</v>
       </c>
       <c r="C69" s="35"/>
-      <c r="D69" s="97"/>
+      <c r="D69" s="99"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
@@ -2027,7 +2026,7 @@
         <v>650</v>
       </c>
       <c r="C70" s="35"/>
-      <c r="D70" s="97"/>
+      <c r="D70" s="99"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
@@ -2037,7 +2036,7 @@
         <v>250</v>
       </c>
       <c r="C71" s="35"/>
-      <c r="D71" s="97"/>
+      <c r="D71" s="99"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
@@ -2047,7 +2046,7 @@
         <v>600</v>
       </c>
       <c r="C72" s="35"/>
-      <c r="D72" s="97"/>
+      <c r="D72" s="99"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
@@ -2057,7 +2056,7 @@
         <v>1200</v>
       </c>
       <c r="C73" s="35"/>
-      <c r="D73" s="97"/>
+      <c r="D73" s="99"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2067,7 +2066,7 @@
         <v>650</v>
       </c>
       <c r="C74" s="35"/>
-      <c r="D74" s="97"/>
+      <c r="D74" s="99"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2077,7 +2076,7 @@
         <v>1500</v>
       </c>
       <c r="C75" s="42"/>
-      <c r="D75" s="97"/>
+      <c r="D75" s="99"/>
     </row>
     <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="59" t="s">
@@ -2086,15 +2085,15 @@
       <c r="B76" s="31"/>
       <c r="C76" s="37">
         <f>SUM(B65:B75)</f>
-        <v>7900</v>
-      </c>
-      <c r="D76" s="97"/>
+        <v>8725</v>
+      </c>
+      <c r="D76" s="99"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="61"/>
       <c r="B77" s="62"/>
       <c r="C77" s="67"/>
-      <c r="D77" s="97"/>
+      <c r="D77" s="99"/>
     </row>
     <row r="78" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="64"/>
@@ -2106,7 +2105,7 @@
       <c r="A79" s="61"/>
       <c r="B79" s="62"/>
       <c r="C79" s="67"/>
-      <c r="D79" s="97" t="s">
+      <c r="D79" s="99" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2116,7 +2115,7 @@
       </c>
       <c r="B80" s="21"/>
       <c r="C80" s="35"/>
-      <c r="D80" s="97"/>
+      <c r="D80" s="99"/>
     </row>
     <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
@@ -2126,7 +2125,7 @@
         <v>350</v>
       </c>
       <c r="C81" s="35"/>
-      <c r="D81" s="97"/>
+      <c r="D81" s="99"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
@@ -2136,7 +2135,7 @@
         <v>250</v>
       </c>
       <c r="C82" s="35"/>
-      <c r="D82" s="97"/>
+      <c r="D82" s="99"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
@@ -2146,7 +2145,7 @@
         <v>200</v>
       </c>
       <c r="C83" s="35"/>
-      <c r="D83" s="97"/>
+      <c r="D83" s="99"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
@@ -2156,7 +2155,7 @@
         <v>550</v>
       </c>
       <c r="C84" s="35"/>
-      <c r="D84" s="97"/>
+      <c r="D84" s="99"/>
     </row>
     <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="59" t="s">
@@ -2167,13 +2166,13 @@
         <f>SUM(B81:B84)</f>
         <v>1350</v>
       </c>
-      <c r="D85" s="97"/>
+      <c r="D85" s="99"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="61"/>
       <c r="B86" s="62"/>
       <c r="C86" s="67"/>
-      <c r="D86" s="97"/>
+      <c r="D86" s="99"/>
     </row>
     <row r="87" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="64"/>
@@ -2185,7 +2184,7 @@
       <c r="A88" s="61"/>
       <c r="B88" s="62"/>
       <c r="C88" s="67"/>
-      <c r="D88" s="97" t="s">
+      <c r="D88" s="99" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2195,7 +2194,7 @@
       </c>
       <c r="B89" s="21"/>
       <c r="C89" s="35"/>
-      <c r="D89" s="97"/>
+      <c r="D89" s="99"/>
     </row>
     <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
@@ -2205,7 +2204,7 @@
         <v>544.99</v>
       </c>
       <c r="C90" s="35"/>
-      <c r="D90" s="97"/>
+      <c r="D90" s="99"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
@@ -2215,7 +2214,7 @@
         <v>1100</v>
       </c>
       <c r="C91" s="35"/>
-      <c r="D91" s="97"/>
+      <c r="D91" s="99"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
@@ -2225,7 +2224,7 @@
         <v>800</v>
       </c>
       <c r="C92" s="35"/>
-      <c r="D92" s="97"/>
+      <c r="D92" s="99"/>
     </row>
     <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="59" t="s">
@@ -2236,13 +2235,13 @@
         <f>SUM(B90:B92)</f>
         <v>2444.9899999999998</v>
       </c>
-      <c r="D93" s="97"/>
+      <c r="D93" s="99"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="20"/>
       <c r="B94" s="10"/>
       <c r="C94" s="25"/>
-      <c r="D94" s="97"/>
+      <c r="D94" s="99"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
@@ -2254,7 +2253,7 @@
       <c r="A96" s="20"/>
       <c r="B96" s="10"/>
       <c r="C96" s="32"/>
-      <c r="D96" s="97"/>
+      <c r="D96" s="99"/>
     </row>
     <row r="97" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A97" s="69" t="s">
@@ -2262,7 +2261,7 @@
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="25"/>
-      <c r="D97" s="97"/>
+      <c r="D97" s="99"/>
     </row>
     <row r="98" spans="1:4" s="45" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="70"/>
@@ -2274,7 +2273,7 @@
       <c r="A99" s="20"/>
       <c r="B99" s="10"/>
       <c r="C99" s="25"/>
-      <c r="D99" s="97"/>
+      <c r="D99" s="99"/>
     </row>
     <row r="100" spans="1:4" ht="36" x14ac:dyDescent="0.2">
       <c r="A100" s="53" t="s">
@@ -2285,13 +2284,13 @@
         <f>C11+C20+C29</f>
         <v>21785.279999999999</v>
       </c>
-      <c r="D100" s="97"/>
+      <c r="D100" s="99"/>
     </row>
     <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="20"/>
       <c r="B101" s="10"/>
       <c r="C101" s="32"/>
-      <c r="D101" s="97"/>
+      <c r="D101" s="99"/>
     </row>
     <row r="102" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="53" t="s">
@@ -2302,13 +2301,13 @@
         <f>C38+C48</f>
         <v>1532.92</v>
       </c>
-      <c r="D102" s="97"/>
+      <c r="D102" s="99"/>
     </row>
     <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="20"/>
       <c r="B103" s="10"/>
       <c r="C103" s="32"/>
-      <c r="D103" s="97"/>
+      <c r="D103" s="99"/>
     </row>
     <row r="104" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A104" s="53" t="s">
@@ -2319,13 +2318,13 @@
         <f>C58</f>
         <v>797.4</v>
       </c>
-      <c r="D104" s="97"/>
+      <c r="D104" s="99"/>
     </row>
     <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="20"/>
       <c r="B105" s="10"/>
       <c r="C105" s="32"/>
-      <c r="D105" s="97"/>
+      <c r="D105" s="99"/>
     </row>
     <row r="106" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A106" s="53" t="s">
@@ -2334,15 +2333,15 @@
       <c r="B106" s="10"/>
       <c r="C106" s="32">
         <f>C76+C85+C93</f>
-        <v>11694.99</v>
-      </c>
-      <c r="D106" s="97"/>
+        <v>12519.99</v>
+      </c>
+      <c r="D106" s="99"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="20"/>
       <c r="B107" s="10"/>
       <c r="C107" s="25"/>
-      <c r="D107" s="97"/>
+      <c r="D107" s="99"/>
     </row>
     <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A108" s="73" t="s">
@@ -2351,9 +2350,9 @@
       <c r="B108" s="33"/>
       <c r="C108" s="75">
         <f>C100+C102+C104+C106</f>
-        <v>35810.589999999997</v>
-      </c>
-      <c r="D108" s="97"/>
+        <v>36635.589999999997</v>
+      </c>
+      <c r="D108" s="99"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="45"/>
@@ -2567,11 +2566,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D15:D22"/>
-    <mergeCell ref="D24:D31"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="D96:D97"/>
     <mergeCell ref="D99:D108"/>
     <mergeCell ref="D3:D13"/>
     <mergeCell ref="D41:D49"/>
@@ -2579,6 +2573,11 @@
     <mergeCell ref="D61:D77"/>
     <mergeCell ref="D79:D86"/>
     <mergeCell ref="D88:D94"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D15:D22"/>
+    <mergeCell ref="D24:D31"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="D96:D97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2606,11 +2605,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2634,11 +2633,11 @@
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>

--- a/Business/Finance/Budgets, Packets and Templates/Budgets/2019-2020/Budgets 2019-2020.xlsx
+++ b/Business/Finance/Budgets, Packets and Templates/Budgets/2019-2020/Budgets 2019-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\UNHSEDS\Business\Finance\Budgets, Packets and Templates\Budgets\2019-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF00E6D2-2BBE-4652-AD07-B80C5926555C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43C3EFB-1034-4D07-9D90-997448FCCE11}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-2020" sheetId="2" r:id="rId1"/>
@@ -965,6 +965,9 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -979,9 +982,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1393,8 +1393,8 @@
   <dimension ref="A1:W133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1409,11 +1409,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
       <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
       <c r="C3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="98" t="s">
+      <c r="D3" s="99" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1440,13 +1440,13 @@
       </c>
       <c r="B4" s="54"/>
       <c r="C4" s="55"/>
-      <c r="D4" s="98"/>
+      <c r="D4" s="99"/>
     </row>
     <row r="5" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="56"/>
       <c r="B5" s="54"/>
       <c r="C5" s="57"/>
-      <c r="D5" s="98"/>
+      <c r="D5" s="99"/>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="58"/>
-      <c r="D6" s="98"/>
+      <c r="D6" s="99"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -1465,7 +1465,7 @@
         <v>8432</v>
       </c>
       <c r="C7" s="39"/>
-      <c r="D7" s="98"/>
+      <c r="D7" s="99"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -1476,7 +1476,7 @@
         <v>2175</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="98"/>
+      <c r="D8" s="99"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -1486,8 +1486,8 @@
         <f>(6*10*20)+(5*10*3)</f>
         <v>1350</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="98"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="99"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -1498,7 +1498,7 @@
         <v>1795</v>
       </c>
       <c r="C10" s="36"/>
-      <c r="D10" s="98"/>
+      <c r="D10" s="99"/>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
@@ -1509,7 +1509,7 @@
         <f>SUM(B7:B10)</f>
         <v>13752</v>
       </c>
-      <c r="D11" s="98"/>
+      <c r="D11" s="99"/>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="s">
@@ -1520,13 +1520,13 @@
         <f>C11/20</f>
         <v>687.6</v>
       </c>
-      <c r="D12" s="98"/>
+      <c r="D12" s="99"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="61"/>
       <c r="B13" s="62"/>
       <c r="C13" s="63"/>
-      <c r="D13" s="98"/>
+      <c r="D13" s="99"/>
     </row>
     <row r="14" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="64"/>
@@ -1538,7 +1538,7 @@
       <c r="A15" s="61"/>
       <c r="B15" s="62"/>
       <c r="C15" s="67"/>
-      <c r="D15" s="97" t="s">
+      <c r="D15" s="98" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="97"/>
+      <c r="D16" s="98"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
@@ -1558,7 +1558,7 @@
         <v>200</v>
       </c>
       <c r="C17" s="35"/>
-      <c r="D17" s="97"/>
+      <c r="D17" s="98"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
@@ -1568,7 +1568,7 @@
         <v>300</v>
       </c>
       <c r="C18" s="35"/>
-      <c r="D18" s="97"/>
+      <c r="D18" s="98"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
@@ -1578,7 +1578,7 @@
         <v>310</v>
       </c>
       <c r="C19" s="35"/>
-      <c r="D19" s="97"/>
+      <c r="D19" s="98"/>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="59" t="s">
@@ -1589,7 +1589,7 @@
         <f>SUM(B17:B19)</f>
         <v>810</v>
       </c>
-      <c r="D20" s="97"/>
+      <c r="D20" s="98"/>
     </row>
     <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="60" t="s">
@@ -1600,13 +1600,13 @@
         <f>C20/2</f>
         <v>405</v>
       </c>
-      <c r="D21" s="97"/>
+      <c r="D21" s="98"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="26"/>
-      <c r="D22" s="97"/>
+      <c r="D22" s="98"/>
     </row>
     <row r="23" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="64"/>
@@ -1618,7 +1618,7 @@
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="40"/>
-      <c r="D24" s="97" t="s">
+      <c r="D24" s="98" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="25"/>
-      <c r="D25" s="97"/>
+      <c r="D25" s="98"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
@@ -1639,7 +1639,7 @@
         <v>4386.4800000000005</v>
       </c>
       <c r="C26" s="35"/>
-      <c r="D26" s="97"/>
+      <c r="D26" s="98"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
@@ -1650,7 +1650,7 @@
         <v>2236.8000000000002</v>
       </c>
       <c r="C27" s="35"/>
-      <c r="D27" s="97"/>
+      <c r="D27" s="98"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
@@ -1661,7 +1661,7 @@
         <v>600</v>
       </c>
       <c r="C28" s="35"/>
-      <c r="D28" s="97"/>
+      <c r="D28" s="98"/>
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="59" t="s">
@@ -1672,7 +1672,7 @@
         <f>SUM(B26:B28)</f>
         <v>7223.2800000000007</v>
       </c>
-      <c r="D29" s="97"/>
+      <c r="D29" s="98"/>
     </row>
     <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="60" t="s">
@@ -1683,13 +1683,13 @@
         <f>C29/12</f>
         <v>601.94000000000005</v>
       </c>
-      <c r="D30" s="97"/>
+      <c r="D30" s="98"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="20"/>
       <c r="B31" s="10"/>
       <c r="C31" s="25"/>
-      <c r="D31" s="97"/>
+      <c r="D31" s="98"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
@@ -1701,7 +1701,7 @@
       <c r="A33" s="20"/>
       <c r="B33" s="10"/>
       <c r="C33" s="25"/>
-      <c r="D33" s="97" t="s">
+      <c r="D33" s="98" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1711,13 +1711,13 @@
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="25"/>
-      <c r="D34" s="97"/>
+      <c r="D34" s="98"/>
     </row>
     <row r="35" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="53"/>
       <c r="B35" s="10"/>
       <c r="C35" s="25"/>
-      <c r="D35" s="97"/>
+      <c r="D35" s="98"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="76" t="s">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="25"/>
-      <c r="D36" s="97"/>
+      <c r="D36" s="98"/>
     </row>
     <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
@@ -1736,7 +1736,7 @@
         <v>480</v>
       </c>
       <c r="C37" s="35"/>
-      <c r="D37" s="97"/>
+      <c r="D37" s="98"/>
     </row>
     <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="59" t="s">
@@ -1747,13 +1747,13 @@
         <f>SUM(B37:B38)</f>
         <v>480</v>
       </c>
-      <c r="D38" s="97"/>
+      <c r="D38" s="98"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="61"/>
       <c r="B39" s="62"/>
       <c r="C39" s="67"/>
-      <c r="D39" s="97"/>
+      <c r="D39" s="98"/>
     </row>
     <row r="40" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="64"/>
@@ -1765,7 +1765,7 @@
       <c r="A41" s="61"/>
       <c r="B41" s="62"/>
       <c r="C41" s="68"/>
-      <c r="D41" s="97" t="s">
+      <c r="D41" s="98" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="35"/>
-      <c r="D42" s="97"/>
+      <c r="D42" s="98"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
@@ -1785,7 +1785,7 @@
         <v>67.95</v>
       </c>
       <c r="C43" s="35"/>
-      <c r="D43" s="97"/>
+      <c r="D43" s="98"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
@@ -1795,7 +1795,7 @@
         <v>95</v>
       </c>
       <c r="C44" s="35"/>
-      <c r="D44" s="97"/>
+      <c r="D44" s="98"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
@@ -1806,7 +1806,7 @@
         <v>247.5</v>
       </c>
       <c r="C45" s="35"/>
-      <c r="D45" s="97"/>
+      <c r="D45" s="98"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
@@ -1817,7 +1817,7 @@
         <v>317.60000000000002</v>
       </c>
       <c r="C46" s="35"/>
-      <c r="D46" s="97"/>
+      <c r="D46" s="98"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
@@ -1828,7 +1828,7 @@
         <v>324.87</v>
       </c>
       <c r="C47" s="42"/>
-      <c r="D47" s="97"/>
+      <c r="D47" s="98"/>
     </row>
     <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="59" t="s">
@@ -1839,13 +1839,13 @@
         <f>SUM(B43:B47)</f>
         <v>1052.92</v>
       </c>
-      <c r="D48" s="97"/>
+      <c r="D48" s="98"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="20"/>
       <c r="B49" s="10"/>
       <c r="C49" s="25"/>
-      <c r="D49" s="97"/>
+      <c r="D49" s="98"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
@@ -1857,7 +1857,7 @@
       <c r="A51" s="20"/>
       <c r="B51" s="10"/>
       <c r="C51" s="25"/>
-      <c r="D51" s="97" t="s">
+      <c r="D51" s="98" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1867,13 +1867,13 @@
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="25"/>
-      <c r="D52" s="97"/>
+      <c r="D52" s="98"/>
     </row>
     <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="53"/>
       <c r="B53" s="10"/>
       <c r="C53" s="25"/>
-      <c r="D53" s="97"/>
+      <c r="D53" s="98"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="76" t="s">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="35"/>
-      <c r="D54" s="97"/>
+      <c r="D54" s="98"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
@@ -1891,7 +1891,7 @@
         <v>273.39999999999998</v>
       </c>
       <c r="C55" s="41"/>
-      <c r="D55" s="97"/>
+      <c r="D55" s="98"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
@@ -1901,7 +1901,7 @@
         <v>177</v>
       </c>
       <c r="C56" s="41"/>
-      <c r="D56" s="97"/>
+      <c r="D56" s="98"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
@@ -1911,7 +1911,7 @@
         <v>347</v>
       </c>
       <c r="C57" s="41"/>
-      <c r="D57" s="97"/>
+      <c r="D57" s="98"/>
     </row>
     <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="59" t="s">
@@ -1922,13 +1922,13 @@
         <f>SUM(B54:B58)</f>
         <v>797.4</v>
       </c>
-      <c r="D58" s="97"/>
+      <c r="D58" s="98"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="20"/>
       <c r="B59" s="10"/>
       <c r="C59" s="25"/>
-      <c r="D59" s="97"/>
+      <c r="D59" s="98"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
@@ -1940,7 +1940,7 @@
       <c r="A61" s="20"/>
       <c r="B61" s="10"/>
       <c r="C61" s="25"/>
-      <c r="D61" s="97" t="s">
+      <c r="D61" s="98" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1950,13 +1950,13 @@
       </c>
       <c r="B62" s="46"/>
       <c r="C62" s="46"/>
-      <c r="D62" s="97"/>
+      <c r="D62" s="98"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="46"/>
       <c r="B63" s="46"/>
       <c r="C63" s="46"/>
-      <c r="D63" s="97"/>
+      <c r="D63" s="98"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="76" t="s">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="B64" s="21"/>
       <c r="C64" s="35"/>
-      <c r="D64" s="97"/>
+      <c r="D64" s="98"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
@@ -1975,7 +1975,7 @@
         <v>500</v>
       </c>
       <c r="C65" s="35"/>
-      <c r="D65" s="97"/>
+      <c r="D65" s="98"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
@@ -1986,7 +1986,7 @@
         <v>625</v>
       </c>
       <c r="C66" s="35"/>
-      <c r="D66" s="97"/>
+      <c r="D66" s="98"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -1996,7 +1996,7 @@
         <v>300</v>
       </c>
       <c r="C67" s="35"/>
-      <c r="D67" s="97"/>
+      <c r="D67" s="98"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
@@ -2006,18 +2006,18 @@
         <v>1250</v>
       </c>
       <c r="C68" s="35"/>
-      <c r="D68" s="97"/>
+      <c r="D68" s="98"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B69" s="21">
-        <f>375</f>
-        <v>375</v>
+        <f>1000</f>
+        <v>1000</v>
       </c>
       <c r="C69" s="35"/>
-      <c r="D69" s="97"/>
+      <c r="D69" s="98"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
@@ -2027,7 +2027,7 @@
         <v>650</v>
       </c>
       <c r="C70" s="35"/>
-      <c r="D70" s="97"/>
+      <c r="D70" s="98"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
@@ -2037,7 +2037,7 @@
         <v>250</v>
       </c>
       <c r="C71" s="35"/>
-      <c r="D71" s="97"/>
+      <c r="D71" s="98"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
@@ -2047,7 +2047,7 @@
         <v>600</v>
       </c>
       <c r="C72" s="35"/>
-      <c r="D72" s="97"/>
+      <c r="D72" s="98"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
@@ -2057,7 +2057,7 @@
         <v>1200</v>
       </c>
       <c r="C73" s="35"/>
-      <c r="D73" s="97"/>
+      <c r="D73" s="98"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2067,7 +2067,7 @@
         <v>650</v>
       </c>
       <c r="C74" s="35"/>
-      <c r="D74" s="97"/>
+      <c r="D74" s="98"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2077,7 +2077,7 @@
         <v>1500</v>
       </c>
       <c r="C75" s="42"/>
-      <c r="D75" s="97"/>
+      <c r="D75" s="98"/>
     </row>
     <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="59" t="s">
@@ -2086,15 +2086,15 @@
       <c r="B76" s="31"/>
       <c r="C76" s="37">
         <f>SUM(B65:B75)</f>
-        <v>7900</v>
-      </c>
-      <c r="D76" s="97"/>
+        <v>8525</v>
+      </c>
+      <c r="D76" s="98"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="61"/>
       <c r="B77" s="62"/>
       <c r="C77" s="67"/>
-      <c r="D77" s="97"/>
+      <c r="D77" s="98"/>
     </row>
     <row r="78" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="64"/>
@@ -2106,7 +2106,7 @@
       <c r="A79" s="61"/>
       <c r="B79" s="62"/>
       <c r="C79" s="67"/>
-      <c r="D79" s="97" t="s">
+      <c r="D79" s="98" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B80" s="21"/>
       <c r="C80" s="35"/>
-      <c r="D80" s="97"/>
+      <c r="D80" s="98"/>
     </row>
     <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
@@ -2126,7 +2126,7 @@
         <v>350</v>
       </c>
       <c r="C81" s="35"/>
-      <c r="D81" s="97"/>
+      <c r="D81" s="98"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
@@ -2136,7 +2136,7 @@
         <v>250</v>
       </c>
       <c r="C82" s="35"/>
-      <c r="D82" s="97"/>
+      <c r="D82" s="98"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
@@ -2146,7 +2146,7 @@
         <v>200</v>
       </c>
       <c r="C83" s="35"/>
-      <c r="D83" s="97"/>
+      <c r="D83" s="98"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
@@ -2156,7 +2156,7 @@
         <v>550</v>
       </c>
       <c r="C84" s="35"/>
-      <c r="D84" s="97"/>
+      <c r="D84" s="98"/>
     </row>
     <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="59" t="s">
@@ -2167,13 +2167,13 @@
         <f>SUM(B81:B84)</f>
         <v>1350</v>
       </c>
-      <c r="D85" s="97"/>
+      <c r="D85" s="98"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="61"/>
       <c r="B86" s="62"/>
       <c r="C86" s="67"/>
-      <c r="D86" s="97"/>
+      <c r="D86" s="98"/>
     </row>
     <row r="87" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="64"/>
@@ -2185,7 +2185,7 @@
       <c r="A88" s="61"/>
       <c r="B88" s="62"/>
       <c r="C88" s="67"/>
-      <c r="D88" s="97" t="s">
+      <c r="D88" s="98" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="B89" s="21"/>
       <c r="C89" s="35"/>
-      <c r="D89" s="97"/>
+      <c r="D89" s="98"/>
     </row>
     <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
@@ -2205,7 +2205,7 @@
         <v>544.99</v>
       </c>
       <c r="C90" s="35"/>
-      <c r="D90" s="97"/>
+      <c r="D90" s="98"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
@@ -2215,7 +2215,7 @@
         <v>1100</v>
       </c>
       <c r="C91" s="35"/>
-      <c r="D91" s="97"/>
+      <c r="D91" s="98"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
@@ -2225,7 +2225,7 @@
         <v>800</v>
       </c>
       <c r="C92" s="35"/>
-      <c r="D92" s="97"/>
+      <c r="D92" s="98"/>
     </row>
     <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="59" t="s">
@@ -2236,13 +2236,13 @@
         <f>SUM(B90:B92)</f>
         <v>2444.9899999999998</v>
       </c>
-      <c r="D93" s="97"/>
+      <c r="D93" s="98"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="20"/>
       <c r="B94" s="10"/>
       <c r="C94" s="25"/>
-      <c r="D94" s="97"/>
+      <c r="D94" s="98"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
@@ -2254,7 +2254,7 @@
       <c r="A96" s="20"/>
       <c r="B96" s="10"/>
       <c r="C96" s="32"/>
-      <c r="D96" s="97"/>
+      <c r="D96" s="98"/>
     </row>
     <row r="97" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A97" s="69" t="s">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="25"/>
-      <c r="D97" s="97"/>
+      <c r="D97" s="98"/>
     </row>
     <row r="98" spans="1:4" s="45" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="70"/>
@@ -2274,7 +2274,7 @@
       <c r="A99" s="20"/>
       <c r="B99" s="10"/>
       <c r="C99" s="25"/>
-      <c r="D99" s="97"/>
+      <c r="D99" s="98"/>
     </row>
     <row r="100" spans="1:4" ht="36" x14ac:dyDescent="0.2">
       <c r="A100" s="53" t="s">
@@ -2285,13 +2285,13 @@
         <f>C11+C20+C29</f>
         <v>21785.279999999999</v>
       </c>
-      <c r="D100" s="97"/>
+      <c r="D100" s="98"/>
     </row>
     <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="20"/>
       <c r="B101" s="10"/>
       <c r="C101" s="32"/>
-      <c r="D101" s="97"/>
+      <c r="D101" s="98"/>
     </row>
     <row r="102" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="53" t="s">
@@ -2302,13 +2302,13 @@
         <f>C38+C48</f>
         <v>1532.92</v>
       </c>
-      <c r="D102" s="97"/>
+      <c r="D102" s="98"/>
     </row>
     <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="20"/>
       <c r="B103" s="10"/>
       <c r="C103" s="32"/>
-      <c r="D103" s="97"/>
+      <c r="D103" s="98"/>
     </row>
     <row r="104" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A104" s="53" t="s">
@@ -2319,13 +2319,13 @@
         <f>C58</f>
         <v>797.4</v>
       </c>
-      <c r="D104" s="97"/>
+      <c r="D104" s="98"/>
     </row>
     <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="20"/>
       <c r="B105" s="10"/>
       <c r="C105" s="32"/>
-      <c r="D105" s="97"/>
+      <c r="D105" s="98"/>
     </row>
     <row r="106" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A106" s="53" t="s">
@@ -2334,15 +2334,15 @@
       <c r="B106" s="10"/>
       <c r="C106" s="32">
         <f>C76+C85+C93</f>
-        <v>11694.99</v>
-      </c>
-      <c r="D106" s="97"/>
+        <v>12319.99</v>
+      </c>
+      <c r="D106" s="98"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="20"/>
       <c r="B107" s="10"/>
       <c r="C107" s="25"/>
-      <c r="D107" s="97"/>
+      <c r="D107" s="98"/>
     </row>
     <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A108" s="73" t="s">
@@ -2351,9 +2351,9 @@
       <c r="B108" s="33"/>
       <c r="C108" s="75">
         <f>C100+C102+C104+C106</f>
-        <v>35810.589999999997</v>
-      </c>
-      <c r="D108" s="97"/>
+        <v>36435.589999999997</v>
+      </c>
+      <c r="D108" s="98"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="45"/>
@@ -2606,11 +2606,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2634,11 +2634,11 @@
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>

--- a/Business/Finance/Budgets, Packets and Templates/Budgets/2019-2020/Budgets 2019-2020.xlsx
+++ b/Business/Finance/Budgets, Packets and Templates/Budgets/2019-2020/Budgets 2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2023a\Desktop\UNHSEDS\Business\Finance\Budgets, Packets and Templates\Budgets\2019-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3951FD-E51A-4D3A-BA1C-181D9661B39C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21447EBD-3A6F-4872-83DB-36696E699403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
   <si>
     <t>Total Membership Expenses</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t xml:space="preserve">Stainless Steel Nozzle </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inconel Nozzle </t>
   </si>
   <si>
     <t>Combustion Chamber and Injector</t>
@@ -968,14 +965,14 @@
     <xf numFmtId="164" fontId="7" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1390,11 +1387,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W133"/>
+  <dimension ref="A1:W132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D99" sqref="D99:D108"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1409,11 +1406,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
       <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1430,8 +1427,8 @@
       <c r="C3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="100" t="s">
-        <v>55</v>
+      <c r="D3" s="99" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.2">
@@ -1440,32 +1437,32 @@
       </c>
       <c r="B4" s="54"/>
       <c r="C4" s="55"/>
-      <c r="D4" s="100"/>
+      <c r="D4" s="99"/>
     </row>
     <row r="5" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="56"/>
       <c r="B5" s="54"/>
       <c r="C5" s="57"/>
-      <c r="D5" s="100"/>
+      <c r="D5" s="99"/>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="58"/>
-      <c r="D6" s="100"/>
+      <c r="D6" s="99"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="34">
         <f>421.6*20</f>
         <v>8432</v>
       </c>
       <c r="C7" s="39"/>
-      <c r="D7" s="100"/>
+      <c r="D7" s="99"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -1476,18 +1473,18 @@
         <v>2175</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="100"/>
+      <c r="D8" s="99"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="16">
         <f>(6*10*20)+(5*10*3)</f>
         <v>1350</v>
       </c>
       <c r="C9" s="97"/>
-      <c r="D9" s="100"/>
+      <c r="D9" s="99"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -1498,7 +1495,7 @@
         <v>1795</v>
       </c>
       <c r="C10" s="36"/>
-      <c r="D10" s="100"/>
+      <c r="D10" s="99"/>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
@@ -1509,7 +1506,7 @@
         <f>SUM(B7:B10)</f>
         <v>13752</v>
       </c>
-      <c r="D11" s="100"/>
+      <c r="D11" s="99"/>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="s">
@@ -1520,13 +1517,13 @@
         <f>C11/20</f>
         <v>687.6</v>
       </c>
-      <c r="D12" s="100"/>
+      <c r="D12" s="99"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="61"/>
       <c r="B13" s="62"/>
       <c r="C13" s="63"/>
-      <c r="D13" s="100"/>
+      <c r="D13" s="99"/>
     </row>
     <row r="14" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="64"/>
@@ -1538,17 +1535,17 @@
       <c r="A15" s="61"/>
       <c r="B15" s="62"/>
       <c r="C15" s="67"/>
-      <c r="D15" s="99" t="s">
-        <v>58</v>
+      <c r="D15" s="98" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="99"/>
+      <c r="D16" s="98"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
@@ -1558,7 +1555,7 @@
         <v>200</v>
       </c>
       <c r="C17" s="35"/>
-      <c r="D17" s="99"/>
+      <c r="D17" s="98"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
@@ -1568,7 +1565,7 @@
         <v>300</v>
       </c>
       <c r="C18" s="35"/>
-      <c r="D18" s="99"/>
+      <c r="D18" s="98"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
@@ -1578,7 +1575,7 @@
         <v>310</v>
       </c>
       <c r="C19" s="35"/>
-      <c r="D19" s="99"/>
+      <c r="D19" s="98"/>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="59" t="s">
@@ -1589,7 +1586,7 @@
         <f>SUM(B17:B19)</f>
         <v>810</v>
       </c>
-      <c r="D20" s="99"/>
+      <c r="D20" s="98"/>
     </row>
     <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="60" t="s">
@@ -1600,13 +1597,13 @@
         <f>C20/3</f>
         <v>270</v>
       </c>
-      <c r="D21" s="99"/>
+      <c r="D21" s="98"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="26"/>
-      <c r="D22" s="99"/>
+      <c r="D22" s="98"/>
     </row>
     <row r="23" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="64"/>
@@ -1618,17 +1615,17 @@
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="40"/>
-      <c r="D24" s="99" t="s">
-        <v>59</v>
+      <c r="D24" s="98" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="25"/>
-      <c r="D25" s="99"/>
+      <c r="D25" s="98"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
@@ -1639,7 +1636,7 @@
         <v>4386.4800000000005</v>
       </c>
       <c r="C26" s="35"/>
-      <c r="D26" s="99"/>
+      <c r="D26" s="98"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
@@ -1650,7 +1647,7 @@
         <v>2236.8000000000002</v>
       </c>
       <c r="C27" s="35"/>
-      <c r="D27" s="99"/>
+      <c r="D27" s="98"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
@@ -1661,7 +1658,7 @@
         <v>600</v>
       </c>
       <c r="C28" s="35"/>
-      <c r="D28" s="99"/>
+      <c r="D28" s="98"/>
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="59" t="s">
@@ -1672,7 +1669,7 @@
         <f>SUM(B26:B28)</f>
         <v>7223.2800000000007</v>
       </c>
-      <c r="D29" s="99"/>
+      <c r="D29" s="98"/>
     </row>
     <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="60" t="s">
@@ -1683,13 +1680,13 @@
         <f>C29/12</f>
         <v>601.94000000000005</v>
       </c>
-      <c r="D30" s="99"/>
+      <c r="D30" s="98"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="20"/>
       <c r="B31" s="10"/>
       <c r="C31" s="25"/>
-      <c r="D31" s="99"/>
+      <c r="D31" s="98"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
@@ -1701,8 +1698,8 @@
       <c r="A33" s="20"/>
       <c r="B33" s="10"/>
       <c r="C33" s="25"/>
-      <c r="D33" s="99" t="s">
-        <v>60</v>
+      <c r="D33" s="98" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -1711,13 +1708,13 @@
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="25"/>
-      <c r="D34" s="99"/>
+      <c r="D34" s="98"/>
     </row>
     <row r="35" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="53"/>
       <c r="B35" s="10"/>
       <c r="C35" s="25"/>
-      <c r="D35" s="99"/>
+      <c r="D35" s="98"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="76" t="s">
@@ -1725,7 +1722,7 @@
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="25"/>
-      <c r="D36" s="99"/>
+      <c r="D36" s="98"/>
     </row>
     <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
@@ -1736,7 +1733,7 @@
         <v>480</v>
       </c>
       <c r="C37" s="35"/>
-      <c r="D37" s="99"/>
+      <c r="D37" s="98"/>
     </row>
     <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="59" t="s">
@@ -1747,13 +1744,13 @@
         <f>SUM(B37:B38)</f>
         <v>480</v>
       </c>
-      <c r="D38" s="99"/>
+      <c r="D38" s="98"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="61"/>
       <c r="B39" s="62"/>
       <c r="C39" s="67"/>
-      <c r="D39" s="99"/>
+      <c r="D39" s="98"/>
     </row>
     <row r="40" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="64"/>
@@ -1765,17 +1762,17 @@
       <c r="A41" s="61"/>
       <c r="B41" s="62"/>
       <c r="C41" s="68"/>
-      <c r="D41" s="99" t="s">
-        <v>61</v>
+      <c r="D41" s="98" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="35"/>
-      <c r="D42" s="99"/>
+      <c r="D42" s="98"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
@@ -1785,7 +1782,7 @@
         <v>67.95</v>
       </c>
       <c r="C43" s="35"/>
-      <c r="D43" s="99"/>
+      <c r="D43" s="98"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
@@ -1795,7 +1792,7 @@
         <v>95</v>
       </c>
       <c r="C44" s="35"/>
-      <c r="D44" s="99"/>
+      <c r="D44" s="98"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
@@ -1806,7 +1803,7 @@
         <v>247.5</v>
       </c>
       <c r="C45" s="35"/>
-      <c r="D45" s="99"/>
+      <c r="D45" s="98"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
@@ -1817,7 +1814,7 @@
         <v>317.60000000000002</v>
       </c>
       <c r="C46" s="35"/>
-      <c r="D46" s="99"/>
+      <c r="D46" s="98"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
@@ -1828,7 +1825,7 @@
         <v>324.87</v>
       </c>
       <c r="C47" s="42"/>
-      <c r="D47" s="99"/>
+      <c r="D47" s="98"/>
     </row>
     <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="59" t="s">
@@ -1839,13 +1836,13 @@
         <f>SUM(B43:B47)</f>
         <v>1052.92</v>
       </c>
-      <c r="D48" s="99"/>
+      <c r="D48" s="98"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="20"/>
       <c r="B49" s="10"/>
       <c r="C49" s="25"/>
-      <c r="D49" s="99"/>
+      <c r="D49" s="98"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
@@ -1857,8 +1854,8 @@
       <c r="A51" s="20"/>
       <c r="B51" s="10"/>
       <c r="C51" s="25"/>
-      <c r="D51" s="99" t="s">
-        <v>62</v>
+      <c r="D51" s="98" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -1867,13 +1864,13 @@
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="25"/>
-      <c r="D52" s="99"/>
+      <c r="D52" s="98"/>
     </row>
     <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="53"/>
       <c r="B53" s="10"/>
       <c r="C53" s="25"/>
-      <c r="D53" s="99"/>
+      <c r="D53" s="98"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="76" t="s">
@@ -1881,7 +1878,7 @@
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="35"/>
-      <c r="D54" s="99"/>
+      <c r="D54" s="98"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
@@ -1891,7 +1888,7 @@
         <v>273.39999999999998</v>
       </c>
       <c r="C55" s="41"/>
-      <c r="D55" s="99"/>
+      <c r="D55" s="98"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
@@ -1901,7 +1898,7 @@
         <v>177</v>
       </c>
       <c r="C56" s="41"/>
-      <c r="D56" s="99"/>
+      <c r="D56" s="98"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
@@ -1911,7 +1908,7 @@
         <v>347</v>
       </c>
       <c r="C57" s="41"/>
-      <c r="D57" s="99"/>
+      <c r="D57" s="98"/>
     </row>
     <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="59" t="s">
@@ -1922,13 +1919,13 @@
         <f>SUM(B54:B58)</f>
         <v>797.4</v>
       </c>
-      <c r="D58" s="99"/>
+      <c r="D58" s="98"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="20"/>
       <c r="B59" s="10"/>
       <c r="C59" s="25"/>
-      <c r="D59" s="99"/>
+      <c r="D59" s="98"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
@@ -1940,8 +1937,8 @@
       <c r="A61" s="20"/>
       <c r="B61" s="10"/>
       <c r="C61" s="25"/>
-      <c r="D61" s="99" t="s">
-        <v>63</v>
+      <c r="D61" s="98" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -1950,13 +1947,13 @@
       </c>
       <c r="B62" s="46"/>
       <c r="C62" s="46"/>
-      <c r="D62" s="99"/>
+      <c r="D62" s="98"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="46"/>
       <c r="B63" s="46"/>
       <c r="C63" s="46"/>
-      <c r="D63" s="99"/>
+      <c r="D63" s="98"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="76" t="s">
@@ -1964,7 +1961,7 @@
       </c>
       <c r="B64" s="21"/>
       <c r="C64" s="35"/>
-      <c r="D64" s="99"/>
+      <c r="D64" s="98"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
@@ -1975,18 +1972,18 @@
         <v>500</v>
       </c>
       <c r="C65" s="35"/>
-      <c r="D65" s="99"/>
+      <c r="D65" s="98"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B66" s="21">
-        <f>625</f>
-        <v>625</v>
+        <f>750</f>
+        <v>750</v>
       </c>
       <c r="C66" s="35"/>
-      <c r="D66" s="99"/>
+      <c r="D66" s="98"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -1996,7 +1993,7 @@
         <v>300</v>
       </c>
       <c r="C67" s="35"/>
-      <c r="D67" s="99"/>
+      <c r="D67" s="98"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
@@ -2006,17 +2003,17 @@
         <v>1250</v>
       </c>
       <c r="C68" s="35"/>
-      <c r="D68" s="99"/>
+      <c r="D68" s="98"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B69" s="21">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="C69" s="35"/>
-      <c r="D69" s="99"/>
+      <c r="D69" s="98"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
@@ -2026,7 +2023,7 @@
         <v>650</v>
       </c>
       <c r="C70" s="35"/>
-      <c r="D70" s="99"/>
+      <c r="D70" s="98"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
@@ -2036,7 +2033,7 @@
         <v>250</v>
       </c>
       <c r="C71" s="35"/>
-      <c r="D71" s="99"/>
+      <c r="D71" s="98"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
@@ -2046,458 +2043,458 @@
         <v>600</v>
       </c>
       <c r="C72" s="35"/>
-      <c r="D72" s="99"/>
+      <c r="D72" s="98"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B73" s="21">
-        <v>1200</v>
+        <v>650</v>
       </c>
       <c r="C73" s="35"/>
-      <c r="D73" s="99"/>
+      <c r="D73" s="98"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B74" s="21">
-        <v>650</v>
-      </c>
-      <c r="C74" s="35"/>
-      <c r="D74" s="99"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B75" s="30">
+      <c r="B74" s="30">
         <v>1500</v>
       </c>
-      <c r="C75" s="42"/>
-      <c r="D75" s="99"/>
-    </row>
-    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="59" t="s">
+      <c r="C74" s="42"/>
+      <c r="D74" s="98"/>
+    </row>
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B76" s="31"/>
-      <c r="C76" s="37">
-        <f>SUM(B65:B75)</f>
-        <v>8725</v>
-      </c>
-      <c r="D76" s="99"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="61"/>
-      <c r="B77" s="62"/>
-      <c r="C77" s="67"/>
-      <c r="D77" s="99"/>
-    </row>
-    <row r="78" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="64"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="66"/>
-      <c r="D78" s="77"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="37">
+        <f>SUM(B65:B74)</f>
+        <v>7550</v>
+      </c>
+      <c r="D75" s="98"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="61"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="67"/>
+      <c r="D76" s="98"/>
+    </row>
+    <row r="77" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="64"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="77"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="61"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="98" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="61"/>
-      <c r="B79" s="62"/>
-      <c r="C79" s="67"/>
-      <c r="D79" s="99" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="76" t="s">
+      <c r="A79" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="B80" s="21"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="98"/>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="21">
+        <v>350</v>
+      </c>
       <c r="C80" s="35"/>
-      <c r="D80" s="99"/>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D80" s="98"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B81" s="21">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="C81" s="35"/>
-      <c r="D81" s="99"/>
+      <c r="D81" s="98"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B82" s="21">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C82" s="35"/>
-      <c r="D82" s="99"/>
+      <c r="D82" s="98"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B83" s="21">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="C83" s="35"/>
-      <c r="D83" s="99"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B84" s="21">
-        <v>550</v>
-      </c>
-      <c r="C84" s="35"/>
-      <c r="D84" s="99"/>
-    </row>
-    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="59" t="s">
+      <c r="D83" s="98"/>
+    </row>
+    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B85" s="31"/>
-      <c r="C85" s="37">
-        <f>SUM(B81:B84)</f>
+      <c r="B84" s="31"/>
+      <c r="C84" s="37">
+        <f>SUM(B80:B83)</f>
         <v>1350</v>
       </c>
-      <c r="D85" s="99"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="61"/>
-      <c r="B86" s="62"/>
-      <c r="C86" s="67"/>
-      <c r="D86" s="99"/>
-    </row>
-    <row r="87" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="64"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="66"/>
-      <c r="D87" s="77"/>
+      <c r="D84" s="98"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="61"/>
+      <c r="B85" s="62"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="98"/>
+    </row>
+    <row r="86" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="64"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="66"/>
+      <c r="D86" s="77"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="61"/>
+      <c r="B87" s="62"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="98" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="61"/>
-      <c r="B88" s="62"/>
-      <c r="C88" s="67"/>
-      <c r="D88" s="99" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="76" t="s">
+      <c r="A88" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B89" s="21"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="98"/>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89" s="21">
+        <v>544.99</v>
+      </c>
       <c r="C89" s="35"/>
-      <c r="D89" s="99"/>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D89" s="98"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B90" s="21">
-        <v>544.99</v>
+        <v>1100</v>
       </c>
       <c r="C90" s="35"/>
-      <c r="D90" s="99"/>
+      <c r="D90" s="98"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B91" s="21">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="C91" s="35"/>
-      <c r="D91" s="99"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B92" s="21">
-        <v>800</v>
-      </c>
-      <c r="C92" s="35"/>
-      <c r="D92" s="99"/>
-    </row>
-    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="59" t="s">
+      <c r="D91" s="98"/>
+    </row>
+    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B93" s="31"/>
-      <c r="C93" s="37">
-        <f>SUM(B90:B92)</f>
+      <c r="B92" s="31"/>
+      <c r="C92" s="37">
+        <f>SUM(B89:B91)</f>
         <v>2444.9899999999998</v>
       </c>
-      <c r="D93" s="99"/>
+      <c r="D92" s="98"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="20"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="98"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="20"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="99"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="27"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="78"/>
-    </row>
-    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96" s="20"/>
+      <c r="A94" s="27"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="78"/>
+    </row>
+    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A95" s="20"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="98"/>
+    </row>
+    <row r="96" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A96" s="69" t="s">
+        <v>53</v>
+      </c>
       <c r="B96" s="10"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="99"/>
-    </row>
-    <row r="97" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A97" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="B97" s="10"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="99"/>
-    </row>
-    <row r="98" spans="1:4" s="45" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="70"/>
-      <c r="B98" s="71"/>
-      <c r="C98" s="72"/>
-      <c r="D98" s="79"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="20"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="98"/>
+    </row>
+    <row r="97" spans="1:4" s="45" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="70"/>
+      <c r="B97" s="71"/>
+      <c r="C97" s="72"/>
+      <c r="D97" s="79"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="20"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="98"/>
+    </row>
+    <row r="99" spans="1:4" ht="36" x14ac:dyDescent="0.2">
+      <c r="A99" s="53" t="s">
+        <v>13</v>
+      </c>
       <c r="B99" s="10"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="99"/>
-    </row>
-    <row r="100" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A100" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B100" s="10"/>
-      <c r="C100" s="32">
+      <c r="C99" s="32">
         <f>C11+C20+C29</f>
         <v>21785.279999999999</v>
       </c>
-      <c r="D100" s="99"/>
-    </row>
-    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A101" s="20"/>
+      <c r="D99" s="98"/>
+    </row>
+    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A100" s="20"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="98"/>
+    </row>
+    <row r="101" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A101" s="53" t="s">
+        <v>19</v>
+      </c>
       <c r="B101" s="10"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="99"/>
-    </row>
-    <row r="102" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A102" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="32">
+      <c r="C101" s="32">
         <f>C38+C48</f>
         <v>1532.92</v>
       </c>
-      <c r="D102" s="99"/>
-    </row>
-    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A103" s="20"/>
+      <c r="D101" s="98"/>
+    </row>
+    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A102" s="20"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="98"/>
+    </row>
+    <row r="103" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A103" s="53" t="s">
+        <v>11</v>
+      </c>
       <c r="B103" s="10"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="99"/>
-    </row>
-    <row r="104" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A104" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B104" s="10"/>
-      <c r="C104" s="32">
+      <c r="C103" s="32">
         <f>C58</f>
         <v>797.4</v>
       </c>
-      <c r="D104" s="99"/>
-    </row>
-    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A105" s="20"/>
+      <c r="D103" s="98"/>
+    </row>
+    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A104" s="20"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="98"/>
+    </row>
+    <row r="105" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A105" s="53" t="s">
+        <v>10</v>
+      </c>
       <c r="B105" s="10"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="99"/>
-    </row>
-    <row r="106" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A106" s="53" t="s">
-        <v>10</v>
-      </c>
+      <c r="C105" s="32">
+        <f>C75+C84+C92</f>
+        <v>11344.99</v>
+      </c>
+      <c r="D105" s="98"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="20"/>
       <c r="B106" s="10"/>
-      <c r="C106" s="32">
-        <f>C76+C85+C93</f>
-        <v>12519.99</v>
-      </c>
-      <c r="D106" s="99"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="20"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="99"/>
-    </row>
-    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A108" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="B108" s="33"/>
-      <c r="C108" s="75">
-        <f>C100+C102+C104+C106</f>
-        <v>36635.589999999997</v>
-      </c>
-      <c r="D108" s="99"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="45"/>
-      <c r="B109" s="45"/>
-      <c r="C109" s="45"/>
-    </row>
-    <row r="110" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="87" t="s">
+      <c r="C106" s="25"/>
+      <c r="D106" s="98"/>
+    </row>
+    <row r="107" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A107" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B107" s="33"/>
+      <c r="C107" s="75">
+        <f>C99+C101+C103+C105</f>
+        <v>35460.589999999997</v>
+      </c>
+      <c r="D107" s="98"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="45"/>
+      <c r="B108" s="45"/>
+      <c r="C108" s="45"/>
+    </row>
+    <row r="109" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="B109" s="80"/>
+      <c r="C109" s="80"/>
+      <c r="D109" s="80"/>
+    </row>
+    <row r="110" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="64"/>
+      <c r="B110" s="65"/>
+      <c r="C110" s="84"/>
+      <c r="D110" s="85"/>
+    </row>
+    <row r="111" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A111" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B111" s="86"/>
+      <c r="C111" s="80"/>
+      <c r="D111" s="80"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="B110" s="80"/>
-      <c r="C110" s="80"/>
-      <c r="D110" s="80"/>
-    </row>
-    <row r="111" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="64"/>
-      <c r="B111" s="65"/>
-      <c r="C111" s="84"/>
-      <c r="D111" s="85"/>
-    </row>
-    <row r="112" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A112" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="B112" s="86"/>
+      <c r="B112" s="96">
+        <v>200</v>
+      </c>
       <c r="C112" s="80"/>
       <c r="D112" s="80"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="88" t="s">
+      <c r="A113" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B113" s="96">
-        <v>200</v>
-      </c>
+      <c r="B113" s="86"/>
       <c r="C113" s="80"/>
       <c r="D113" s="80"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="89" t="s">
+    <row r="114" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="B114" s="86"/>
+      <c r="B114" s="91" t="s">
+        <v>77</v>
+      </c>
       <c r="C114" s="80"/>
       <c r="D114" s="80"/>
     </row>
-    <row r="115" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="90" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="B115" s="91" t="s">
-        <v>78</v>
-      </c>
+      <c r="B115" s="86"/>
       <c r="C115" s="80"/>
       <c r="D115" s="80"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="89" t="s">
+      <c r="A116" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="B116" s="86"/>
+      <c r="B116" s="91" t="s">
+        <v>77</v>
+      </c>
       <c r="C116" s="80"/>
       <c r="D116" s="80"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="90" t="s">
+      <c r="A117" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="B117" s="91" t="s">
-        <v>78</v>
-      </c>
+      <c r="B117" s="86"/>
       <c r="C117" s="80"/>
       <c r="D117" s="80"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="89" t="s">
+      <c r="A118" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="B118" s="86"/>
+      <c r="B118" s="91" t="s">
+        <v>77</v>
+      </c>
       <c r="C118" s="80"/>
       <c r="D118" s="80"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="90" t="s">
+      <c r="A119" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="B119" s="91" t="s">
-        <v>78</v>
+      <c r="B119" s="96">
+        <v>250</v>
       </c>
       <c r="C119" s="80"/>
       <c r="D119" s="80"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="B120" s="96">
-        <v>250</v>
-      </c>
+      <c r="A120" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="B120" s="80"/>
       <c r="C120" s="80"/>
       <c r="D120" s="80"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="93" t="s">
-        <v>79</v>
-      </c>
-      <c r="B121" s="80"/>
+      <c r="A121" s="80"/>
+      <c r="B121" s="92" t="s">
+        <v>77</v>
+      </c>
       <c r="C121" s="80"/>
       <c r="D121" s="80"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="80"/>
-      <c r="B122" s="92" t="s">
-        <v>78</v>
-      </c>
-      <c r="C122" s="80"/>
+    <row r="122" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B122" s="92"/>
+      <c r="C122" s="59" t="s">
+        <v>85</v>
+      </c>
       <c r="D122" s="80"/>
     </row>
     <row r="123" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="59" t="s">
-        <v>85</v>
-      </c>
+      <c r="A123" s="80"/>
       <c r="B123" s="92"/>
-      <c r="C123" s="59" t="s">
-        <v>86</v>
-      </c>
+      <c r="C123" s="80"/>
       <c r="D123" s="80"/>
     </row>
     <row r="124" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="80"/>
-      <c r="B124" s="92"/>
-      <c r="C124" s="80"/>
-      <c r="D124" s="80"/>
-    </row>
-    <row r="125" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="85"/>
-      <c r="B125" s="85"/>
-      <c r="C125" s="85"/>
-      <c r="D125" s="85"/>
-    </row>
-    <row r="126" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="53" t="s">
+      <c r="A124" s="85"/>
+      <c r="B124" s="85"/>
+      <c r="C124" s="85"/>
+      <c r="D124" s="85"/>
+    </row>
+    <row r="125" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B125" s="80"/>
+      <c r="C125" s="80"/>
+      <c r="D125" s="80"/>
+    </row>
+    <row r="126" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A126" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="B126" s="80"/>
+      <c r="B126" s="82">
+        <v>3500</v>
+      </c>
       <c r="C126" s="80"/>
       <c r="D126" s="80"/>
     </row>
@@ -2506,7 +2503,7 @@
         <v>81</v>
       </c>
       <c r="B127" s="82">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="C127" s="80"/>
       <c r="D127" s="80"/>
@@ -2516,7 +2513,7 @@
         <v>82</v>
       </c>
       <c r="B128" s="82">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="C128" s="80"/>
       <c r="D128" s="80"/>
@@ -2526,58 +2523,48 @@
         <v>83</v>
       </c>
       <c r="B129" s="82">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="C129" s="80"/>
       <c r="D129" s="80"/>
     </row>
-    <row r="130" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="94" t="s">
-        <v>84</v>
-      </c>
-      <c r="B130" s="82">
-        <v>150</v>
-      </c>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="80"/>
+      <c r="B130" s="80"/>
       <c r="C130" s="80"/>
       <c r="D130" s="80"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="80"/>
-      <c r="B131" s="80"/>
-      <c r="C131" s="80"/>
+    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A131" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B131" s="86"/>
+      <c r="C131" s="95">
+        <f>SUM(B126,B127,B128,B129)</f>
+        <v>6050</v>
+      </c>
       <c r="D131" s="80"/>
     </row>
-    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A132" s="59" t="s">
-        <v>87</v>
-      </c>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="81"/>
       <c r="B132" s="86"/>
-      <c r="C132" s="95">
-        <f>SUM(B127,B128,B129,B130)</f>
-        <v>6050</v>
-      </c>
+      <c r="C132" s="83"/>
       <c r="D132" s="80"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="81"/>
-      <c r="B133" s="86"/>
-      <c r="C133" s="83"/>
-      <c r="D133" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D99:D108"/>
-    <mergeCell ref="D3:D13"/>
-    <mergeCell ref="D41:D49"/>
-    <mergeCell ref="D51:D59"/>
-    <mergeCell ref="D61:D77"/>
-    <mergeCell ref="D79:D86"/>
-    <mergeCell ref="D88:D94"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D15:D22"/>
     <mergeCell ref="D24:D31"/>
     <mergeCell ref="D33:D39"/>
-    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="D98:D107"/>
+    <mergeCell ref="D3:D13"/>
+    <mergeCell ref="D41:D49"/>
+    <mergeCell ref="D51:D59"/>
+    <mergeCell ref="D61:D76"/>
+    <mergeCell ref="D78:D85"/>
+    <mergeCell ref="D87:D93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Business/Finance/Budgets, Packets and Templates/Budgets/2019-2020/Budgets 2019-2020.xlsx
+++ b/Business/Finance/Budgets, Packets and Templates/Budgets/2019-2020/Budgets 2019-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\UNHSEDS\Business\Finance\Budgets, Packets and Templates\Budgets\2019-2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\UNHSEDS\Business\Finance\Budgets, Packets and Templates\Budgets\2019-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43C3EFB-1034-4D07-9D90-997448FCCE11}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2815201-1970-47E2-8766-33F87B0A0398}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-2020" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Total Membership Expenses</t>
   </si>
@@ -58,108 +60,27 @@
     <t>SEDS-Sponsored and Planned Conference</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Engineering</t>
   </si>
   <si>
-    <t>Outreach</t>
-  </si>
-  <si>
-    <t>UNH SEDS 2019-2020 Budget - Full</t>
-  </si>
-  <si>
-    <t>Conferences and Competitions</t>
-  </si>
-  <si>
-    <t>Admission to the Conference</t>
-  </si>
-  <si>
-    <t>Hotel Housing (6 Nights)</t>
-  </si>
-  <si>
-    <t>General Travel (Car)</t>
-  </si>
-  <si>
-    <t>Hotel Housing (4 Nights)</t>
-  </si>
-  <si>
-    <t>Admission into the Competition</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>Consumables</t>
-  </si>
-  <si>
-    <t>Food and Drink (Introductory Meetings and Events)</t>
-  </si>
-  <si>
-    <t>Pens (500)</t>
-  </si>
-  <si>
-    <t>Stickers (500 Assorted)</t>
-  </si>
-  <si>
     <t>Member T-Shirts (15)</t>
   </si>
   <si>
     <t>Member Sweatshirts (10)</t>
   </si>
   <si>
-    <t>Graduating Seniors SEDS Stoles (13)</t>
-  </si>
-  <si>
     <t>Total Club Expenses</t>
   </si>
   <si>
-    <t>Model Rocket Program (5 Schools)</t>
-  </si>
-  <si>
-    <t>Kid-Friendly Ground Equipment</t>
-  </si>
-  <si>
-    <t>Engine Consumable</t>
-  </si>
-  <si>
-    <t>Rocket Consumables</t>
-  </si>
-  <si>
     <t>UNH Hybrid Rocket</t>
   </si>
   <si>
-    <t>Thrust Vectoring</t>
-  </si>
-  <si>
     <t>Hot-Fire Safety Structures</t>
   </si>
   <si>
-    <t>Trailer Frame</t>
-  </si>
-  <si>
     <t>Structure Material</t>
   </si>
   <si>
-    <t>Supporting Equipment (Media/Control)</t>
-  </si>
-  <si>
-    <t>Suporting Quadcopter Equipment</t>
-  </si>
-  <si>
-    <t>Test Rocket Materials</t>
-  </si>
-  <si>
-    <t>Consumable Engines</t>
-  </si>
-  <si>
-    <t>TVC Electronics and Hardware</t>
-  </si>
-  <si>
     <t>Electronic Navigation Components</t>
   </si>
   <si>
@@ -184,9 +105,6 @@
     <t xml:space="preserve">Stainless Steel Nozzle </t>
   </si>
   <si>
-    <t xml:space="preserve">Inconel Nozzle </t>
-  </si>
-  <si>
     <t>Combustion Chamber and Injector</t>
   </si>
   <si>
@@ -199,51 +117,12 @@
     <t>Budget Totals</t>
   </si>
   <si>
-    <t>The 2019 SpaceVision conference is hosted by the SEDS-ASU chapter. This conference brings together all of the nationwide SEDS chapters and all people who have a shared passion for space. In 2018, 16 of UNH SEDS's members travelled to San Deigo out of their own pocket to experience this amazing conference.</t>
-  </si>
-  <si>
-    <t>Spaceport America Cup Competition                 (Washington,DC) (12 Members)</t>
-  </si>
-  <si>
-    <t>SpaceVision Networking Event                 (Tempe, AZ) (20 Members)</t>
-  </si>
-  <si>
-    <t>The Inernational Astronautical Congress (IAC) is the biggest space conference in the world, this year hosted in Washington, DC. Students who go can not speak more highly of it as the connections they make are very career-changing.</t>
-  </si>
-  <si>
-    <t>This is the competition that we will be participating in this year within the hybrid engine category. The possiblity of winning will lead to huge publicity onto UNH and the accelerating rocket team that is growing here.</t>
-  </si>
-  <si>
-    <t>It is important to entice new students to come to introductory meetings, and pizza helps a lot! We have been paying out of pocket for 2 years as we usually couldn't spare the funds coming fron our engineering goals</t>
-  </si>
-  <si>
-    <t>Team swag is important, and helps a great deal to unify the team, and provide a lasting affect on our graduates. Pens and stickers help a great deal to get our club heard and seen throughout the college and university.</t>
-  </si>
-  <si>
-    <t>We have been in contact with 3 schools thus far to teach students the fundamentals of model rocketry, and the growing space industry they can join later in their studies. These funds will enable us to prepare an activity to affect our community in exploring paths that might be their passion.</t>
-  </si>
-  <si>
     <t>This is our primary engineering goal which will incoroporate every member of the organization. Most of our funds are for raw material, as we have many connections within industry (close and far away!) that want to support us with machining time that we simply don't have access to within the school.</t>
   </si>
   <si>
-    <t>This is a side-project that will have the participation by several seniors in ME, EE and CS that will allow us to narrow in on a thrust vectoring system to one day integrate into our hybrid engine rocket.</t>
-  </si>
-  <si>
-    <t>Safety comes first, and we are in need of a professional, presentable and secure location to control and maintain our hot-fire tests. This will have the pure dedication of 2 civil engineers with the support of the team</t>
-  </si>
-  <si>
-    <t>IAC Networking Event                 (Washington,DC) (2 Members)</t>
-  </si>
-  <si>
     <t>UNH SEDS Swag (Apparel)</t>
   </si>
   <si>
-    <t>Received Sponsorship (9/25)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hitchiner </t>
-  </si>
-  <si>
     <t>Addiditive Rocket Coorporation</t>
   </si>
   <si>
@@ -253,68 +132,109 @@
     <t xml:space="preserve">Seneca Machine </t>
   </si>
   <si>
-    <t>"Stainless Steel Nozzel Machining"</t>
-  </si>
-  <si>
     <t xml:space="preserve">New England Wire Technologies </t>
   </si>
   <si>
-    <t>"Free Electronic Wiring Supplies"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waldron Engineering </t>
-  </si>
-  <si>
-    <t>Industry Sponsorship</t>
-  </si>
-  <si>
     <t>TBD</t>
   </si>
   <si>
     <t>Westinghouse Electric Corporation</t>
   </si>
   <si>
-    <t>Collegiate Sponsorship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of New Hampshire College of Engineering and Physical Sciences </t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of New Hampshire Mechanical Engineering Department </t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of New Hampshire Electrical Engineering Department </t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of New Hampshire Computer Science Department </t>
-  </si>
-  <si>
-    <t>Total Industry Sponsorship</t>
-  </si>
-  <si>
-    <t>Inconclusive ATM</t>
-  </si>
-  <si>
-    <t>Total Collegiate Sponsorship</t>
-  </si>
-  <si>
-    <t>Food and General Travel</t>
-  </si>
-  <si>
-    <t>Airplane Ticket</t>
+    <t>Payload</t>
+  </si>
+  <si>
+    <t>Shielding</t>
+  </si>
+  <si>
+    <t>Fire Extinguisher</t>
+  </si>
+  <si>
+    <t>First Aid Kit (Field)</t>
+  </si>
+  <si>
+    <t>Apparel</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <r>
+      <t>UNH SEDS 20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-202</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Budget - Full</t>
+    </r>
+  </si>
+  <si>
+    <t>Received Sponsorship (9/30)</t>
+  </si>
+  <si>
+    <t>ProAmpac</t>
+  </si>
+  <si>
+    <t>Reduced General Machining Costs</t>
+  </si>
+  <si>
+    <t>Donation Pending Authorization</t>
+  </si>
+  <si>
+    <t>Previous Year Balance</t>
+  </si>
+  <si>
+    <t>ME Senior Project</t>
+  </si>
+  <si>
+    <t>Total Current Sponsorship</t>
+  </si>
+  <si>
+    <t>Safety comes first, and we are in need of a professional, presentable and secure location to control and maintain our hot-fire tests. The team as a whole will be tasked with construction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team swag is important, and helps a great deal to unify the team, and provide a lasting affect on our graduates. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -375,33 +295,8 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color rgb="FF0070C0"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -409,13 +304,6 @@
       <sz val="8"/>
       <color theme="1" tint="0.34998626667073579"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -470,6 +358,11 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -515,7 +408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -588,92 +481,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="21"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="21"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color theme="4" tint="0.79998168889431442"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="21"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
-      </right>
-      <top style="thin">
-        <color indexed="21"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="21"/>
-      </left>
-      <right style="thin">
-        <color theme="2"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
-      </right>
-      <top style="thin">
-        <color indexed="21"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="21"/>
       </left>
       <right/>
       <top/>
@@ -685,7 +493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -727,15 +535,6 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -748,66 +547,39 @@
     <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -826,38 +598,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -865,9 +610,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -883,7 +625,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -895,39 +637,30 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -937,7 +670,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -956,32 +689,26 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1390,1195 +1117,579 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W133"/>
+  <dimension ref="A1:W85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="70" customWidth="1"/>
-    <col min="2" max="2" width="10" style="71" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="74" customWidth="1"/>
-    <col min="4" max="4" width="26" style="45" customWidth="1"/>
-    <col min="5" max="5" width="178.85546875" style="45" customWidth="1"/>
-    <col min="6" max="23" width="43.7109375" style="45" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="1" width="36.85546875" style="48" customWidth="1"/>
+    <col min="2" max="2" width="10" style="49" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="52" customWidth="1"/>
+    <col min="4" max="4" width="26" style="33" customWidth="1"/>
+    <col min="5" max="5" width="178.85546875" style="33" customWidth="1"/>
+    <col min="6" max="23" width="43.7109375" style="33" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="44"/>
+      <c r="A1" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="99" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="99"/>
-    </row>
-    <row r="5" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="99"/>
-    </row>
-    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="99"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="55"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="55"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="71"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="34">
-        <f>421.6*20</f>
-        <v>8432</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="99"/>
+        <v>9</v>
+      </c>
+      <c r="B7" s="18">
+        <f>15*16.5</f>
+        <v>247.5</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="71"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="16">
-        <f>145*5*3</f>
-        <v>2175</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="99"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="16">
-        <f>(6*10*20)+(5*10*3)</f>
-        <v>1350</v>
-      </c>
-      <c r="C9" s="97"/>
-      <c r="D9" s="99"/>
+        <v>10</v>
+      </c>
+      <c r="B8" s="18">
+        <f>10*31.76</f>
+        <v>317.60000000000002</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="71"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="30">
+        <f>SUM(B7:B8)</f>
+        <v>565.1</v>
+      </c>
+      <c r="D9" s="71"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="16">
-        <f>89.75*20</f>
-        <v>1795</v>
-      </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="99"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="37">
-        <f>SUM(B7:B10)</f>
-        <v>13752</v>
-      </c>
-      <c r="D11" s="99"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="38">
-        <f>C11/20</f>
-        <v>687.6</v>
-      </c>
-      <c r="D12" s="99"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="71"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="56"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="71" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="99"/>
-    </row>
-    <row r="14" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="64"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="77"/>
+      <c r="A13" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="71"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="18">
+        <v>250</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="71"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="98" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="98"/>
+      <c r="A15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="18">
+        <v>100</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="71"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="18">
+        <v>400</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="71"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="16">
-        <v>200</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="98"/>
+        <v>18</v>
+      </c>
+      <c r="B17" s="18">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="71"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="16">
-        <v>300</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="98"/>
+        <v>19</v>
+      </c>
+      <c r="B18" s="18">
+        <v>150</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="71"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="18">
+        <v>900</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="71"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="18">
+        <v>350</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="71"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="18">
+        <v>600</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="71"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="18">
+        <v>6000</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="71"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="25">
+        <v>1500</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="71"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="25">
+        <v>1000</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="71"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="30">
+        <f>SUM(B14:B24)</f>
+        <v>12250</v>
+      </c>
+      <c r="D25" s="71"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="71"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="55"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="71" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="71"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="16">
-        <v>310</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="98"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="37">
-        <f>SUM(B17:B19)</f>
-        <v>810</v>
-      </c>
-      <c r="D20" s="98"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="38">
-        <f>C20/2</f>
-        <v>405</v>
-      </c>
-      <c r="D21" s="98"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="98"/>
-    </row>
-    <row r="23" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="64"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="77"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="98" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="98"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="16">
-        <f>365.54*12</f>
-        <v>4386.4800000000005</v>
-      </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="98"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="16">
-        <f>186.4*3*4</f>
-        <v>2236.8000000000002</v>
-      </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="98"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="16">
-        <f>50*12</f>
-        <v>600</v>
-      </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="98"/>
-    </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="37">
-        <f>SUM(B26:B28)</f>
-        <v>7223.2800000000007</v>
-      </c>
-      <c r="D29" s="98"/>
-    </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="38">
-        <f>C29/12</f>
-        <v>601.94000000000005</v>
-      </c>
-      <c r="D30" s="98"/>
+      <c r="B30" s="18">
+        <v>150</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="71"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="98"/>
+      <c r="A31" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="18">
+        <v>150</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="71"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="18">
+        <v>70</v>
+      </c>
       <c r="C32" s="29"/>
-      <c r="D32" s="78"/>
+      <c r="D32" s="71"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="98" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="98"/>
-    </row>
-    <row r="35" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="53"/>
+      <c r="A33" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="18">
+        <v>100</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="71"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="26"/>
+      <c r="C34" s="30">
+        <f>SUM(B30:B33)</f>
+        <v>470</v>
+      </c>
+      <c r="D34" s="71"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="17"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="98"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="71"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="98"/>
-    </row>
-    <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="19">
-        <f>15*4*8</f>
-        <v>480</v>
-      </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="98"/>
-    </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="37">
-        <f>SUM(B37:B38)</f>
-        <v>480</v>
-      </c>
-      <c r="D38" s="98"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="56"/>
+    </row>
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="17"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="71"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="71"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="61"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="98"/>
-    </row>
-    <row r="40" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="64"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="77"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="61"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="98" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="98"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="21">
-        <v>67.95</v>
-      </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="98"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="21">
-        <v>95</v>
-      </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="98"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="21">
-        <f>15*16.5</f>
-        <v>247.5</v>
-      </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="98"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+      <c r="C39" s="50"/>
+      <c r="D39" s="57"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="17"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="71"/>
+    </row>
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="17"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="71"/>
+    </row>
+    <row r="42" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="27">
+        <f>C9</f>
+        <v>565.1</v>
+      </c>
+      <c r="D42" s="71"/>
+    </row>
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="17"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="71"/>
+    </row>
+    <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="27">
+        <f>C25</f>
+        <v>12250</v>
+      </c>
+      <c r="D44" s="71"/>
+    </row>
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="17"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="71"/>
+    </row>
+    <row r="46" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="27">
+        <f>C34</f>
+        <v>470</v>
+      </c>
+      <c r="D46" s="71"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="17"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="71"/>
+    </row>
+    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A48" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="21">
-        <f>10*31.76</f>
-        <v>317.60000000000002</v>
-      </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="98"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="30">
-        <f>24.99*13</f>
-        <v>324.87</v>
-      </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="98"/>
-    </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="31"/>
-      <c r="C48" s="37">
-        <f>SUM(B43:B47)</f>
-        <v>1052.92</v>
-      </c>
-      <c r="D48" s="98"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="20"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="98"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="27"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="78"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="53">
+        <f>C42+C44+C46</f>
+        <v>13285.1</v>
+      </c>
+      <c r="D48" s="71"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+    </row>
+    <row r="50" spans="1:4" ht="36" x14ac:dyDescent="0.2">
+      <c r="A50" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="98" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="98"/>
-    </row>
-    <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A53" s="53"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="98"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="60"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="69">
+        <v>561.47</v>
+      </c>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="69">
+        <v>1200</v>
+      </c>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="98"/>
+      <c r="A54" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="69">
+        <v>300</v>
+      </c>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="19">
-        <v>273.39999999999998</v>
-      </c>
-      <c r="C55" s="41"/>
-      <c r="D55" s="98"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
+      <c r="B55" s="61"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+    </row>
+    <row r="56" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="B56" s="19">
-        <v>177</v>
-      </c>
-      <c r="C56" s="41"/>
-      <c r="D56" s="98"/>
+      <c r="B56" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="19">
-        <v>347</v>
-      </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="98"/>
-    </row>
-    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" s="31"/>
-      <c r="C58" s="37">
-        <f>SUM(B54:B58)</f>
-        <v>797.4</v>
-      </c>
-      <c r="D58" s="98"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="20"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="98"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="61"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="27"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="78"/>
+      <c r="A60" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="58"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="98" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A62" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" s="46"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="98"/>
+      <c r="A61" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+    </row>
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="67"/>
+      <c r="C62" s="75">
+        <f>B52+B53+B54</f>
+        <v>2061.4700000000003</v>
+      </c>
+      <c r="D62" s="58"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="46"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="98"/>
+      <c r="A63" s="58"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="98"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B65" s="21">
-        <f>500</f>
-        <v>500</v>
-      </c>
-      <c r="C65" s="35"/>
-      <c r="D65" s="98"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B66" s="21">
-        <f>625</f>
-        <v>625</v>
-      </c>
-      <c r="C66" s="35"/>
-      <c r="D66" s="98"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B67" s="21">
-        <v>300</v>
-      </c>
-      <c r="C67" s="35"/>
-      <c r="D67" s="98"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B68" s="21">
-        <v>1250</v>
-      </c>
-      <c r="C68" s="35"/>
-      <c r="D68" s="98"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B69" s="21">
-        <f>1000</f>
-        <v>1000</v>
-      </c>
-      <c r="C69" s="35"/>
-      <c r="D69" s="98"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B70" s="21">
-        <v>650</v>
-      </c>
-      <c r="C70" s="35"/>
-      <c r="D70" s="98"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B71" s="21">
-        <v>250</v>
-      </c>
-      <c r="C71" s="35"/>
-      <c r="D71" s="98"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B72" s="21">
-        <v>600</v>
-      </c>
-      <c r="C72" s="35"/>
-      <c r="D72" s="98"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B73" s="21">
-        <v>1200</v>
-      </c>
-      <c r="C73" s="35"/>
-      <c r="D73" s="98"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B74" s="21">
-        <v>650</v>
-      </c>
-      <c r="C74" s="35"/>
-      <c r="D74" s="98"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B75" s="30">
-        <v>1500</v>
-      </c>
-      <c r="C75" s="42"/>
-      <c r="D75" s="98"/>
-    </row>
-    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="B76" s="31"/>
-      <c r="C76" s="37">
-        <f>SUM(B65:B75)</f>
-        <v>8525</v>
-      </c>
-      <c r="D76" s="98"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="61"/>
-      <c r="B77" s="62"/>
-      <c r="C77" s="67"/>
-      <c r="D77" s="98"/>
-    </row>
-    <row r="78" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="64"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="66"/>
-      <c r="D78" s="77"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="61"/>
-      <c r="B79" s="62"/>
-      <c r="C79" s="67"/>
-      <c r="D79" s="98" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="B80" s="21"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="98"/>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B81" s="21">
-        <v>350</v>
-      </c>
-      <c r="C81" s="35"/>
-      <c r="D81" s="98"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B82" s="21">
-        <v>250</v>
-      </c>
-      <c r="C82" s="35"/>
-      <c r="D82" s="98"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B83" s="21">
-        <v>200</v>
-      </c>
-      <c r="C83" s="35"/>
-      <c r="D83" s="98"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B84" s="21">
-        <v>550</v>
-      </c>
-      <c r="C84" s="35"/>
-      <c r="D84" s="98"/>
-    </row>
-    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="B85" s="31"/>
-      <c r="C85" s="37">
-        <f>SUM(B81:B84)</f>
-        <v>1350</v>
-      </c>
-      <c r="D85" s="98"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="61"/>
-      <c r="B86" s="62"/>
-      <c r="C86" s="67"/>
-      <c r="D86" s="98"/>
-    </row>
-    <row r="87" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="64"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="66"/>
-      <c r="D87" s="77"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="61"/>
-      <c r="B88" s="62"/>
-      <c r="C88" s="67"/>
-      <c r="D88" s="98" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="B89" s="21"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="98"/>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B90" s="21">
-        <v>544.99</v>
-      </c>
-      <c r="C90" s="35"/>
-      <c r="D90" s="98"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B91" s="21">
-        <v>1100</v>
-      </c>
-      <c r="C91" s="35"/>
-      <c r="D91" s="98"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B92" s="21">
-        <v>800</v>
-      </c>
-      <c r="C92" s="35"/>
-      <c r="D92" s="98"/>
-    </row>
-    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="B93" s="31"/>
-      <c r="C93" s="37">
-        <f>SUM(B90:B92)</f>
-        <v>2444.9899999999998</v>
-      </c>
-      <c r="D93" s="98"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="20"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="98"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="27"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="78"/>
-    </row>
-    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96" s="20"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="98"/>
-    </row>
-    <row r="97" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A97" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="B97" s="10"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="98"/>
-    </row>
-    <row r="98" spans="1:4" s="45" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="70"/>
-      <c r="B98" s="71"/>
-      <c r="C98" s="72"/>
-      <c r="D98" s="79"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="20"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="98"/>
-    </row>
-    <row r="100" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A100" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B100" s="10"/>
-      <c r="C100" s="32">
-        <f>C11+C20+C29</f>
-        <v>21785.279999999999</v>
-      </c>
-      <c r="D100" s="98"/>
-    </row>
-    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A101" s="20"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="98"/>
-    </row>
-    <row r="102" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A102" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="32">
-        <f>C38+C48</f>
-        <v>1532.92</v>
-      </c>
-      <c r="D102" s="98"/>
-    </row>
-    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A103" s="20"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="98"/>
-    </row>
-    <row r="104" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A104" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B104" s="10"/>
-      <c r="C104" s="32">
-        <f>C58</f>
-        <v>797.4</v>
-      </c>
-      <c r="D104" s="98"/>
-    </row>
-    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A105" s="20"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="98"/>
-    </row>
-    <row r="106" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A106" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B106" s="10"/>
-      <c r="C106" s="32">
-        <f>C76+C85+C93</f>
-        <v>12319.99</v>
-      </c>
-      <c r="D106" s="98"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="20"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="98"/>
-    </row>
-    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A108" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="B108" s="33"/>
-      <c r="C108" s="75">
-        <f>C100+C102+C104+C106</f>
-        <v>36435.589999999997</v>
-      </c>
-      <c r="D108" s="98"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="45"/>
-      <c r="B109" s="45"/>
-      <c r="C109" s="45"/>
-    </row>
-    <row r="110" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="B110" s="80"/>
-      <c r="C110" s="80"/>
-      <c r="D110" s="80"/>
-    </row>
-    <row r="111" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="64"/>
-      <c r="B111" s="65"/>
-      <c r="C111" s="84"/>
-      <c r="D111" s="85"/>
-    </row>
-    <row r="112" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A112" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="B112" s="86"/>
-      <c r="C112" s="80"/>
-      <c r="D112" s="80"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="B113" s="96">
-        <v>200</v>
-      </c>
-      <c r="C113" s="80"/>
-      <c r="D113" s="80"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="B114" s="86"/>
-      <c r="C114" s="80"/>
-      <c r="D114" s="80"/>
-    </row>
-    <row r="115" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="B115" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="C115" s="80"/>
-      <c r="D115" s="80"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="B116" s="86"/>
-      <c r="C116" s="80"/>
-      <c r="D116" s="80"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="B117" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="C117" s="80"/>
-      <c r="D117" s="80"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="B118" s="86"/>
-      <c r="C118" s="80"/>
-      <c r="D118" s="80"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="B119" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="C119" s="80"/>
-      <c r="D119" s="80"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="B120" s="96">
-        <v>250</v>
-      </c>
-      <c r="C120" s="80"/>
-      <c r="D120" s="80"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="93" t="s">
-        <v>79</v>
-      </c>
-      <c r="B121" s="80"/>
-      <c r="C121" s="80"/>
-      <c r="D121" s="80"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="80"/>
-      <c r="B122" s="92" t="s">
-        <v>78</v>
-      </c>
-      <c r="C122" s="80"/>
-      <c r="D122" s="80"/>
-    </row>
-    <row r="123" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="B123" s="92"/>
-      <c r="C123" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="D123" s="80"/>
-    </row>
-    <row r="124" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="80"/>
-      <c r="B124" s="92"/>
-      <c r="C124" s="80"/>
-      <c r="D124" s="80"/>
-    </row>
-    <row r="125" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="85"/>
-      <c r="B125" s="85"/>
-      <c r="C125" s="85"/>
-      <c r="D125" s="85"/>
-    </row>
-    <row r="126" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="B126" s="80"/>
-      <c r="C126" s="80"/>
-      <c r="D126" s="80"/>
-    </row>
-    <row r="127" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="B127" s="82">
-        <v>3500</v>
-      </c>
-      <c r="C127" s="80"/>
-      <c r="D127" s="80"/>
-    </row>
-    <row r="128" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="94" t="s">
-        <v>82</v>
-      </c>
-      <c r="B128" s="82">
-        <v>2000</v>
-      </c>
-      <c r="C128" s="80"/>
-      <c r="D128" s="80"/>
-    </row>
-    <row r="129" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="B129" s="82">
-        <v>400</v>
-      </c>
-      <c r="C129" s="80"/>
-      <c r="D129" s="80"/>
-    </row>
-    <row r="130" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="94" t="s">
-        <v>84</v>
-      </c>
-      <c r="B130" s="82">
-        <v>150</v>
-      </c>
-      <c r="C130" s="80"/>
-      <c r="D130" s="80"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="80"/>
-      <c r="B131" s="80"/>
-      <c r="C131" s="80"/>
-      <c r="D131" s="80"/>
-    </row>
-    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A132" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="B132" s="86"/>
-      <c r="C132" s="95">
-        <f>SUM(B127,B128,B129,B130)</f>
-        <v>6050</v>
-      </c>
-      <c r="D132" s="80"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="81"/>
-      <c r="B133" s="86"/>
-      <c r="C133" s="83"/>
-      <c r="D133" s="80"/>
-    </row>
+      <c r="A64" s="60"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+    </row>
+    <row r="69" ht="37.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="6">
+    <mergeCell ref="D40:D48"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="D12:D26"/>
+    <mergeCell ref="D28:D35"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D15:D22"/>
-    <mergeCell ref="D24:D31"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="D99:D108"/>
-    <mergeCell ref="D3:D13"/>
-    <mergeCell ref="D41:D49"/>
-    <mergeCell ref="D51:D59"/>
-    <mergeCell ref="D61:D77"/>
-    <mergeCell ref="D79:D86"/>
-    <mergeCell ref="D88:D94"/>
+    <mergeCell ref="D37:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2606,11 +1717,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2634,11 +1745,11 @@
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -2786,7 +1897,7 @@
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="11">
         <f>SUM(B4:B6)</f>
         <v>11101.4</v>
@@ -2817,7 +1928,7 @@
       <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="14">
         <f>C7/20</f>
         <v>555.06999999999994</v>
